--- a/030_設計ドキュメント/Nablarch開発標準設計書一覧.xlsx
+++ b/030_設計ドキュメント/Nablarch開発標準設計書一覧.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 概要'!$A$1:$AI$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2.1. 設計書体系図'!$A$1:$BA$72</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.2. 設計書一覧'!$A$1:$AQ$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.2. 設計書一覧'!$A$1:$AQ$74</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'3. 設計書とソースコードの対応'!$A$1:$AI$125</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
@@ -29,9 +29,9 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'3. 設計書とソースコードの対応'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
-    <definedName name="Z_4588D9FD_BE60_41A2_84C1_3F86A9D119AD_.wvu.PrintArea" localSheetId="5" hidden="1">'2.2. 設計書一覧'!$A$1:$AQ$84</definedName>
+    <definedName name="Z_4588D9FD_BE60_41A2_84C1_3F86A9D119AD_.wvu.PrintArea" localSheetId="5" hidden="1">'2.2. 設計書一覧'!$A$1:$AQ$74</definedName>
     <definedName name="Z_4588D9FD_BE60_41A2_84C1_3F86A9D119AD_.wvu.PrintTitles" localSheetId="5" hidden="1">'2.2. 設計書一覧'!$1:$4</definedName>
-    <definedName name="Z_E0BDFAF5_8503_4849_AFDC_25B40FF2DCFC_.wvu.PrintArea" localSheetId="5" hidden="1">'2.2. 設計書一覧'!$A$1:$AQ$84</definedName>
+    <definedName name="Z_E0BDFAF5_8503_4849_AFDC_25B40FF2DCFC_.wvu.PrintArea" localSheetId="5" hidden="1">'2.2. 設計書一覧'!$A$1:$AQ$74</definedName>
     <definedName name="Z_E0BDFAF5_8503_4849_AFDC_25B40FF2DCFC_.wvu.PrintTitles" localSheetId="5" hidden="1">'2.2. 設計書一覧'!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="203">
   <si>
     <t>PJ名</t>
   </si>
@@ -194,18 +194,6 @@
   </si>
   <si>
     <t>テスト標準</t>
-  </si>
-  <si>
-    <t>プログラミング標準</t>
-  </si>
-  <si>
-    <t>シェルスクリプト開発標準</t>
-  </si>
-  <si>
-    <t>JSPコーディング規約</t>
-  </si>
-  <si>
-    <t>SQLコーディング規約</t>
   </si>
   <si>
     <t>標準書式</t>
@@ -680,64 +668,7 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>Javaコーディング規約</t>
-  </si>
-  <si>
-    <t>Javaのコーディング規約</t>
-  </si>
-  <si>
     <t>CC4</t>
-  </si>
-  <si>
-    <t>Javaコードフォーマッター</t>
-  </si>
-  <si>
-    <t>プロジェクトですぐに使用できるJavaのコードフォーマッター</t>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>AL2</t>
-  </si>
-  <si>
-    <t>Checkstyleガイド</t>
-  </si>
-  <si>
-    <t>プロジェクトでCheckstyleを利用する際の資材</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>CC4（サンプルはAL2）</t>
-  </si>
-  <si>
-    <t>SpotBugsガイド</t>
-  </si>
-  <si>
-    <t>プロジェクトでSpotBugsを利用する際の資材</t>
-  </si>
-  <si>
-    <t>JavaScriptコーディング規約</t>
-  </si>
-  <si>
-    <t>JavaScriptのコーディング規約</t>
-  </si>
-  <si>
-    <t>JavaScript利用可能API一覧</t>
-  </si>
-  <si>
-    <t>JavaScriptの利用可能APIを定義するサンプル</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>JSPのコーディング規約</t>
-  </si>
-  <si>
-    <t>SQLのコーディング規約</t>
-  </si>
-  <si>
-    <t>シェルスクリプトの作成仕様を定義した文書</t>
   </si>
   <si>
     <t>単体テスト標準</t>
@@ -1147,10 +1078,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>CC4（サンプルはAL2）</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>画面アプリケーションについては、設計者の利便性を考慮し、インタフェース設計とシステム機能設計を1つの設計書に記載する。</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -1314,13 +1241,6 @@
   </si>
   <si>
     <t>Excel</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Web公開</t>
-    <rPh sb="3" eb="5">
-      <t>コウカイ</t>
-    </rPh>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -2510,6 +2430,87 @@
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2627,86 +2628,14 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2717,13 +2646,31 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2752,33 +2699,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -8236,7 +8156,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" anchor="t"/>
+        <a:bodyPr wrap="square" anchor="ctr"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="ja-JP"/>
@@ -9227,7 +9147,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" anchor="t"/>
+        <a:bodyPr wrap="square" anchor="ctr"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="ja-JP"/>
@@ -9394,7 +9314,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr algn="l">
+          <a:pPr algn="ctr">
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -9416,7 +9336,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l">
+          <a:pPr algn="ctr">
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -9960,7 +9880,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" anchor="t"/>
+        <a:bodyPr wrap="square" anchor="ctr"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="ja-JP"/>
@@ -10127,7 +10047,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr algn="l">
+          <a:pPr algn="ctr">
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -11341,7 +11261,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" anchor="t"/>
+        <a:bodyPr wrap="square" anchor="ctr"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="ja-JP"/>
@@ -12283,7 +12203,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" anchor="t"/>
+        <a:bodyPr wrap="square" anchor="ctr"/>
         <a:lstStyle>
           <a:defPPr>
             <a:defRPr lang="ja-JP"/>
@@ -13786,55 +13706,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="126" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="115" t="s">
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="162" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="171" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="108">
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="135">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="110"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="137"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -13842,51 +13762,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="115" t="s">
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="121" t="str">
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="108" t="str">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="135" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="110"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="137"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -13894,43 +13814,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="110"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="137"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -13967,1190 +13887,1034 @@
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="111" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="111" t="s">
+      <c r="E7" s="140"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="114" t="s">
+      <c r="H7" s="140"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="111" t="s">
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="113"/>
-      <c r="AB7" s="113"/>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="113"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="111" t="s">
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="140"/>
+      <c r="AD7" s="140"/>
+      <c r="AE7" s="139"/>
+      <c r="AF7" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="113"/>
-      <c r="AH7" s="113"/>
-      <c r="AI7" s="112"/>
+      <c r="AG7" s="140"/>
+      <c r="AH7" s="140"/>
+      <c r="AI7" s="139"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="161">
+      <c r="C8" s="122"/>
+      <c r="D8" s="123">
         <v>43336</v>
       </c>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164" t="s">
+      <c r="E8" s="124"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="167" t="s">
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="170" t="s">
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="171"/>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="167" t="s">
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="133"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="133"/>
+      <c r="AA8" s="133"/>
+      <c r="AB8" s="133"/>
+      <c r="AC8" s="133"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="168"/>
-      <c r="AH8" s="168"/>
-      <c r="AI8" s="169"/>
+      <c r="AG8" s="130"/>
+      <c r="AH8" s="130"/>
+      <c r="AI8" s="131"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="154"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="157"/>
-      <c r="S9" s="157"/>
-      <c r="T9" s="157"/>
-      <c r="U9" s="157"/>
-      <c r="V9" s="157"/>
-      <c r="W9" s="157"/>
-      <c r="X9" s="157"/>
-      <c r="Y9" s="157"/>
-      <c r="Z9" s="157"/>
-      <c r="AA9" s="157"/>
-      <c r="AB9" s="157"/>
-      <c r="AC9" s="157"/>
-      <c r="AD9" s="157"/>
-      <c r="AE9" s="158"/>
-      <c r="AF9" s="153"/>
-      <c r="AG9" s="154"/>
-      <c r="AH9" s="154"/>
-      <c r="AI9" s="155"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="118"/>
+      <c r="W9" s="118"/>
+      <c r="X9" s="118"/>
+      <c r="Y9" s="118"/>
+      <c r="Z9" s="118"/>
+      <c r="AA9" s="118"/>
+      <c r="AB9" s="118"/>
+      <c r="AC9" s="118"/>
+      <c r="AD9" s="118"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="115"/>
+      <c r="AH9" s="115"/>
+      <c r="AI9" s="116"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="157"/>
-      <c r="S10" s="157"/>
-      <c r="T10" s="157"/>
-      <c r="U10" s="157"/>
-      <c r="V10" s="157"/>
-      <c r="W10" s="157"/>
-      <c r="X10" s="157"/>
-      <c r="Y10" s="157"/>
-      <c r="Z10" s="157"/>
-      <c r="AA10" s="157"/>
-      <c r="AB10" s="157"/>
-      <c r="AC10" s="157"/>
-      <c r="AD10" s="157"/>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="154"/>
-      <c r="AH10" s="154"/>
-      <c r="AI10" s="155"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="118"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="115"/>
+      <c r="AI10" s="116"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="153"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="157"/>
-      <c r="S11" s="157"/>
-      <c r="T11" s="157"/>
-      <c r="U11" s="157"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="157"/>
-      <c r="X11" s="157"/>
-      <c r="Y11" s="157"/>
-      <c r="Z11" s="157"/>
-      <c r="AA11" s="157"/>
-      <c r="AB11" s="157"/>
-      <c r="AC11" s="157"/>
-      <c r="AD11" s="157"/>
-      <c r="AE11" s="158"/>
-      <c r="AF11" s="153"/>
-      <c r="AG11" s="154"/>
-      <c r="AH11" s="154"/>
-      <c r="AI11" s="155"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="118"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="118"/>
+      <c r="AE11" s="119"/>
+      <c r="AF11" s="114"/>
+      <c r="AG11" s="115"/>
+      <c r="AH11" s="115"/>
+      <c r="AI11" s="116"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="157"/>
-      <c r="S12" s="157"/>
-      <c r="T12" s="157"/>
-      <c r="U12" s="157"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="157"/>
-      <c r="X12" s="157"/>
-      <c r="Y12" s="157"/>
-      <c r="Z12" s="157"/>
-      <c r="AA12" s="157"/>
-      <c r="AB12" s="157"/>
-      <c r="AC12" s="157"/>
-      <c r="AD12" s="157"/>
-      <c r="AE12" s="158"/>
-      <c r="AF12" s="153"/>
-      <c r="AG12" s="154"/>
-      <c r="AH12" s="154"/>
-      <c r="AI12" s="155"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="118"/>
+      <c r="Y12" s="118"/>
+      <c r="Z12" s="118"/>
+      <c r="AA12" s="118"/>
+      <c r="AB12" s="118"/>
+      <c r="AC12" s="118"/>
+      <c r="AD12" s="118"/>
+      <c r="AE12" s="119"/>
+      <c r="AF12" s="114"/>
+      <c r="AG12" s="115"/>
+      <c r="AH12" s="115"/>
+      <c r="AI12" s="116"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="157"/>
-      <c r="S13" s="157"/>
-      <c r="T13" s="157"/>
-      <c r="U13" s="157"/>
-      <c r="V13" s="157"/>
-      <c r="W13" s="157"/>
-      <c r="X13" s="157"/>
-      <c r="Y13" s="157"/>
-      <c r="Z13" s="157"/>
-      <c r="AA13" s="157"/>
-      <c r="AB13" s="157"/>
-      <c r="AC13" s="157"/>
-      <c r="AD13" s="157"/>
-      <c r="AE13" s="158"/>
-      <c r="AF13" s="153"/>
-      <c r="AG13" s="154"/>
-      <c r="AH13" s="154"/>
-      <c r="AI13" s="155"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="118"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="115"/>
+      <c r="AH13" s="115"/>
+      <c r="AI13" s="116"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="157"/>
-      <c r="S14" s="157"/>
-      <c r="T14" s="157"/>
-      <c r="U14" s="157"/>
-      <c r="V14" s="157"/>
-      <c r="W14" s="157"/>
-      <c r="X14" s="157"/>
-      <c r="Y14" s="157"/>
-      <c r="Z14" s="157"/>
-      <c r="AA14" s="157"/>
-      <c r="AB14" s="157"/>
-      <c r="AC14" s="157"/>
-      <c r="AD14" s="157"/>
-      <c r="AE14" s="158"/>
-      <c r="AF14" s="153"/>
-      <c r="AG14" s="154"/>
-      <c r="AH14" s="154"/>
-      <c r="AI14" s="155"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="118"/>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="118"/>
+      <c r="AB14" s="118"/>
+      <c r="AC14" s="118"/>
+      <c r="AD14" s="118"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="114"/>
+      <c r="AG14" s="115"/>
+      <c r="AH14" s="115"/>
+      <c r="AI14" s="116"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="157"/>
-      <c r="S15" s="157"/>
-      <c r="T15" s="157"/>
-      <c r="U15" s="157"/>
-      <c r="V15" s="157"/>
-      <c r="W15" s="157"/>
-      <c r="X15" s="157"/>
-      <c r="Y15" s="157"/>
-      <c r="Z15" s="157"/>
-      <c r="AA15" s="157"/>
-      <c r="AB15" s="157"/>
-      <c r="AC15" s="157"/>
-      <c r="AD15" s="157"/>
-      <c r="AE15" s="158"/>
-      <c r="AF15" s="153"/>
-      <c r="AG15" s="154"/>
-      <c r="AH15" s="154"/>
-      <c r="AI15" s="155"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="118"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="118"/>
+      <c r="AE15" s="119"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="115"/>
+      <c r="AH15" s="115"/>
+      <c r="AI15" s="116"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="154"/>
-      <c r="O16" s="154"/>
-      <c r="P16" s="155"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="157"/>
-      <c r="S16" s="157"/>
-      <c r="T16" s="157"/>
-      <c r="U16" s="157"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="157"/>
-      <c r="Y16" s="157"/>
-      <c r="Z16" s="157"/>
-      <c r="AA16" s="157"/>
-      <c r="AB16" s="157"/>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="157"/>
-      <c r="AE16" s="158"/>
-      <c r="AF16" s="153"/>
-      <c r="AG16" s="154"/>
-      <c r="AH16" s="154"/>
-      <c r="AI16" s="155"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+      <c r="AE16" s="119"/>
+      <c r="AF16" s="114"/>
+      <c r="AG16" s="115"/>
+      <c r="AH16" s="115"/>
+      <c r="AI16" s="116"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="155"/>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="157"/>
-      <c r="S17" s="157"/>
-      <c r="T17" s="157"/>
-      <c r="U17" s="157"/>
-      <c r="V17" s="157"/>
-      <c r="W17" s="157"/>
-      <c r="X17" s="157"/>
-      <c r="Y17" s="157"/>
-      <c r="Z17" s="157"/>
-      <c r="AA17" s="157"/>
-      <c r="AB17" s="157"/>
-      <c r="AC17" s="157"/>
-      <c r="AD17" s="157"/>
-      <c r="AE17" s="158"/>
-      <c r="AF17" s="153"/>
-      <c r="AG17" s="154"/>
-      <c r="AH17" s="154"/>
-      <c r="AI17" s="155"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="119"/>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="115"/>
+      <c r="AH17" s="115"/>
+      <c r="AI17" s="116"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
-      <c r="B18" s="147"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="157"/>
-      <c r="S18" s="157"/>
-      <c r="T18" s="157"/>
-      <c r="U18" s="157"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="157"/>
-      <c r="X18" s="157"/>
-      <c r="Y18" s="157"/>
-      <c r="Z18" s="157"/>
-      <c r="AA18" s="157"/>
-      <c r="AB18" s="157"/>
-      <c r="AC18" s="157"/>
-      <c r="AD18" s="157"/>
-      <c r="AE18" s="158"/>
-      <c r="AF18" s="153"/>
-      <c r="AG18" s="154"/>
-      <c r="AH18" s="154"/>
-      <c r="AI18" s="155"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
+      <c r="AE18" s="119"/>
+      <c r="AF18" s="114"/>
+      <c r="AG18" s="115"/>
+      <c r="AH18" s="115"/>
+      <c r="AI18" s="116"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="157"/>
-      <c r="S19" s="157"/>
-      <c r="T19" s="157"/>
-      <c r="U19" s="157"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="157"/>
-      <c r="X19" s="157"/>
-      <c r="Y19" s="157"/>
-      <c r="Z19" s="157"/>
-      <c r="AA19" s="157"/>
-      <c r="AB19" s="157"/>
-      <c r="AC19" s="157"/>
-      <c r="AD19" s="157"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="153"/>
-      <c r="AG19" s="154"/>
-      <c r="AH19" s="154"/>
-      <c r="AI19" s="155"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="118"/>
+      <c r="AE19" s="119"/>
+      <c r="AF19" s="114"/>
+      <c r="AG19" s="115"/>
+      <c r="AH19" s="115"/>
+      <c r="AI19" s="116"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="154"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="156"/>
-      <c r="R20" s="157"/>
-      <c r="S20" s="157"/>
-      <c r="T20" s="157"/>
-      <c r="U20" s="157"/>
-      <c r="V20" s="157"/>
-      <c r="W20" s="157"/>
-      <c r="X20" s="157"/>
-      <c r="Y20" s="157"/>
-      <c r="Z20" s="157"/>
-      <c r="AA20" s="157"/>
-      <c r="AB20" s="157"/>
-      <c r="AC20" s="157"/>
-      <c r="AD20" s="157"/>
-      <c r="AE20" s="158"/>
-      <c r="AF20" s="153"/>
-      <c r="AG20" s="154"/>
-      <c r="AH20" s="154"/>
-      <c r="AI20" s="155"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="118"/>
+      <c r="AE20" s="119"/>
+      <c r="AF20" s="114"/>
+      <c r="AG20" s="115"/>
+      <c r="AH20" s="115"/>
+      <c r="AI20" s="116"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="155"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="157"/>
-      <c r="S21" s="157"/>
-      <c r="T21" s="157"/>
-      <c r="U21" s="157"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="157"/>
-      <c r="X21" s="157"/>
-      <c r="Y21" s="157"/>
-      <c r="Z21" s="157"/>
-      <c r="AA21" s="157"/>
-      <c r="AB21" s="157"/>
-      <c r="AC21" s="157"/>
-      <c r="AD21" s="157"/>
-      <c r="AE21" s="158"/>
-      <c r="AF21" s="153"/>
-      <c r="AG21" s="154"/>
-      <c r="AH21" s="154"/>
-      <c r="AI21" s="155"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="118"/>
+      <c r="AB21" s="118"/>
+      <c r="AC21" s="118"/>
+      <c r="AD21" s="118"/>
+      <c r="AE21" s="119"/>
+      <c r="AF21" s="114"/>
+      <c r="AG21" s="115"/>
+      <c r="AH21" s="115"/>
+      <c r="AI21" s="116"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="157"/>
-      <c r="S22" s="157"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="157"/>
-      <c r="X22" s="157"/>
-      <c r="Y22" s="157"/>
-      <c r="Z22" s="157"/>
-      <c r="AA22" s="157"/>
-      <c r="AB22" s="157"/>
-      <c r="AC22" s="157"/>
-      <c r="AD22" s="157"/>
-      <c r="AE22" s="158"/>
-      <c r="AF22" s="153"/>
-      <c r="AG22" s="154"/>
-      <c r="AH22" s="154"/>
-      <c r="AI22" s="155"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="118"/>
+      <c r="Y22" s="118"/>
+      <c r="Z22" s="118"/>
+      <c r="AA22" s="118"/>
+      <c r="AB22" s="118"/>
+      <c r="AC22" s="118"/>
+      <c r="AD22" s="118"/>
+      <c r="AE22" s="119"/>
+      <c r="AF22" s="114"/>
+      <c r="AG22" s="115"/>
+      <c r="AH22" s="115"/>
+      <c r="AI22" s="116"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
-      <c r="B23" s="147"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="154"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="156"/>
-      <c r="R23" s="157"/>
-      <c r="S23" s="157"/>
-      <c r="T23" s="157"/>
-      <c r="U23" s="157"/>
-      <c r="V23" s="157"/>
-      <c r="W23" s="157"/>
-      <c r="X23" s="157"/>
-      <c r="Y23" s="157"/>
-      <c r="Z23" s="157"/>
-      <c r="AA23" s="157"/>
-      <c r="AB23" s="157"/>
-      <c r="AC23" s="157"/>
-      <c r="AD23" s="157"/>
-      <c r="AE23" s="158"/>
-      <c r="AF23" s="153"/>
-      <c r="AG23" s="154"/>
-      <c r="AH23" s="154"/>
-      <c r="AI23" s="155"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="118"/>
+      <c r="AE23" s="119"/>
+      <c r="AF23" s="114"/>
+      <c r="AG23" s="115"/>
+      <c r="AH23" s="115"/>
+      <c r="AI23" s="116"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20"/>
-      <c r="B24" s="147"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="155"/>
-      <c r="Q24" s="156"/>
-      <c r="R24" s="157"/>
-      <c r="S24" s="157"/>
-      <c r="T24" s="157"/>
-      <c r="U24" s="157"/>
-      <c r="V24" s="157"/>
-      <c r="W24" s="157"/>
-      <c r="X24" s="157"/>
-      <c r="Y24" s="157"/>
-      <c r="Z24" s="157"/>
-      <c r="AA24" s="157"/>
-      <c r="AB24" s="157"/>
-      <c r="AC24" s="157"/>
-      <c r="AD24" s="157"/>
-      <c r="AE24" s="158"/>
-      <c r="AF24" s="153"/>
-      <c r="AG24" s="154"/>
-      <c r="AH24" s="154"/>
-      <c r="AI24" s="155"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="118"/>
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="119"/>
+      <c r="AF24" s="114"/>
+      <c r="AG24" s="115"/>
+      <c r="AH24" s="115"/>
+      <c r="AI24" s="116"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="155"/>
-      <c r="Q25" s="156"/>
-      <c r="R25" s="157"/>
-      <c r="S25" s="157"/>
-      <c r="T25" s="157"/>
-      <c r="U25" s="157"/>
-      <c r="V25" s="157"/>
-      <c r="W25" s="157"/>
-      <c r="X25" s="157"/>
-      <c r="Y25" s="157"/>
-      <c r="Z25" s="157"/>
-      <c r="AA25" s="157"/>
-      <c r="AB25" s="157"/>
-      <c r="AC25" s="157"/>
-      <c r="AD25" s="157"/>
-      <c r="AE25" s="158"/>
-      <c r="AF25" s="153"/>
-      <c r="AG25" s="154"/>
-      <c r="AH25" s="154"/>
-      <c r="AI25" s="155"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="118"/>
+      <c r="AE25" s="119"/>
+      <c r="AF25" s="114"/>
+      <c r="AG25" s="115"/>
+      <c r="AH25" s="115"/>
+      <c r="AI25" s="116"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="157"/>
-      <c r="S26" s="157"/>
-      <c r="T26" s="157"/>
-      <c r="U26" s="157"/>
-      <c r="V26" s="157"/>
-      <c r="W26" s="157"/>
-      <c r="X26" s="157"/>
-      <c r="Y26" s="157"/>
-      <c r="Z26" s="157"/>
-      <c r="AA26" s="157"/>
-      <c r="AB26" s="157"/>
-      <c r="AC26" s="157"/>
-      <c r="AD26" s="157"/>
-      <c r="AE26" s="158"/>
-      <c r="AF26" s="153"/>
-      <c r="AG26" s="154"/>
-      <c r="AH26" s="154"/>
-      <c r="AI26" s="155"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="118"/>
+      <c r="AB26" s="118"/>
+      <c r="AC26" s="118"/>
+      <c r="AD26" s="118"/>
+      <c r="AE26" s="119"/>
+      <c r="AF26" s="114"/>
+      <c r="AG26" s="115"/>
+      <c r="AH26" s="115"/>
+      <c r="AI26" s="116"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="155"/>
-      <c r="Q27" s="156"/>
-      <c r="R27" s="157"/>
-      <c r="S27" s="157"/>
-      <c r="T27" s="157"/>
-      <c r="U27" s="157"/>
-      <c r="V27" s="157"/>
-      <c r="W27" s="157"/>
-      <c r="X27" s="157"/>
-      <c r="Y27" s="157"/>
-      <c r="Z27" s="157"/>
-      <c r="AA27" s="157"/>
-      <c r="AB27" s="157"/>
-      <c r="AC27" s="157"/>
-      <c r="AD27" s="157"/>
-      <c r="AE27" s="158"/>
-      <c r="AF27" s="153"/>
-      <c r="AG27" s="154"/>
-      <c r="AH27" s="154"/>
-      <c r="AI27" s="155"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="116"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="118"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="118"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="118"/>
+      <c r="AD27" s="118"/>
+      <c r="AE27" s="119"/>
+      <c r="AF27" s="114"/>
+      <c r="AG27" s="115"/>
+      <c r="AH27" s="115"/>
+      <c r="AI27" s="116"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20"/>
-      <c r="B28" s="147"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="157"/>
-      <c r="S28" s="157"/>
-      <c r="T28" s="157"/>
-      <c r="U28" s="157"/>
-      <c r="V28" s="157"/>
-      <c r="W28" s="157"/>
-      <c r="X28" s="157"/>
-      <c r="Y28" s="157"/>
-      <c r="Z28" s="157"/>
-      <c r="AA28" s="157"/>
-      <c r="AB28" s="157"/>
-      <c r="AC28" s="157"/>
-      <c r="AD28" s="157"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="153"/>
-      <c r="AG28" s="154"/>
-      <c r="AH28" s="154"/>
-      <c r="AI28" s="155"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="118"/>
+      <c r="AD28" s="118"/>
+      <c r="AE28" s="119"/>
+      <c r="AF28" s="114"/>
+      <c r="AG28" s="115"/>
+      <c r="AH28" s="115"/>
+      <c r="AI28" s="116"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="156"/>
-      <c r="R29" s="157"/>
-      <c r="S29" s="157"/>
-      <c r="T29" s="157"/>
-      <c r="U29" s="157"/>
-      <c r="V29" s="157"/>
-      <c r="W29" s="157"/>
-      <c r="X29" s="157"/>
-      <c r="Y29" s="157"/>
-      <c r="Z29" s="157"/>
-      <c r="AA29" s="157"/>
-      <c r="AB29" s="157"/>
-      <c r="AC29" s="157"/>
-      <c r="AD29" s="157"/>
-      <c r="AE29" s="158"/>
-      <c r="AF29" s="153"/>
-      <c r="AG29" s="154"/>
-      <c r="AH29" s="154"/>
-      <c r="AI29" s="155"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="116"/>
+      <c r="Q29" s="117"/>
+      <c r="R29" s="118"/>
+      <c r="S29" s="118"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="118"/>
+      <c r="X29" s="118"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="118"/>
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="118"/>
+      <c r="AD29" s="118"/>
+      <c r="AE29" s="119"/>
+      <c r="AF29" s="114"/>
+      <c r="AG29" s="115"/>
+      <c r="AH29" s="115"/>
+      <c r="AI29" s="116"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="20"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="154"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="154"/>
-      <c r="P30" s="155"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="157"/>
-      <c r="S30" s="157"/>
-      <c r="T30" s="157"/>
-      <c r="U30" s="157"/>
-      <c r="V30" s="157"/>
-      <c r="W30" s="157"/>
-      <c r="X30" s="157"/>
-      <c r="Y30" s="157"/>
-      <c r="Z30" s="157"/>
-      <c r="AA30" s="157"/>
-      <c r="AB30" s="157"/>
-      <c r="AC30" s="157"/>
-      <c r="AD30" s="157"/>
-      <c r="AE30" s="158"/>
-      <c r="AF30" s="153"/>
-      <c r="AG30" s="154"/>
-      <c r="AH30" s="154"/>
-      <c r="AI30" s="155"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="117"/>
+      <c r="R30" s="118"/>
+      <c r="S30" s="118"/>
+      <c r="T30" s="118"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="118"/>
+      <c r="W30" s="118"/>
+      <c r="X30" s="118"/>
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="118"/>
+      <c r="AA30" s="118"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="118"/>
+      <c r="AD30" s="118"/>
+      <c r="AE30" s="119"/>
+      <c r="AF30" s="114"/>
+      <c r="AG30" s="115"/>
+      <c r="AH30" s="115"/>
+      <c r="AI30" s="116"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="154"/>
-      <c r="M31" s="154"/>
-      <c r="N31" s="154"/>
-      <c r="O31" s="154"/>
-      <c r="P31" s="155"/>
-      <c r="Q31" s="156"/>
-      <c r="R31" s="157"/>
-      <c r="S31" s="157"/>
-      <c r="T31" s="157"/>
-      <c r="U31" s="157"/>
-      <c r="V31" s="157"/>
-      <c r="W31" s="157"/>
-      <c r="X31" s="157"/>
-      <c r="Y31" s="157"/>
-      <c r="Z31" s="157"/>
-      <c r="AA31" s="157"/>
-      <c r="AB31" s="157"/>
-      <c r="AC31" s="157"/>
-      <c r="AD31" s="157"/>
-      <c r="AE31" s="158"/>
-      <c r="AF31" s="153"/>
-      <c r="AG31" s="154"/>
-      <c r="AH31" s="154"/>
-      <c r="AI31" s="155"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="116"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="118"/>
+      <c r="S31" s="118"/>
+      <c r="T31" s="118"/>
+      <c r="U31" s="118"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="118"/>
+      <c r="Y31" s="118"/>
+      <c r="Z31" s="118"/>
+      <c r="AA31" s="118"/>
+      <c r="AB31" s="118"/>
+      <c r="AC31" s="118"/>
+      <c r="AD31" s="118"/>
+      <c r="AE31" s="119"/>
+      <c r="AF31" s="114"/>
+      <c r="AG31" s="115"/>
+      <c r="AH31" s="115"/>
+      <c r="AI31" s="116"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="154"/>
-      <c r="M32" s="154"/>
-      <c r="N32" s="154"/>
-      <c r="O32" s="154"/>
-      <c r="P32" s="155"/>
-      <c r="Q32" s="156"/>
-      <c r="R32" s="157"/>
-      <c r="S32" s="157"/>
-      <c r="T32" s="157"/>
-      <c r="U32" s="157"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="157"/>
-      <c r="X32" s="157"/>
-      <c r="Y32" s="157"/>
-      <c r="Z32" s="157"/>
-      <c r="AA32" s="157"/>
-      <c r="AB32" s="157"/>
-      <c r="AC32" s="157"/>
-      <c r="AD32" s="157"/>
-      <c r="AE32" s="158"/>
-      <c r="AF32" s="153"/>
-      <c r="AG32" s="154"/>
-      <c r="AH32" s="154"/>
-      <c r="AI32" s="155"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="117"/>
+      <c r="R32" s="118"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="118"/>
+      <c r="Y32" s="118"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="118"/>
+      <c r="AD32" s="118"/>
+      <c r="AE32" s="119"/>
+      <c r="AF32" s="114"/>
+      <c r="AG32" s="115"/>
+      <c r="AH32" s="115"/>
+      <c r="AI32" s="116"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="20"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
-      <c r="N33" s="154"/>
-      <c r="O33" s="154"/>
-      <c r="P33" s="155"/>
-      <c r="Q33" s="156"/>
-      <c r="R33" s="157"/>
-      <c r="S33" s="157"/>
-      <c r="T33" s="157"/>
-      <c r="U33" s="157"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="157"/>
-      <c r="X33" s="157"/>
-      <c r="Y33" s="157"/>
-      <c r="Z33" s="157"/>
-      <c r="AA33" s="157"/>
-      <c r="AB33" s="157"/>
-      <c r="AC33" s="157"/>
-      <c r="AD33" s="157"/>
-      <c r="AE33" s="158"/>
-      <c r="AF33" s="153"/>
-      <c r="AG33" s="154"/>
-      <c r="AH33" s="154"/>
-      <c r="AI33" s="155"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="118"/>
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="118"/>
+      <c r="AE33" s="119"/>
+      <c r="AF33" s="114"/>
+      <c r="AG33" s="115"/>
+      <c r="AH33" s="115"/>
+      <c r="AI33" s="116"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15174,6 +14938,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -15330,163 +15250,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118" t="str">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="126" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="179" t="str">
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="177" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118" t="str">
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="177" t="s">
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="174" t="str">
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118" t="str">
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="174" t="str">
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -15507,7 +15427,7 @@
     <row r="7" spans="1:38" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="55"/>
       <c r="C7" s="57" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
@@ -15597,7 +15517,7 @@
     <row r="10" spans="1:38" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="61"/>
       <c r="C10" s="69" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="57"/>
@@ -15632,7 +15552,7 @@
       <c r="B11" s="61"/>
       <c r="C11" s="57"/>
       <c r="D11" s="69" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="57"/>
@@ -15665,7 +15585,7 @@
       <c r="B12" s="61"/>
       <c r="C12" s="57"/>
       <c r="D12" s="69" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
@@ -15728,7 +15648,7 @@
     <row r="14" spans="1:38" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="61"/>
       <c r="C14" s="69" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" s="69"/>
       <c r="E14" s="57"/>
@@ -16639,6 +16559,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -16648,14 +16576,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -16694,59 +16614,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118" t="str">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="189" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="180" t="str">
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="115" t="s">
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="16"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="16"/>
@@ -16760,54 +16680,54 @@
       <c r="AW1" s="16"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118" t="str">
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="184"/>
-      <c r="U2" s="184"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="184"/>
-      <c r="X2" s="184"/>
-      <c r="Y2" s="184"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="115" t="s">
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="174" t="str">
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="16"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="16"/>
@@ -16821,52 +16741,52 @@
       <c r="AW2" s="16"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118" t="str">
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="188"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="174" t="str">
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -16990,7 +16910,7 @@
     </row>
     <row r="6" spans="1:50" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="55" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -17004,7 +16924,7 @@
     </row>
     <row r="7" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D7" s="56" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="14"/>
@@ -17075,13 +16995,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -17092,6 +17005,13 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -17111,7 +17031,7 @@
   <dimension ref="A1:AX70"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -17132,59 +17052,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118" t="str">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="189" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="180" t="str">
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="115" t="s">
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="16"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="16"/>
@@ -17198,54 +17118,54 @@
       <c r="AW1" s="16"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118" t="str">
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="184"/>
-      <c r="U2" s="184"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="184"/>
-      <c r="X2" s="184"/>
-      <c r="Y2" s="184"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="115" t="s">
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="174" t="str">
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="16"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="16"/>
@@ -17259,52 +17179,52 @@
       <c r="AW2" s="16"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118" t="str">
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="188"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="174" t="str">
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -17375,7 +17295,7 @@
     <row r="5" spans="1:50" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="55" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -17428,7 +17348,7 @@
     </row>
     <row r="6" spans="1:50" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -17456,22 +17376,14 @@
     </row>
     <row r="70" spans="10:11" x14ac:dyDescent="0.15">
       <c r="J70" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K70" s="76" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17481,6 +17393,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -17498,7 +17418,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS81"/>
+  <dimension ref="A1:AS71"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -17527,59 +17447,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118" t="str">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="189" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="180" t="str">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="180" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="115" t="s">
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="16"/>
       <c r="AM1" s="16"/>
       <c r="AN1" s="16"/>
@@ -17587,54 +17507,54 @@
       <c r="AP1" s="16"/>
     </row>
     <row r="2" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118" t="str">
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="184"/>
-      <c r="U2" s="184"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="184"/>
-      <c r="X2" s="184"/>
-      <c r="Y2" s="184"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="115" t="s">
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="174" t="str">
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="16"/>
       <c r="AM2" s="16"/>
       <c r="AN2" s="16"/>
@@ -17642,52 +17562,52 @@
       <c r="AP2" s="16"/>
     </row>
     <row r="3" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118" t="str">
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="188"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="174" t="str">
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -17743,18 +17663,18 @@
     </row>
     <row r="5" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="60" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="56" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B8" s="78" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="79"/>
@@ -17776,11 +17696,11 @@
       <c r="T8" s="79"/>
       <c r="U8" s="79"/>
       <c r="V8" s="78" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="W8" s="79"/>
       <c r="X8" s="78" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y8" s="79"/>
       <c r="Z8" s="79"/>
@@ -17793,15 +17713,15 @@
       <c r="AG8" s="79"/>
       <c r="AH8" s="80"/>
       <c r="AI8" s="81" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AJ8" s="82"/>
       <c r="AK8" s="78" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AL8" s="80"/>
       <c r="AM8" s="79" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AN8" s="79"/>
       <c r="AO8" s="79"/>
@@ -17809,7 +17729,7 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B9" s="78" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="79"/>
@@ -17855,7 +17775,7 @@
     <row r="10" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B10" s="83"/>
       <c r="C10" s="78" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
@@ -17901,7 +17821,7 @@
       <c r="B11" s="83"/>
       <c r="C11" s="83"/>
       <c r="D11" s="78" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E11" s="79"/>
       <c r="F11" s="79"/>
@@ -17944,7 +17864,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B12" s="88" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C12" s="89"/>
       <c r="D12" s="89"/>
@@ -17991,7 +17911,7 @@
       <c r="B13" s="94"/>
       <c r="C13" s="95"/>
       <c r="D13" s="101" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E13" s="96"/>
       <c r="F13" s="96"/>
@@ -18011,11 +17931,11 @@
       <c r="T13" s="96"/>
       <c r="U13" s="97"/>
       <c r="V13" s="102" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="W13" s="98"/>
       <c r="X13" s="102" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y13" s="99"/>
       <c r="Z13" s="99"/>
@@ -18028,15 +17948,15 @@
       <c r="AG13" s="99"/>
       <c r="AH13" s="98"/>
       <c r="AI13" s="105" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AJ13" s="98"/>
       <c r="AK13" s="102" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AL13" s="98"/>
       <c r="AM13" s="102" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="AN13" s="99"/>
       <c r="AO13" s="99"/>
@@ -18044,7 +17964,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B14" s="88" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C14" s="89"/>
       <c r="D14" s="89"/>
@@ -18136,7 +18056,7 @@
       <c r="B16" s="100"/>
       <c r="C16" s="100"/>
       <c r="D16" s="101" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E16" s="96"/>
       <c r="F16" s="96"/>
@@ -18156,11 +18076,11 @@
       <c r="T16" s="96"/>
       <c r="U16" s="97"/>
       <c r="V16" s="102" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="W16" s="98"/>
       <c r="X16" s="102" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="Y16" s="99"/>
       <c r="Z16" s="99"/>
@@ -18173,15 +18093,15 @@
       <c r="AG16" s="99"/>
       <c r="AH16" s="98"/>
       <c r="AI16" s="105" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AJ16" s="98"/>
       <c r="AK16" s="102" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AL16" s="98"/>
       <c r="AM16" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN16" s="99"/>
       <c r="AO16" s="99"/>
@@ -18191,7 +18111,7 @@
       <c r="B17" s="100"/>
       <c r="C17" s="100"/>
       <c r="D17" s="101" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E17" s="96"/>
       <c r="F17" s="96"/>
@@ -18211,11 +18131,11 @@
       <c r="T17" s="96"/>
       <c r="U17" s="97"/>
       <c r="V17" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W17" s="98"/>
       <c r="X17" s="102" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y17" s="99"/>
       <c r="Z17" s="99"/>
@@ -18228,15 +18148,15 @@
       <c r="AG17" s="99"/>
       <c r="AH17" s="98"/>
       <c r="AI17" s="105" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AJ17" s="98"/>
       <c r="AK17" s="102" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AL17" s="98"/>
       <c r="AM17" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN17" s="99"/>
       <c r="AO17" s="99"/>
@@ -18246,7 +18166,7 @@
       <c r="B18" s="100"/>
       <c r="C18" s="100"/>
       <c r="D18" s="101" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E18" s="96"/>
       <c r="F18" s="96"/>
@@ -18266,11 +18186,11 @@
       <c r="T18" s="96"/>
       <c r="U18" s="97"/>
       <c r="V18" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W18" s="98"/>
       <c r="X18" s="102" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Y18" s="99"/>
       <c r="Z18" s="99"/>
@@ -18283,15 +18203,15 @@
       <c r="AG18" s="99"/>
       <c r="AH18" s="98"/>
       <c r="AI18" s="105" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AJ18" s="98"/>
       <c r="AK18" s="102" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AL18" s="98"/>
       <c r="AM18" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN18" s="99"/>
       <c r="AO18" s="99"/>
@@ -18301,7 +18221,7 @@
       <c r="B19" s="100"/>
       <c r="C19" s="100"/>
       <c r="D19" s="101" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E19" s="96"/>
       <c r="F19" s="96"/>
@@ -18321,11 +18241,11 @@
       <c r="T19" s="96"/>
       <c r="U19" s="97"/>
       <c r="V19" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W19" s="98"/>
       <c r="X19" s="102" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Y19" s="99"/>
       <c r="Z19" s="99"/>
@@ -18338,15 +18258,15 @@
       <c r="AG19" s="99"/>
       <c r="AH19" s="98"/>
       <c r="AI19" s="105" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AJ19" s="98"/>
       <c r="AK19" s="102" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AL19" s="98"/>
       <c r="AM19" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN19" s="99"/>
       <c r="AO19" s="99"/>
@@ -18356,7 +18276,7 @@
       <c r="B20" s="100"/>
       <c r="C20" s="94"/>
       <c r="D20" s="101" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E20" s="96"/>
       <c r="F20" s="96"/>
@@ -18376,11 +18296,11 @@
       <c r="T20" s="96"/>
       <c r="U20" s="97"/>
       <c r="V20" s="102" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="W20" s="98"/>
       <c r="X20" s="102" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="99"/>
       <c r="Z20" s="99"/>
@@ -18393,15 +18313,15 @@
       <c r="AG20" s="99"/>
       <c r="AH20" s="98"/>
       <c r="AI20" s="105" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AJ20" s="98"/>
       <c r="AK20" s="102" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AL20" s="98"/>
       <c r="AM20" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN20" s="99"/>
       <c r="AO20" s="99"/>
@@ -18410,7 +18330,7 @@
     <row r="21" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B21" s="100"/>
       <c r="C21" s="88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="89"/>
       <c r="E21" s="89"/>
@@ -18453,10 +18373,10 @@
       <c r="AP21" s="92"/>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="101" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E22" s="96"/>
       <c r="F22" s="96"/>
@@ -18476,11 +18396,11 @@
       <c r="T22" s="96"/>
       <c r="U22" s="97"/>
       <c r="V22" s="102" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="W22" s="98"/>
       <c r="X22" s="102" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Y22" s="99"/>
       <c r="Z22" s="99"/>
@@ -18493,135 +18413,115 @@
       <c r="AG22" s="99"/>
       <c r="AH22" s="98"/>
       <c r="AI22" s="105" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AJ22" s="98"/>
       <c r="AK22" s="102" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AL22" s="98"/>
       <c r="AM22" s="102" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="AN22" s="99"/>
       <c r="AO22" s="99"/>
       <c r="AP22" s="98"/>
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="102" t="s">
-        <v>219</v>
-      </c>
-      <c r="W23" s="98"/>
-      <c r="X23" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="98"/>
-      <c r="AI23" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ23" s="98"/>
-      <c r="AK23" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL23" s="98"/>
-      <c r="AM23" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN23" s="99"/>
-      <c r="AO23" s="99"/>
-      <c r="AP23" s="98"/>
+      <c r="B23" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="91"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="93"/>
+      <c r="AD23" s="93"/>
+      <c r="AE23" s="93"/>
+      <c r="AF23" s="93"/>
+      <c r="AG23" s="93"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="91"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="91"/>
+      <c r="AL23" s="92"/>
+      <c r="AM23" s="91"/>
+      <c r="AN23" s="93"/>
+      <c r="AO23" s="93"/>
+      <c r="AP23" s="92"/>
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="102" t="s">
-        <v>219</v>
-      </c>
-      <c r="W24" s="98"/>
-      <c r="X24" s="102" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ24" s="98"/>
-      <c r="AK24" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL24" s="98"/>
-      <c r="AM24" s="102" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN24" s="99"/>
-      <c r="AO24" s="99"/>
-      <c r="AP24" s="98"/>
+      <c r="C24" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="93"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="93"/>
+      <c r="AG24" s="93"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="91"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="91"/>
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="91"/>
+      <c r="AN24" s="93"/>
+      <c r="AO24" s="93"/>
+      <c r="AP24" s="92"/>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B25" s="100"/>
       <c r="C25" s="100"/>
       <c r="D25" s="101" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E25" s="96"/>
       <c r="F25" s="96"/>
@@ -18641,11 +18541,11 @@
       <c r="T25" s="96"/>
       <c r="U25" s="97"/>
       <c r="V25" s="102" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="W25" s="98"/>
       <c r="X25" s="102" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="Y25" s="99"/>
       <c r="Z25" s="99"/>
@@ -18657,16 +18557,16 @@
       <c r="AF25" s="99"/>
       <c r="AG25" s="99"/>
       <c r="AH25" s="98"/>
-      <c r="AI25" s="105" t="s">
-        <v>92</v>
+      <c r="AI25" s="102" t="s">
+        <v>106</v>
       </c>
       <c r="AJ25" s="98"/>
       <c r="AK25" s="102" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AL25" s="98"/>
       <c r="AM25" s="102" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="AN25" s="99"/>
       <c r="AO25" s="99"/>
@@ -18674,9 +18574,9 @@
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="101" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="E26" s="96"/>
       <c r="F26" s="96"/>
@@ -18696,11 +18596,11 @@
       <c r="T26" s="96"/>
       <c r="U26" s="97"/>
       <c r="V26" s="102" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="W26" s="98"/>
       <c r="X26" s="102" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="Y26" s="99"/>
       <c r="Z26" s="99"/>
@@ -18712,16 +18612,16 @@
       <c r="AF26" s="99"/>
       <c r="AG26" s="99"/>
       <c r="AH26" s="98"/>
-      <c r="AI26" s="105" t="s">
-        <v>92</v>
+      <c r="AI26" s="102" t="s">
+        <v>106</v>
       </c>
       <c r="AJ26" s="98"/>
       <c r="AK26" s="102" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AL26" s="98"/>
       <c r="AM26" s="102" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="AN26" s="99"/>
       <c r="AO26" s="99"/>
@@ -18729,64 +18629,54 @@
     </row>
     <row r="27" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W27" s="98"/>
-      <c r="X27" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y27" s="99"/>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="99"/>
-      <c r="AD27" s="99"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="98"/>
-      <c r="AI27" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ27" s="98"/>
-      <c r="AK27" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL27" s="98"/>
-      <c r="AM27" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN27" s="99"/>
-      <c r="AO27" s="99"/>
-      <c r="AP27" s="98"/>
+      <c r="C27" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="93"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="93"/>
+      <c r="AG27" s="93"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="91"/>
+      <c r="AJ27" s="92"/>
+      <c r="AK27" s="91"/>
+      <c r="AL27" s="92"/>
+      <c r="AM27" s="91"/>
+      <c r="AN27" s="93"/>
+      <c r="AO27" s="93"/>
+      <c r="AP27" s="92"/>
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B28" s="100"/>
       <c r="C28" s="100"/>
       <c r="D28" s="101" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="E28" s="96"/>
       <c r="F28" s="96"/>
@@ -18806,11 +18696,11 @@
       <c r="T28" s="96"/>
       <c r="U28" s="97"/>
       <c r="V28" s="102" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="W28" s="98"/>
       <c r="X28" s="102" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Y28" s="99"/>
       <c r="Z28" s="99"/>
@@ -18822,16 +18712,16 @@
       <c r="AF28" s="99"/>
       <c r="AG28" s="99"/>
       <c r="AH28" s="98"/>
-      <c r="AI28" s="105" t="s">
-        <v>92</v>
+      <c r="AI28" s="102" t="s">
+        <v>111</v>
       </c>
       <c r="AJ28" s="98"/>
       <c r="AK28" s="102" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AL28" s="98"/>
       <c r="AM28" s="102" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="AN28" s="99"/>
       <c r="AO28" s="99"/>
@@ -18841,7 +18731,7 @@
       <c r="B29" s="100"/>
       <c r="C29" s="100"/>
       <c r="D29" s="101" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="E29" s="96"/>
       <c r="F29" s="96"/>
@@ -18861,11 +18751,11 @@
       <c r="T29" s="96"/>
       <c r="U29" s="97"/>
       <c r="V29" s="102" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="W29" s="98"/>
       <c r="X29" s="102" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Y29" s="99"/>
       <c r="Z29" s="99"/>
@@ -18877,16 +18767,16 @@
       <c r="AF29" s="99"/>
       <c r="AG29" s="99"/>
       <c r="AH29" s="98"/>
-      <c r="AI29" s="105" t="s">
-        <v>92</v>
+      <c r="AI29" s="102" t="s">
+        <v>111</v>
       </c>
       <c r="AJ29" s="98"/>
       <c r="AK29" s="102" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AL29" s="98"/>
       <c r="AM29" s="102" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="AN29" s="99"/>
       <c r="AO29" s="99"/>
@@ -18896,7 +18786,7 @@
       <c r="B30" s="100"/>
       <c r="C30" s="100"/>
       <c r="D30" s="101" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="E30" s="96"/>
       <c r="F30" s="96"/>
@@ -18916,11 +18806,11 @@
       <c r="T30" s="96"/>
       <c r="U30" s="97"/>
       <c r="V30" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W30" s="98"/>
       <c r="X30" s="102" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="Y30" s="99"/>
       <c r="Z30" s="99"/>
@@ -18932,16 +18822,16 @@
       <c r="AF30" s="99"/>
       <c r="AG30" s="99"/>
       <c r="AH30" s="98"/>
-      <c r="AI30" s="105" t="s">
-        <v>92</v>
+      <c r="AI30" s="102" t="s">
+        <v>116</v>
       </c>
       <c r="AJ30" s="98"/>
       <c r="AK30" s="102" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AL30" s="98"/>
       <c r="AM30" s="102" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="AN30" s="99"/>
       <c r="AO30" s="99"/>
@@ -18949,54 +18839,64 @@
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B31" s="100"/>
-      <c r="C31" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="93"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="93"/>
-      <c r="AB31" s="93"/>
-      <c r="AC31" s="93"/>
-      <c r="AD31" s="93"/>
-      <c r="AE31" s="93"/>
-      <c r="AF31" s="93"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="91"/>
-      <c r="AJ31" s="92"/>
-      <c r="AK31" s="91"/>
-      <c r="AL31" s="92"/>
-      <c r="AM31" s="91"/>
-      <c r="AN31" s="93"/>
-      <c r="AO31" s="93"/>
-      <c r="AP31" s="92"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="97"/>
+      <c r="V31" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="W31" s="98"/>
+      <c r="X31" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y31" s="99"/>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="99"/>
+      <c r="AB31" s="99"/>
+      <c r="AC31" s="99"/>
+      <c r="AD31" s="99"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="99"/>
+      <c r="AG31" s="99"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ31" s="98"/>
+      <c r="AK31" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL31" s="98"/>
+      <c r="AM31" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN31" s="99"/>
+      <c r="AO31" s="99"/>
+      <c r="AP31" s="98"/>
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="101" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E32" s="96"/>
       <c r="F32" s="96"/>
@@ -19016,11 +18916,11 @@
       <c r="T32" s="96"/>
       <c r="U32" s="97"/>
       <c r="V32" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W32" s="98"/>
       <c r="X32" s="102" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y32" s="99"/>
       <c r="Z32" s="99"/>
@@ -19032,171 +18932,181 @@
       <c r="AF32" s="99"/>
       <c r="AG32" s="99"/>
       <c r="AH32" s="98"/>
-      <c r="AI32" s="105" t="s">
-        <v>92</v>
+      <c r="AI32" s="102" t="s">
+        <v>116</v>
       </c>
       <c r="AJ32" s="98"/>
       <c r="AK32" s="102" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AL32" s="98"/>
       <c r="AM32" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN32" s="99"/>
       <c r="AO32" s="99"/>
       <c r="AP32" s="98"/>
     </row>
     <row r="33" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B33" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="93"/>
-      <c r="AE33" s="93"/>
-      <c r="AF33" s="93"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="91"/>
-      <c r="AJ33" s="92"/>
-      <c r="AK33" s="91"/>
-      <c r="AL33" s="92"/>
-      <c r="AM33" s="91"/>
-      <c r="AN33" s="93"/>
-      <c r="AO33" s="93"/>
-      <c r="AP33" s="92"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="W33" s="98"/>
+      <c r="X33" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y33" s="99"/>
+      <c r="Z33" s="99"/>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="99"/>
+      <c r="AC33" s="99"/>
+      <c r="AD33" s="99"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="99"/>
+      <c r="AG33" s="99"/>
+      <c r="AH33" s="98"/>
+      <c r="AI33" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ33" s="98"/>
+      <c r="AK33" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL33" s="98"/>
+      <c r="AM33" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN33" s="99"/>
+      <c r="AO33" s="99"/>
+      <c r="AP33" s="98"/>
     </row>
     <row r="34" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B34" s="100"/>
-      <c r="C34" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="91"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="93"/>
-      <c r="AA34" s="93"/>
-      <c r="AB34" s="93"/>
-      <c r="AC34" s="93"/>
-      <c r="AD34" s="93"/>
-      <c r="AE34" s="93"/>
-      <c r="AF34" s="93"/>
-      <c r="AG34" s="93"/>
-      <c r="AH34" s="92"/>
-      <c r="AI34" s="91"/>
-      <c r="AJ34" s="92"/>
-      <c r="AK34" s="91"/>
-      <c r="AL34" s="92"/>
-      <c r="AM34" s="91"/>
-      <c r="AN34" s="93"/>
-      <c r="AO34" s="93"/>
-      <c r="AP34" s="92"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="96"/>
+      <c r="R34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="W34" s="98"/>
+      <c r="X34" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="99"/>
+      <c r="AC34" s="99"/>
+      <c r="AD34" s="99"/>
+      <c r="AE34" s="99"/>
+      <c r="AF34" s="99"/>
+      <c r="AG34" s="99"/>
+      <c r="AH34" s="98"/>
+      <c r="AI34" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ34" s="98"/>
+      <c r="AK34" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL34" s="98"/>
+      <c r="AM34" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN34" s="99"/>
+      <c r="AO34" s="99"/>
+      <c r="AP34" s="98"/>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="96"/>
-      <c r="S35" s="96"/>
-      <c r="T35" s="96"/>
-      <c r="U35" s="97"/>
-      <c r="V35" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W35" s="98"/>
-      <c r="X35" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y35" s="99"/>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="99"/>
-      <c r="AH35" s="98"/>
-      <c r="AI35" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ35" s="98"/>
-      <c r="AK35" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL35" s="98"/>
-      <c r="AM35" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN35" s="99"/>
-      <c r="AO35" s="99"/>
-      <c r="AP35" s="98"/>
+      <c r="C35" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="89"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="90"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="92"/>
+      <c r="AI35" s="91"/>
+      <c r="AJ35" s="92"/>
+      <c r="AK35" s="91"/>
+      <c r="AL35" s="92"/>
+      <c r="AM35" s="91"/>
+      <c r="AN35" s="93"/>
+      <c r="AO35" s="93"/>
+      <c r="AP35" s="92"/>
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B36" s="100"/>
-      <c r="C36" s="94"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="101" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E36" s="96"/>
       <c r="F36" s="96"/>
@@ -19216,11 +19126,11 @@
       <c r="T36" s="96"/>
       <c r="U36" s="97"/>
       <c r="V36" s="102" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="W36" s="98"/>
       <c r="X36" s="102" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Y36" s="99"/>
       <c r="Z36" s="99"/>
@@ -19233,15 +19143,15 @@
       <c r="AG36" s="99"/>
       <c r="AH36" s="98"/>
       <c r="AI36" s="102" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="AJ36" s="98"/>
       <c r="AK36" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL36" s="98"/>
       <c r="AM36" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN36" s="99"/>
       <c r="AO36" s="99"/>
@@ -19249,109 +19159,109 @@
     </row>
     <row r="37" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B37" s="100"/>
-      <c r="C37" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="89"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="91"/>
-      <c r="W37" s="92"/>
-      <c r="X37" s="91"/>
-      <c r="Y37" s="93"/>
-      <c r="Z37" s="93"/>
-      <c r="AA37" s="93"/>
-      <c r="AB37" s="93"/>
-      <c r="AC37" s="93"/>
-      <c r="AD37" s="93"/>
-      <c r="AE37" s="93"/>
-      <c r="AF37" s="93"/>
-      <c r="AG37" s="93"/>
-      <c r="AH37" s="92"/>
-      <c r="AI37" s="91"/>
-      <c r="AJ37" s="92"/>
-      <c r="AK37" s="91"/>
-      <c r="AL37" s="92"/>
-      <c r="AM37" s="91"/>
-      <c r="AN37" s="93"/>
-      <c r="AO37" s="93"/>
-      <c r="AP37" s="92"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="96"/>
+      <c r="S37" s="96"/>
+      <c r="T37" s="96"/>
+      <c r="U37" s="97"/>
+      <c r="V37" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="W37" s="98"/>
+      <c r="X37" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y37" s="99"/>
+      <c r="Z37" s="99"/>
+      <c r="AA37" s="99"/>
+      <c r="AB37" s="99"/>
+      <c r="AC37" s="99"/>
+      <c r="AD37" s="99"/>
+      <c r="AE37" s="99"/>
+      <c r="AF37" s="99"/>
+      <c r="AG37" s="99"/>
+      <c r="AH37" s="98"/>
+      <c r="AI37" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ37" s="98"/>
+      <c r="AK37" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL37" s="98"/>
+      <c r="AM37" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN37" s="99"/>
+      <c r="AO37" s="99"/>
+      <c r="AP37" s="98"/>
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="101" t="s">
+      <c r="C38" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="96"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="97"/>
-      <c r="V38" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W38" s="98"/>
-      <c r="X38" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y38" s="99"/>
-      <c r="Z38" s="99"/>
-      <c r="AA38" s="99"/>
-      <c r="AB38" s="99"/>
-      <c r="AC38" s="99"/>
-      <c r="AD38" s="99"/>
-      <c r="AE38" s="99"/>
-      <c r="AF38" s="99"/>
-      <c r="AG38" s="99"/>
-      <c r="AH38" s="98"/>
-      <c r="AI38" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ38" s="98"/>
-      <c r="AK38" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL38" s="98"/>
-      <c r="AM38" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN38" s="99"/>
-      <c r="AO38" s="99"/>
-      <c r="AP38" s="98"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="91"/>
+      <c r="W38" s="92"/>
+      <c r="X38" s="91"/>
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="93"/>
+      <c r="AA38" s="93"/>
+      <c r="AB38" s="93"/>
+      <c r="AC38" s="93"/>
+      <c r="AD38" s="93"/>
+      <c r="AE38" s="93"/>
+      <c r="AF38" s="93"/>
+      <c r="AG38" s="93"/>
+      <c r="AH38" s="92"/>
+      <c r="AI38" s="91"/>
+      <c r="AJ38" s="92"/>
+      <c r="AK38" s="91"/>
+      <c r="AL38" s="92"/>
+      <c r="AM38" s="91"/>
+      <c r="AN38" s="93"/>
+      <c r="AO38" s="93"/>
+      <c r="AP38" s="92"/>
     </row>
     <row r="39" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B39" s="100"/>
       <c r="C39" s="100"/>
       <c r="D39" s="101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E39" s="96"/>
       <c r="F39" s="96"/>
@@ -19371,11 +19281,11 @@
       <c r="T39" s="96"/>
       <c r="U39" s="97"/>
       <c r="V39" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W39" s="98"/>
       <c r="X39" s="102" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y39" s="99"/>
       <c r="Z39" s="99"/>
@@ -19388,15 +19298,15 @@
       <c r="AG39" s="99"/>
       <c r="AH39" s="98"/>
       <c r="AI39" s="102" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="AJ39" s="98"/>
       <c r="AK39" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL39" s="98"/>
       <c r="AM39" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN39" s="99"/>
       <c r="AO39" s="99"/>
@@ -19406,7 +19316,7 @@
       <c r="B40" s="100"/>
       <c r="C40" s="100"/>
       <c r="D40" s="101" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E40" s="96"/>
       <c r="F40" s="96"/>
@@ -19426,11 +19336,11 @@
       <c r="T40" s="96"/>
       <c r="U40" s="97"/>
       <c r="V40" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W40" s="98"/>
       <c r="X40" s="102" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="Y40" s="99"/>
       <c r="Z40" s="99"/>
@@ -19443,15 +19353,15 @@
       <c r="AG40" s="99"/>
       <c r="AH40" s="98"/>
       <c r="AI40" s="102" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="AJ40" s="98"/>
       <c r="AK40" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL40" s="98"/>
       <c r="AM40" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN40" s="99"/>
       <c r="AO40" s="99"/>
@@ -19461,7 +19371,7 @@
       <c r="B41" s="100"/>
       <c r="C41" s="100"/>
       <c r="D41" s="101" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E41" s="96"/>
       <c r="F41" s="96"/>
@@ -19481,11 +19391,11 @@
       <c r="T41" s="96"/>
       <c r="U41" s="97"/>
       <c r="V41" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W41" s="98"/>
       <c r="X41" s="102" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="Y41" s="99"/>
       <c r="Z41" s="99"/>
@@ -19498,15 +19408,15 @@
       <c r="AG41" s="99"/>
       <c r="AH41" s="98"/>
       <c r="AI41" s="102" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AJ41" s="98"/>
       <c r="AK41" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL41" s="98"/>
       <c r="AM41" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN41" s="99"/>
       <c r="AO41" s="99"/>
@@ -19516,7 +19426,7 @@
       <c r="B42" s="100"/>
       <c r="C42" s="100"/>
       <c r="D42" s="101" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E42" s="96"/>
       <c r="F42" s="96"/>
@@ -19536,11 +19446,11 @@
       <c r="T42" s="96"/>
       <c r="U42" s="97"/>
       <c r="V42" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W42" s="98"/>
       <c r="X42" s="102" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="Y42" s="99"/>
       <c r="Z42" s="99"/>
@@ -19557,11 +19467,11 @@
       </c>
       <c r="AJ42" s="98"/>
       <c r="AK42" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL42" s="98"/>
       <c r="AM42" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN42" s="99"/>
       <c r="AO42" s="99"/>
@@ -19571,7 +19481,7 @@
       <c r="B43" s="100"/>
       <c r="C43" s="100"/>
       <c r="D43" s="101" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E43" s="96"/>
       <c r="F43" s="96"/>
@@ -19591,11 +19501,11 @@
       <c r="T43" s="96"/>
       <c r="U43" s="97"/>
       <c r="V43" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W43" s="98"/>
       <c r="X43" s="102" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="Y43" s="99"/>
       <c r="Z43" s="99"/>
@@ -19612,11 +19522,11 @@
       </c>
       <c r="AJ43" s="98"/>
       <c r="AK43" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL43" s="98"/>
       <c r="AM43" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN43" s="99"/>
       <c r="AO43" s="99"/>
@@ -19624,9 +19534,9 @@
     </row>
     <row r="44" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B44" s="100"/>
-      <c r="C44" s="94"/>
+      <c r="C44" s="100"/>
       <c r="D44" s="101" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E44" s="96"/>
       <c r="F44" s="96"/>
@@ -19646,11 +19556,11 @@
       <c r="T44" s="96"/>
       <c r="U44" s="97"/>
       <c r="V44" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W44" s="98"/>
       <c r="X44" s="102" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="Y44" s="99"/>
       <c r="Z44" s="99"/>
@@ -19663,15 +19573,15 @@
       <c r="AG44" s="99"/>
       <c r="AH44" s="98"/>
       <c r="AI44" s="102" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AJ44" s="98"/>
       <c r="AK44" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL44" s="98"/>
       <c r="AM44" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN44" s="99"/>
       <c r="AO44" s="99"/>
@@ -19679,109 +19589,109 @@
     </row>
     <row r="45" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B45" s="100"/>
-      <c r="C45" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="89"/>
-      <c r="R45" s="89"/>
-      <c r="S45" s="89"/>
-      <c r="T45" s="89"/>
-      <c r="U45" s="90"/>
-      <c r="V45" s="91"/>
-      <c r="W45" s="92"/>
-      <c r="X45" s="91"/>
-      <c r="Y45" s="93"/>
-      <c r="Z45" s="93"/>
-      <c r="AA45" s="93"/>
-      <c r="AB45" s="93"/>
-      <c r="AC45" s="93"/>
-      <c r="AD45" s="93"/>
-      <c r="AE45" s="93"/>
-      <c r="AF45" s="93"/>
-      <c r="AG45" s="93"/>
-      <c r="AH45" s="92"/>
-      <c r="AI45" s="91"/>
-      <c r="AJ45" s="92"/>
-      <c r="AK45" s="91"/>
-      <c r="AL45" s="92"/>
-      <c r="AM45" s="91"/>
-      <c r="AN45" s="93"/>
-      <c r="AO45" s="93"/>
-      <c r="AP45" s="92"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="96"/>
+      <c r="Q45" s="96"/>
+      <c r="R45" s="96"/>
+      <c r="S45" s="96"/>
+      <c r="T45" s="96"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="W45" s="98"/>
+      <c r="X45" s="102" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y45" s="99"/>
+      <c r="Z45" s="99"/>
+      <c r="AA45" s="99"/>
+      <c r="AB45" s="99"/>
+      <c r="AC45" s="99"/>
+      <c r="AD45" s="99"/>
+      <c r="AE45" s="99"/>
+      <c r="AF45" s="99"/>
+      <c r="AG45" s="99"/>
+      <c r="AH45" s="98"/>
+      <c r="AI45" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ45" s="98"/>
+      <c r="AK45" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL45" s="98"/>
+      <c r="AM45" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN45" s="99"/>
+      <c r="AO45" s="99"/>
+      <c r="AP45" s="98"/>
     </row>
     <row r="46" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="96"/>
-      <c r="T46" s="96"/>
-      <c r="U46" s="97"/>
-      <c r="V46" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W46" s="98"/>
-      <c r="X46" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y46" s="99"/>
-      <c r="Z46" s="99"/>
-      <c r="AA46" s="99"/>
-      <c r="AB46" s="99"/>
-      <c r="AC46" s="99"/>
-      <c r="AD46" s="99"/>
-      <c r="AE46" s="99"/>
-      <c r="AF46" s="99"/>
-      <c r="AG46" s="99"/>
-      <c r="AH46" s="98"/>
-      <c r="AI46" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ46" s="98"/>
-      <c r="AK46" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL46" s="98"/>
-      <c r="AM46" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN46" s="99"/>
-      <c r="AO46" s="99"/>
-      <c r="AP46" s="98"/>
+      <c r="C46" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="89"/>
+      <c r="Q46" s="89"/>
+      <c r="R46" s="89"/>
+      <c r="S46" s="89"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="90"/>
+      <c r="V46" s="91"/>
+      <c r="W46" s="92"/>
+      <c r="X46" s="91"/>
+      <c r="Y46" s="93"/>
+      <c r="Z46" s="93"/>
+      <c r="AA46" s="93"/>
+      <c r="AB46" s="93"/>
+      <c r="AC46" s="93"/>
+      <c r="AD46" s="93"/>
+      <c r="AE46" s="93"/>
+      <c r="AF46" s="93"/>
+      <c r="AG46" s="93"/>
+      <c r="AH46" s="92"/>
+      <c r="AI46" s="91"/>
+      <c r="AJ46" s="92"/>
+      <c r="AK46" s="91"/>
+      <c r="AL46" s="92"/>
+      <c r="AM46" s="91"/>
+      <c r="AN46" s="93"/>
+      <c r="AO46" s="93"/>
+      <c r="AP46" s="92"/>
     </row>
     <row r="47" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B47" s="100"/>
-      <c r="C47" s="94"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="101" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E47" s="96"/>
       <c r="F47" s="96"/>
@@ -19801,11 +19711,11 @@
       <c r="T47" s="96"/>
       <c r="U47" s="97"/>
       <c r="V47" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W47" s="98"/>
       <c r="X47" s="102" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Y47" s="99"/>
       <c r="Z47" s="99"/>
@@ -19818,15 +19728,15 @@
       <c r="AG47" s="99"/>
       <c r="AH47" s="98"/>
       <c r="AI47" s="102" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="AJ47" s="98"/>
       <c r="AK47" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL47" s="98"/>
       <c r="AM47" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN47" s="99"/>
       <c r="AO47" s="99"/>
@@ -19834,109 +19744,109 @@
     </row>
     <row r="48" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B48" s="100"/>
-      <c r="C48" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="89"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="89"/>
-      <c r="T48" s="89"/>
-      <c r="U48" s="90"/>
-      <c r="V48" s="91"/>
-      <c r="W48" s="92"/>
-      <c r="X48" s="91"/>
-      <c r="Y48" s="93"/>
-      <c r="Z48" s="93"/>
-      <c r="AA48" s="93"/>
-      <c r="AB48" s="93"/>
-      <c r="AC48" s="93"/>
-      <c r="AD48" s="93"/>
-      <c r="AE48" s="93"/>
-      <c r="AF48" s="93"/>
-      <c r="AG48" s="93"/>
-      <c r="AH48" s="92"/>
-      <c r="AI48" s="91"/>
-      <c r="AJ48" s="92"/>
-      <c r="AK48" s="91"/>
-      <c r="AL48" s="92"/>
-      <c r="AM48" s="91"/>
-      <c r="AN48" s="93"/>
-      <c r="AO48" s="93"/>
-      <c r="AP48" s="92"/>
-    </row>
-    <row r="49" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C48" s="94"/>
+      <c r="D48" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="96"/>
+      <c r="O48" s="96"/>
+      <c r="P48" s="96"/>
+      <c r="Q48" s="96"/>
+      <c r="R48" s="96"/>
+      <c r="S48" s="96"/>
+      <c r="T48" s="96"/>
+      <c r="U48" s="97"/>
+      <c r="V48" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="W48" s="98"/>
+      <c r="X48" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y48" s="99"/>
+      <c r="Z48" s="99"/>
+      <c r="AA48" s="99"/>
+      <c r="AB48" s="99"/>
+      <c r="AC48" s="99"/>
+      <c r="AD48" s="99"/>
+      <c r="AE48" s="99"/>
+      <c r="AF48" s="99"/>
+      <c r="AG48" s="99"/>
+      <c r="AH48" s="98"/>
+      <c r="AI48" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ48" s="98"/>
+      <c r="AK48" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL48" s="98"/>
+      <c r="AM48" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN48" s="99"/>
+      <c r="AO48" s="99"/>
+      <c r="AP48" s="98"/>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="101" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="96"/>
-      <c r="S49" s="96"/>
-      <c r="T49" s="96"/>
-      <c r="U49" s="97"/>
-      <c r="V49" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W49" s="98"/>
-      <c r="X49" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y49" s="99"/>
-      <c r="Z49" s="99"/>
-      <c r="AA49" s="99"/>
-      <c r="AB49" s="99"/>
-      <c r="AC49" s="99"/>
-      <c r="AD49" s="99"/>
-      <c r="AE49" s="99"/>
-      <c r="AF49" s="99"/>
-      <c r="AG49" s="99"/>
-      <c r="AH49" s="98"/>
-      <c r="AI49" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ49" s="98"/>
-      <c r="AK49" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL49" s="98"/>
-      <c r="AM49" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN49" s="99"/>
-      <c r="AO49" s="99"/>
-      <c r="AP49" s="98"/>
-    </row>
-    <row r="50" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C49" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="90"/>
+      <c r="V49" s="91"/>
+      <c r="W49" s="92"/>
+      <c r="X49" s="91"/>
+      <c r="Y49" s="93"/>
+      <c r="Z49" s="93"/>
+      <c r="AA49" s="93"/>
+      <c r="AB49" s="93"/>
+      <c r="AC49" s="93"/>
+      <c r="AD49" s="93"/>
+      <c r="AE49" s="93"/>
+      <c r="AF49" s="93"/>
+      <c r="AG49" s="93"/>
+      <c r="AH49" s="92"/>
+      <c r="AI49" s="91"/>
+      <c r="AJ49" s="92"/>
+      <c r="AK49" s="91"/>
+      <c r="AL49" s="92"/>
+      <c r="AM49" s="91"/>
+      <c r="AN49" s="93"/>
+      <c r="AO49" s="93"/>
+      <c r="AP49" s="92"/>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B50" s="100"/>
       <c r="C50" s="100"/>
       <c r="D50" s="101" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E50" s="96"/>
       <c r="F50" s="96"/>
@@ -19956,11 +19866,11 @@
       <c r="T50" s="96"/>
       <c r="U50" s="97"/>
       <c r="V50" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W50" s="98"/>
       <c r="X50" s="102" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="Y50" s="99"/>
       <c r="Z50" s="99"/>
@@ -19973,25 +19883,25 @@
       <c r="AG50" s="99"/>
       <c r="AH50" s="98"/>
       <c r="AI50" s="102" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="AJ50" s="98"/>
       <c r="AK50" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL50" s="98"/>
       <c r="AM50" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN50" s="99"/>
       <c r="AO50" s="99"/>
       <c r="AP50" s="98"/>
     </row>
-    <row r="51" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
+      <c r="C51" s="94"/>
       <c r="D51" s="101" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E51" s="96"/>
       <c r="F51" s="96"/>
@@ -20011,11 +19921,11 @@
       <c r="T51" s="96"/>
       <c r="U51" s="97"/>
       <c r="V51" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W51" s="98"/>
       <c r="X51" s="102" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="Y51" s="99"/>
       <c r="Z51" s="99"/>
@@ -20028,80 +19938,70 @@
       <c r="AG51" s="99"/>
       <c r="AH51" s="98"/>
       <c r="AI51" s="102" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AJ51" s="98"/>
       <c r="AK51" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL51" s="98"/>
       <c r="AM51" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN51" s="99"/>
       <c r="AO51" s="99"/>
       <c r="AP51" s="98"/>
     </row>
-    <row r="52" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="96"/>
-      <c r="S52" s="96"/>
-      <c r="T52" s="96"/>
-      <c r="U52" s="97"/>
-      <c r="V52" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W52" s="98"/>
-      <c r="X52" s="102" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y52" s="99"/>
-      <c r="Z52" s="99"/>
-      <c r="AA52" s="99"/>
-      <c r="AB52" s="99"/>
-      <c r="AC52" s="99"/>
-      <c r="AD52" s="99"/>
-      <c r="AE52" s="99"/>
-      <c r="AF52" s="99"/>
-      <c r="AG52" s="99"/>
-      <c r="AH52" s="98"/>
-      <c r="AI52" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ52" s="98"/>
-      <c r="AK52" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL52" s="98"/>
-      <c r="AM52" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN52" s="99"/>
-      <c r="AO52" s="99"/>
-      <c r="AP52" s="98"/>
-    </row>
-    <row r="53" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C52" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="90"/>
+      <c r="V52" s="91"/>
+      <c r="W52" s="92"/>
+      <c r="X52" s="91"/>
+      <c r="Y52" s="93"/>
+      <c r="Z52" s="93"/>
+      <c r="AA52" s="93"/>
+      <c r="AB52" s="93"/>
+      <c r="AC52" s="93"/>
+      <c r="AD52" s="93"/>
+      <c r="AE52" s="93"/>
+      <c r="AF52" s="93"/>
+      <c r="AG52" s="93"/>
+      <c r="AH52" s="92"/>
+      <c r="AI52" s="91"/>
+      <c r="AJ52" s="92"/>
+      <c r="AK52" s="91"/>
+      <c r="AL52" s="92"/>
+      <c r="AM52" s="91"/>
+      <c r="AN52" s="93"/>
+      <c r="AO52" s="93"/>
+      <c r="AP52" s="92"/>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B53" s="100"/>
       <c r="C53" s="100"/>
       <c r="D53" s="101" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E53" s="96"/>
       <c r="F53" s="96"/>
@@ -20121,11 +20021,11 @@
       <c r="T53" s="96"/>
       <c r="U53" s="97"/>
       <c r="V53" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W53" s="98"/>
       <c r="X53" s="102" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="Y53" s="99"/>
       <c r="Z53" s="99"/>
@@ -20138,25 +20038,25 @@
       <c r="AG53" s="99"/>
       <c r="AH53" s="98"/>
       <c r="AI53" s="102" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="AJ53" s="98"/>
       <c r="AK53" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL53" s="98"/>
       <c r="AM53" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN53" s="99"/>
       <c r="AO53" s="99"/>
       <c r="AP53" s="98"/>
     </row>
-    <row r="54" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B54" s="100"/>
-      <c r="C54" s="100"/>
+      <c r="C54" s="94"/>
       <c r="D54" s="101" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E54" s="96"/>
       <c r="F54" s="96"/>
@@ -20176,11 +20076,11 @@
       <c r="T54" s="96"/>
       <c r="U54" s="97"/>
       <c r="V54" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W54" s="98"/>
       <c r="X54" s="102" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Y54" s="99"/>
       <c r="Z54" s="99"/>
@@ -20193,180 +20093,174 @@
       <c r="AG54" s="99"/>
       <c r="AH54" s="98"/>
       <c r="AI54" s="102" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="AJ54" s="98"/>
       <c r="AK54" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL54" s="98"/>
       <c r="AM54" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN54" s="99"/>
       <c r="AO54" s="99"/>
       <c r="AP54" s="98"/>
     </row>
-    <row r="55" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="7"/>
       <c r="B55" s="100"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="96"/>
-      <c r="P55" s="96"/>
-      <c r="Q55" s="96"/>
-      <c r="R55" s="96"/>
-      <c r="S55" s="96"/>
-      <c r="T55" s="96"/>
-      <c r="U55" s="97"/>
-      <c r="V55" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W55" s="98"/>
-      <c r="X55" s="102" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y55" s="99"/>
-      <c r="Z55" s="99"/>
-      <c r="AA55" s="99"/>
-      <c r="AB55" s="99"/>
-      <c r="AC55" s="99"/>
-      <c r="AD55" s="99"/>
-      <c r="AE55" s="99"/>
-      <c r="AF55" s="99"/>
-      <c r="AG55" s="99"/>
-      <c r="AH55" s="98"/>
-      <c r="AI55" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ55" s="98"/>
-      <c r="AK55" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL55" s="98"/>
-      <c r="AM55" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN55" s="99"/>
-      <c r="AO55" s="99"/>
-      <c r="AP55" s="98"/>
-    </row>
-    <row r="56" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C55" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="89"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="89"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="89"/>
+      <c r="O55" s="89"/>
+      <c r="P55" s="89"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="90"/>
+      <c r="V55" s="91"/>
+      <c r="W55" s="92"/>
+      <c r="X55" s="91"/>
+      <c r="Y55" s="93"/>
+      <c r="Z55" s="93"/>
+      <c r="AA55" s="93"/>
+      <c r="AB55" s="93"/>
+      <c r="AC55" s="93"/>
+      <c r="AD55" s="93"/>
+      <c r="AE55" s="93"/>
+      <c r="AF55" s="93"/>
+      <c r="AG55" s="93"/>
+      <c r="AH55" s="92"/>
+      <c r="AI55" s="91"/>
+      <c r="AJ55" s="92"/>
+      <c r="AK55" s="91"/>
+      <c r="AL55" s="92"/>
+      <c r="AM55" s="91"/>
+      <c r="AN55" s="93"/>
+      <c r="AO55" s="93"/>
+      <c r="AP55" s="92"/>
+      <c r="AQ55" s="7"/>
+      <c r="AR55" s="7"/>
+      <c r="AS55" s="7"/>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B56" s="100"/>
-      <c r="C56" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="89"/>
-      <c r="M56" s="89"/>
-      <c r="N56" s="89"/>
-      <c r="O56" s="89"/>
-      <c r="P56" s="89"/>
-      <c r="Q56" s="89"/>
-      <c r="R56" s="89"/>
-      <c r="S56" s="89"/>
-      <c r="T56" s="89"/>
-      <c r="U56" s="90"/>
-      <c r="V56" s="91"/>
-      <c r="W56" s="92"/>
-      <c r="X56" s="91"/>
-      <c r="Y56" s="93"/>
-      <c r="Z56" s="93"/>
-      <c r="AA56" s="93"/>
-      <c r="AB56" s="93"/>
-      <c r="AC56" s="93"/>
-      <c r="AD56" s="93"/>
-      <c r="AE56" s="93"/>
-      <c r="AF56" s="93"/>
-      <c r="AG56" s="93"/>
-      <c r="AH56" s="92"/>
-      <c r="AI56" s="91"/>
-      <c r="AJ56" s="92"/>
-      <c r="AK56" s="91"/>
-      <c r="AL56" s="92"/>
-      <c r="AM56" s="91"/>
-      <c r="AN56" s="93"/>
-      <c r="AO56" s="93"/>
-      <c r="AP56" s="92"/>
-    </row>
-    <row r="57" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C56" s="94"/>
+      <c r="D56" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="96"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="96"/>
+      <c r="Q56" s="96"/>
+      <c r="R56" s="96"/>
+      <c r="S56" s="96"/>
+      <c r="T56" s="96"/>
+      <c r="U56" s="97"/>
+      <c r="V56" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="W56" s="98"/>
+      <c r="X56" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y56" s="99"/>
+      <c r="Z56" s="99"/>
+      <c r="AA56" s="99"/>
+      <c r="AB56" s="99"/>
+      <c r="AC56" s="99"/>
+      <c r="AD56" s="99"/>
+      <c r="AE56" s="99"/>
+      <c r="AF56" s="99"/>
+      <c r="AG56" s="99"/>
+      <c r="AH56" s="98"/>
+      <c r="AI56" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ56" s="98"/>
+      <c r="AK56" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL56" s="98"/>
+      <c r="AM56" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN56" s="99"/>
+      <c r="AO56" s="99"/>
+      <c r="AP56" s="98"/>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="101" t="s">
-        <v>162</v>
-      </c>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="96"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="96"/>
-      <c r="U57" s="97"/>
-      <c r="V57" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W57" s="98"/>
-      <c r="X57" s="102" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y57" s="99"/>
-      <c r="Z57" s="99"/>
-      <c r="AA57" s="99"/>
-      <c r="AB57" s="99"/>
-      <c r="AC57" s="99"/>
-      <c r="AD57" s="99"/>
-      <c r="AE57" s="99"/>
-      <c r="AF57" s="99"/>
-      <c r="AG57" s="99"/>
-      <c r="AH57" s="98"/>
-      <c r="AI57" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ57" s="98"/>
-      <c r="AK57" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL57" s="98"/>
-      <c r="AM57" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN57" s="99"/>
-      <c r="AO57" s="99"/>
-      <c r="AP57" s="98"/>
-    </row>
-    <row r="58" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C57" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="89"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="89"/>
+      <c r="O57" s="89"/>
+      <c r="P57" s="89"/>
+      <c r="Q57" s="89"/>
+      <c r="R57" s="89"/>
+      <c r="S57" s="89"/>
+      <c r="T57" s="89"/>
+      <c r="U57" s="90"/>
+      <c r="V57" s="91"/>
+      <c r="W57" s="92"/>
+      <c r="X57" s="91"/>
+      <c r="Y57" s="93"/>
+      <c r="Z57" s="93"/>
+      <c r="AA57" s="93"/>
+      <c r="AB57" s="93"/>
+      <c r="AC57" s="93"/>
+      <c r="AD57" s="93"/>
+      <c r="AE57" s="93"/>
+      <c r="AF57" s="93"/>
+      <c r="AG57" s="93"/>
+      <c r="AH57" s="92"/>
+      <c r="AI57" s="91"/>
+      <c r="AJ57" s="92"/>
+      <c r="AK57" s="91"/>
+      <c r="AL57" s="92"/>
+      <c r="AM57" s="91"/>
+      <c r="AN57" s="93"/>
+      <c r="AO57" s="93"/>
+      <c r="AP57" s="92"/>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B58" s="100"/>
       <c r="C58" s="94"/>
       <c r="D58" s="101" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E58" s="96"/>
       <c r="F58" s="96"/>
@@ -20386,11 +20280,11 @@
       <c r="T58" s="96"/>
       <c r="U58" s="97"/>
       <c r="V58" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W58" s="98"/>
       <c r="X58" s="102" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y58" s="99"/>
       <c r="Z58" s="99"/>
@@ -20403,24 +20297,24 @@
       <c r="AG58" s="99"/>
       <c r="AH58" s="98"/>
       <c r="AI58" s="102" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="AJ58" s="98"/>
       <c r="AK58" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL58" s="98"/>
       <c r="AM58" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN58" s="99"/>
       <c r="AO58" s="99"/>
       <c r="AP58" s="98"/>
     </row>
-    <row r="59" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B59" s="100"/>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B59" s="103"/>
       <c r="C59" s="88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D59" s="89"/>
       <c r="E59" s="89"/>
@@ -20441,7 +20335,7 @@
       <c r="T59" s="89"/>
       <c r="U59" s="90"/>
       <c r="V59" s="91"/>
-      <c r="W59" s="92"/>
+      <c r="W59" s="93"/>
       <c r="X59" s="91"/>
       <c r="Y59" s="93"/>
       <c r="Z59" s="93"/>
@@ -20462,11 +20356,11 @@
       <c r="AO59" s="93"/>
       <c r="AP59" s="92"/>
     </row>
-    <row r="60" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B60" s="100"/>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B60" s="103"/>
       <c r="C60" s="100"/>
       <c r="D60" s="101" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E60" s="96"/>
       <c r="F60" s="96"/>
@@ -20486,11 +20380,11 @@
       <c r="T60" s="96"/>
       <c r="U60" s="97"/>
       <c r="V60" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W60" s="98"/>
+        <v>106</v>
+      </c>
+      <c r="W60" s="99"/>
       <c r="X60" s="102" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Y60" s="99"/>
       <c r="Z60" s="99"/>
@@ -20503,25 +20397,25 @@
       <c r="AG60" s="99"/>
       <c r="AH60" s="98"/>
       <c r="AI60" s="102" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="AJ60" s="98"/>
       <c r="AK60" s="102" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="AL60" s="98"/>
       <c r="AM60" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN60" s="99"/>
       <c r="AO60" s="99"/>
       <c r="AP60" s="98"/>
     </row>
-    <row r="61" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B61" s="100"/>
-      <c r="C61" s="94"/>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B61" s="103"/>
+      <c r="C61" s="100"/>
       <c r="D61" s="101" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="E61" s="96"/>
       <c r="F61" s="96"/>
@@ -20541,11 +20435,11 @@
       <c r="T61" s="96"/>
       <c r="U61" s="97"/>
       <c r="V61" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W61" s="98"/>
+        <v>196</v>
+      </c>
+      <c r="W61" s="99"/>
       <c r="X61" s="102" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Y61" s="99"/>
       <c r="Z61" s="99"/>
@@ -20558,70 +20452,80 @@
       <c r="AG61" s="99"/>
       <c r="AH61" s="98"/>
       <c r="AI61" s="102" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ61" s="98"/>
       <c r="AK61" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL61" s="98"/>
       <c r="AM61" s="102" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AN61" s="99"/>
       <c r="AO61" s="99"/>
       <c r="AP61" s="98"/>
     </row>
-    <row r="62" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B62" s="100"/>
-      <c r="C62" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="89"/>
-      <c r="K62" s="89"/>
-      <c r="L62" s="89"/>
-      <c r="M62" s="89"/>
-      <c r="N62" s="89"/>
-      <c r="O62" s="89"/>
-      <c r="P62" s="89"/>
-      <c r="Q62" s="89"/>
-      <c r="R62" s="89"/>
-      <c r="S62" s="89"/>
-      <c r="T62" s="89"/>
-      <c r="U62" s="90"/>
-      <c r="V62" s="91"/>
-      <c r="W62" s="92"/>
-      <c r="X62" s="91"/>
-      <c r="Y62" s="93"/>
-      <c r="Z62" s="93"/>
-      <c r="AA62" s="93"/>
-      <c r="AB62" s="93"/>
-      <c r="AC62" s="93"/>
-      <c r="AD62" s="93"/>
-      <c r="AE62" s="93"/>
-      <c r="AF62" s="93"/>
-      <c r="AG62" s="93"/>
-      <c r="AH62" s="92"/>
-      <c r="AI62" s="91"/>
-      <c r="AJ62" s="92"/>
-      <c r="AK62" s="91"/>
-      <c r="AL62" s="92"/>
-      <c r="AM62" s="91"/>
-      <c r="AN62" s="93"/>
-      <c r="AO62" s="93"/>
-      <c r="AP62" s="92"/>
-    </row>
-    <row r="63" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B63" s="100"/>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B62" s="103"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="96"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="96"/>
+      <c r="S62" s="96"/>
+      <c r="T62" s="96"/>
+      <c r="U62" s="97"/>
+      <c r="V62" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="W62" s="99"/>
+      <c r="X62" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y62" s="99"/>
+      <c r="Z62" s="99"/>
+      <c r="AA62" s="99"/>
+      <c r="AB62" s="99"/>
+      <c r="AC62" s="99"/>
+      <c r="AD62" s="99"/>
+      <c r="AE62" s="99"/>
+      <c r="AF62" s="99"/>
+      <c r="AG62" s="99"/>
+      <c r="AH62" s="98"/>
+      <c r="AI62" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ62" s="98"/>
+      <c r="AK62" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL62" s="98"/>
+      <c r="AM62" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN62" s="99"/>
+      <c r="AO62" s="99"/>
+      <c r="AP62" s="98"/>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B63" s="103"/>
       <c r="C63" s="100"/>
       <c r="D63" s="101" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E63" s="96"/>
       <c r="F63" s="96"/>
@@ -20641,11 +20545,11 @@
       <c r="T63" s="96"/>
       <c r="U63" s="97"/>
       <c r="V63" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W63" s="98"/>
+        <v>196</v>
+      </c>
+      <c r="W63" s="99"/>
       <c r="X63" s="102" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y63" s="99"/>
       <c r="Z63" s="99"/>
@@ -20658,25 +20562,25 @@
       <c r="AG63" s="99"/>
       <c r="AH63" s="98"/>
       <c r="AI63" s="102" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="AJ63" s="98"/>
       <c r="AK63" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL63" s="98"/>
       <c r="AM63" s="102" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="AN63" s="99"/>
       <c r="AO63" s="99"/>
       <c r="AP63" s="98"/>
     </row>
-    <row r="64" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B64" s="100"/>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B64" s="103"/>
       <c r="C64" s="94"/>
       <c r="D64" s="101" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E64" s="96"/>
       <c r="F64" s="96"/>
@@ -20696,11 +20600,11 @@
       <c r="T64" s="96"/>
       <c r="U64" s="97"/>
       <c r="V64" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W64" s="98"/>
+        <v>196</v>
+      </c>
+      <c r="W64" s="99"/>
       <c r="X64" s="102" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y64" s="99"/>
       <c r="Z64" s="99"/>
@@ -20713,25 +20617,24 @@
       <c r="AG64" s="99"/>
       <c r="AH64" s="98"/>
       <c r="AI64" s="102" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="AJ64" s="98"/>
       <c r="AK64" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL64" s="98"/>
       <c r="AM64" s="102" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="AN64" s="99"/>
       <c r="AO64" s="99"/>
       <c r="AP64" s="98"/>
     </row>
-    <row r="65" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="7"/>
-      <c r="B65" s="100"/>
+    <row r="65" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B65" s="103"/>
       <c r="C65" s="88" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="D65" s="89"/>
       <c r="E65" s="89"/>
@@ -20752,7 +20655,7 @@
       <c r="T65" s="89"/>
       <c r="U65" s="90"/>
       <c r="V65" s="91"/>
-      <c r="W65" s="92"/>
+      <c r="W65" s="93"/>
       <c r="X65" s="91"/>
       <c r="Y65" s="93"/>
       <c r="Z65" s="93"/>
@@ -20772,15 +20675,12 @@
       <c r="AN65" s="93"/>
       <c r="AO65" s="93"/>
       <c r="AP65" s="92"/>
-      <c r="AQ65" s="7"/>
-      <c r="AR65" s="7"/>
-      <c r="AS65" s="7"/>
-    </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B66" s="100"/>
+    </row>
+    <row r="66" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B66" s="103"/>
       <c r="C66" s="94"/>
       <c r="D66" s="101" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E66" s="96"/>
       <c r="F66" s="96"/>
@@ -20800,11 +20700,11 @@
       <c r="T66" s="96"/>
       <c r="U66" s="97"/>
       <c r="V66" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W66" s="98"/>
+        <v>196</v>
+      </c>
+      <c r="W66" s="99"/>
       <c r="X66" s="102" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Y66" s="99"/>
       <c r="Z66" s="99"/>
@@ -20817,24 +20717,24 @@
       <c r="AG66" s="99"/>
       <c r="AH66" s="98"/>
       <c r="AI66" s="102" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="AJ66" s="98"/>
       <c r="AK66" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL66" s="98"/>
       <c r="AM66" s="102" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="AN66" s="99"/>
       <c r="AO66" s="99"/>
       <c r="AP66" s="98"/>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B67" s="100"/>
+    <row r="67" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B67" s="103"/>
       <c r="C67" s="88" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="D67" s="89"/>
       <c r="E67" s="89"/>
@@ -20855,7 +20755,7 @@
       <c r="T67" s="89"/>
       <c r="U67" s="90"/>
       <c r="V67" s="91"/>
-      <c r="W67" s="92"/>
+      <c r="W67" s="93"/>
       <c r="X67" s="91"/>
       <c r="Y67" s="93"/>
       <c r="Z67" s="93"/>
@@ -20876,11 +20776,11 @@
       <c r="AO67" s="93"/>
       <c r="AP67" s="92"/>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B68" s="100"/>
-      <c r="C68" s="94"/>
+    <row r="68" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B68" s="103"/>
+      <c r="C68" s="100"/>
       <c r="D68" s="101" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E68" s="96"/>
       <c r="F68" s="96"/>
@@ -20900,11 +20800,11 @@
       <c r="T68" s="96"/>
       <c r="U68" s="97"/>
       <c r="V68" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W68" s="98"/>
+        <v>196</v>
+      </c>
+      <c r="W68" s="99"/>
       <c r="X68" s="102" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Y68" s="99"/>
       <c r="Z68" s="99"/>
@@ -20917,70 +20817,80 @@
       <c r="AG68" s="99"/>
       <c r="AH68" s="98"/>
       <c r="AI68" s="102" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="AJ68" s="98"/>
       <c r="AK68" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL68" s="98"/>
       <c r="AM68" s="102" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="AN68" s="99"/>
       <c r="AO68" s="99"/>
       <c r="AP68" s="98"/>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B69" s="103"/>
-      <c r="C69" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="89"/>
-      <c r="I69" s="89"/>
-      <c r="J69" s="89"/>
-      <c r="K69" s="89"/>
-      <c r="L69" s="89"/>
-      <c r="M69" s="89"/>
-      <c r="N69" s="89"/>
-      <c r="O69" s="89"/>
-      <c r="P69" s="89"/>
-      <c r="Q69" s="89"/>
-      <c r="R69" s="89"/>
-      <c r="S69" s="89"/>
-      <c r="T69" s="89"/>
-      <c r="U69" s="90"/>
-      <c r="V69" s="91"/>
-      <c r="W69" s="93"/>
-      <c r="X69" s="91"/>
-      <c r="Y69" s="93"/>
-      <c r="Z69" s="93"/>
-      <c r="AA69" s="93"/>
-      <c r="AB69" s="93"/>
-      <c r="AC69" s="93"/>
-      <c r="AD69" s="93"/>
-      <c r="AE69" s="93"/>
-      <c r="AF69" s="93"/>
-      <c r="AG69" s="93"/>
-      <c r="AH69" s="92"/>
-      <c r="AI69" s="91"/>
-      <c r="AJ69" s="92"/>
-      <c r="AK69" s="91"/>
-      <c r="AL69" s="92"/>
-      <c r="AM69" s="91"/>
-      <c r="AN69" s="93"/>
-      <c r="AO69" s="93"/>
-      <c r="AP69" s="92"/>
-    </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="C69" s="100"/>
+      <c r="D69" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="96"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="96"/>
+      <c r="K69" s="96"/>
+      <c r="L69" s="96"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="96"/>
+      <c r="O69" s="96"/>
+      <c r="P69" s="96"/>
+      <c r="Q69" s="96"/>
+      <c r="R69" s="96"/>
+      <c r="S69" s="96"/>
+      <c r="T69" s="96"/>
+      <c r="U69" s="97"/>
+      <c r="V69" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="W69" s="99"/>
+      <c r="X69" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y69" s="99"/>
+      <c r="Z69" s="99"/>
+      <c r="AA69" s="99"/>
+      <c r="AB69" s="99"/>
+      <c r="AC69" s="99"/>
+      <c r="AD69" s="99"/>
+      <c r="AE69" s="99"/>
+      <c r="AF69" s="99"/>
+      <c r="AG69" s="99"/>
+      <c r="AH69" s="98"/>
+      <c r="AI69" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ69" s="98"/>
+      <c r="AK69" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL69" s="98"/>
+      <c r="AM69" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN69" s="99"/>
+      <c r="AO69" s="99"/>
+      <c r="AP69" s="98"/>
+    </row>
+    <row r="70" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B70" s="103"/>
       <c r="C70" s="100"/>
       <c r="D70" s="101" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E70" s="96"/>
       <c r="F70" s="96"/>
@@ -21000,11 +20910,11 @@
       <c r="T70" s="96"/>
       <c r="U70" s="97"/>
       <c r="V70" s="102" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="W70" s="99"/>
       <c r="X70" s="102" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Y70" s="99"/>
       <c r="Z70" s="99"/>
@@ -21017,25 +20927,25 @@
       <c r="AG70" s="99"/>
       <c r="AH70" s="98"/>
       <c r="AI70" s="102" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="AJ70" s="98"/>
       <c r="AK70" s="102" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="AL70" s="98"/>
       <c r="AM70" s="102" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="AN70" s="99"/>
       <c r="AO70" s="99"/>
       <c r="AP70" s="98"/>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B71" s="103"/>
-      <c r="C71" s="100"/>
+    <row r="71" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B71" s="104"/>
+      <c r="C71" s="94"/>
       <c r="D71" s="101" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="E71" s="96"/>
       <c r="F71" s="96"/>
@@ -21055,11 +20965,11 @@
       <c r="T71" s="96"/>
       <c r="U71" s="97"/>
       <c r="V71" s="102" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="W71" s="99"/>
       <c r="X71" s="102" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Y71" s="99"/>
       <c r="Z71" s="99"/>
@@ -21072,552 +20982,30 @@
       <c r="AG71" s="99"/>
       <c r="AH71" s="98"/>
       <c r="AI71" s="102" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="AJ71" s="98"/>
       <c r="AK71" s="102" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AL71" s="98"/>
       <c r="AM71" s="102" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="AN71" s="99"/>
       <c r="AO71" s="99"/>
       <c r="AP71" s="98"/>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B72" s="103"/>
-      <c r="C72" s="100"/>
-      <c r="D72" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="E72" s="96"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="96"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="96"/>
-      <c r="J72" s="96"/>
-      <c r="K72" s="96"/>
-      <c r="L72" s="96"/>
-      <c r="M72" s="96"/>
-      <c r="N72" s="96"/>
-      <c r="O72" s="96"/>
-      <c r="P72" s="96"/>
-      <c r="Q72" s="96"/>
-      <c r="R72" s="96"/>
-      <c r="S72" s="96"/>
-      <c r="T72" s="96"/>
-      <c r="U72" s="97"/>
-      <c r="V72" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W72" s="99"/>
-      <c r="X72" s="102" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y72" s="99"/>
-      <c r="Z72" s="99"/>
-      <c r="AA72" s="99"/>
-      <c r="AB72" s="99"/>
-      <c r="AC72" s="99"/>
-      <c r="AD72" s="99"/>
-      <c r="AE72" s="99"/>
-      <c r="AF72" s="99"/>
-      <c r="AG72" s="99"/>
-      <c r="AH72" s="98"/>
-      <c r="AI72" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ72" s="98"/>
-      <c r="AK72" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL72" s="98"/>
-      <c r="AM72" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN72" s="99"/>
-      <c r="AO72" s="99"/>
-      <c r="AP72" s="98"/>
-    </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B73" s="103"/>
-      <c r="C73" s="100"/>
-      <c r="D73" s="101" t="s">
-        <v>188</v>
-      </c>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="96"/>
-      <c r="L73" s="96"/>
-      <c r="M73" s="96"/>
-      <c r="N73" s="96"/>
-      <c r="O73" s="96"/>
-      <c r="P73" s="96"/>
-      <c r="Q73" s="96"/>
-      <c r="R73" s="96"/>
-      <c r="S73" s="96"/>
-      <c r="T73" s="96"/>
-      <c r="U73" s="97"/>
-      <c r="V73" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W73" s="99"/>
-      <c r="X73" s="102" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y73" s="99"/>
-      <c r="Z73" s="99"/>
-      <c r="AA73" s="99"/>
-      <c r="AB73" s="99"/>
-      <c r="AC73" s="99"/>
-      <c r="AD73" s="99"/>
-      <c r="AE73" s="99"/>
-      <c r="AF73" s="99"/>
-      <c r="AG73" s="99"/>
-      <c r="AH73" s="98"/>
-      <c r="AI73" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ73" s="98"/>
-      <c r="AK73" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL73" s="98"/>
-      <c r="AM73" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN73" s="99"/>
-      <c r="AO73" s="99"/>
-      <c r="AP73" s="98"/>
-    </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B74" s="103"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="101" t="s">
-        <v>190</v>
-      </c>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="96"/>
-      <c r="K74" s="96"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="96"/>
-      <c r="N74" s="96"/>
-      <c r="O74" s="96"/>
-      <c r="P74" s="96"/>
-      <c r="Q74" s="96"/>
-      <c r="R74" s="96"/>
-      <c r="S74" s="96"/>
-      <c r="T74" s="96"/>
-      <c r="U74" s="97"/>
-      <c r="V74" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W74" s="99"/>
-      <c r="X74" s="102" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y74" s="99"/>
-      <c r="Z74" s="99"/>
-      <c r="AA74" s="99"/>
-      <c r="AB74" s="99"/>
-      <c r="AC74" s="99"/>
-      <c r="AD74" s="99"/>
-      <c r="AE74" s="99"/>
-      <c r="AF74" s="99"/>
-      <c r="AG74" s="99"/>
-      <c r="AH74" s="98"/>
-      <c r="AI74" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ74" s="98"/>
-      <c r="AK74" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL74" s="98"/>
-      <c r="AM74" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN74" s="99"/>
-      <c r="AO74" s="99"/>
-      <c r="AP74" s="98"/>
-    </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B75" s="103"/>
-      <c r="C75" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="89"/>
-      <c r="I75" s="89"/>
-      <c r="J75" s="89"/>
-      <c r="K75" s="89"/>
-      <c r="L75" s="89"/>
-      <c r="M75" s="89"/>
-      <c r="N75" s="89"/>
-      <c r="O75" s="89"/>
-      <c r="P75" s="89"/>
-      <c r="Q75" s="89"/>
-      <c r="R75" s="89"/>
-      <c r="S75" s="89"/>
-      <c r="T75" s="89"/>
-      <c r="U75" s="90"/>
-      <c r="V75" s="91"/>
-      <c r="W75" s="93"/>
-      <c r="X75" s="91"/>
-      <c r="Y75" s="93"/>
-      <c r="Z75" s="93"/>
-      <c r="AA75" s="93"/>
-      <c r="AB75" s="93"/>
-      <c r="AC75" s="93"/>
-      <c r="AD75" s="93"/>
-      <c r="AE75" s="93"/>
-      <c r="AF75" s="93"/>
-      <c r="AG75" s="93"/>
-      <c r="AH75" s="92"/>
-      <c r="AI75" s="91"/>
-      <c r="AJ75" s="92"/>
-      <c r="AK75" s="91"/>
-      <c r="AL75" s="92"/>
-      <c r="AM75" s="91"/>
-      <c r="AN75" s="93"/>
-      <c r="AO75" s="93"/>
-      <c r="AP75" s="92"/>
-    </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B76" s="103"/>
-      <c r="C76" s="94"/>
-      <c r="D76" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="E76" s="96"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="96"/>
-      <c r="H76" s="96"/>
-      <c r="I76" s="96"/>
-      <c r="J76" s="96"/>
-      <c r="K76" s="96"/>
-      <c r="L76" s="96"/>
-      <c r="M76" s="96"/>
-      <c r="N76" s="96"/>
-      <c r="O76" s="96"/>
-      <c r="P76" s="96"/>
-      <c r="Q76" s="96"/>
-      <c r="R76" s="96"/>
-      <c r="S76" s="96"/>
-      <c r="T76" s="96"/>
-      <c r="U76" s="97"/>
-      <c r="V76" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W76" s="99"/>
-      <c r="X76" s="102" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y76" s="99"/>
-      <c r="Z76" s="99"/>
-      <c r="AA76" s="99"/>
-      <c r="AB76" s="99"/>
-      <c r="AC76" s="99"/>
-      <c r="AD76" s="99"/>
-      <c r="AE76" s="99"/>
-      <c r="AF76" s="99"/>
-      <c r="AG76" s="99"/>
-      <c r="AH76" s="98"/>
-      <c r="AI76" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ76" s="98"/>
-      <c r="AK76" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL76" s="98"/>
-      <c r="AM76" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN76" s="99"/>
-      <c r="AO76" s="99"/>
-      <c r="AP76" s="98"/>
-    </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B77" s="103"/>
-      <c r="C77" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="89"/>
-      <c r="H77" s="89"/>
-      <c r="I77" s="89"/>
-      <c r="J77" s="89"/>
-      <c r="K77" s="89"/>
-      <c r="L77" s="89"/>
-      <c r="M77" s="89"/>
-      <c r="N77" s="89"/>
-      <c r="O77" s="89"/>
-      <c r="P77" s="89"/>
-      <c r="Q77" s="89"/>
-      <c r="R77" s="89"/>
-      <c r="S77" s="89"/>
-      <c r="T77" s="89"/>
-      <c r="U77" s="90"/>
-      <c r="V77" s="91"/>
-      <c r="W77" s="93"/>
-      <c r="X77" s="91"/>
-      <c r="Y77" s="93"/>
-      <c r="Z77" s="93"/>
-      <c r="AA77" s="93"/>
-      <c r="AB77" s="93"/>
-      <c r="AC77" s="93"/>
-      <c r="AD77" s="93"/>
-      <c r="AE77" s="93"/>
-      <c r="AF77" s="93"/>
-      <c r="AG77" s="93"/>
-      <c r="AH77" s="92"/>
-      <c r="AI77" s="91"/>
-      <c r="AJ77" s="92"/>
-      <c r="AK77" s="91"/>
-      <c r="AL77" s="92"/>
-      <c r="AM77" s="91"/>
-      <c r="AN77" s="93"/>
-      <c r="AO77" s="93"/>
-      <c r="AP77" s="92"/>
-    </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B78" s="103"/>
-      <c r="C78" s="100"/>
-      <c r="D78" s="101" t="s">
-        <v>194</v>
-      </c>
-      <c r="E78" s="96"/>
-      <c r="F78" s="96"/>
-      <c r="G78" s="96"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="96"/>
-      <c r="J78" s="96"/>
-      <c r="K78" s="96"/>
-      <c r="L78" s="96"/>
-      <c r="M78" s="96"/>
-      <c r="N78" s="96"/>
-      <c r="O78" s="96"/>
-      <c r="P78" s="96"/>
-      <c r="Q78" s="96"/>
-      <c r="R78" s="96"/>
-      <c r="S78" s="96"/>
-      <c r="T78" s="96"/>
-      <c r="U78" s="97"/>
-      <c r="V78" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W78" s="99"/>
-      <c r="X78" s="102" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y78" s="99"/>
-      <c r="Z78" s="99"/>
-      <c r="AA78" s="99"/>
-      <c r="AB78" s="99"/>
-      <c r="AC78" s="99"/>
-      <c r="AD78" s="99"/>
-      <c r="AE78" s="99"/>
-      <c r="AF78" s="99"/>
-      <c r="AG78" s="99"/>
-      <c r="AH78" s="98"/>
-      <c r="AI78" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ78" s="98"/>
-      <c r="AK78" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL78" s="98"/>
-      <c r="AM78" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN78" s="99"/>
-      <c r="AO78" s="99"/>
-      <c r="AP78" s="98"/>
-    </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B79" s="103"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="101" t="s">
-        <v>196</v>
-      </c>
-      <c r="E79" s="96"/>
-      <c r="F79" s="96"/>
-      <c r="G79" s="96"/>
-      <c r="H79" s="96"/>
-      <c r="I79" s="96"/>
-      <c r="J79" s="96"/>
-      <c r="K79" s="96"/>
-      <c r="L79" s="96"/>
-      <c r="M79" s="96"/>
-      <c r="N79" s="96"/>
-      <c r="O79" s="96"/>
-      <c r="P79" s="96"/>
-      <c r="Q79" s="96"/>
-      <c r="R79" s="96"/>
-      <c r="S79" s="96"/>
-      <c r="T79" s="96"/>
-      <c r="U79" s="97"/>
-      <c r="V79" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W79" s="99"/>
-      <c r="X79" s="102" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y79" s="99"/>
-      <c r="Z79" s="99"/>
-      <c r="AA79" s="99"/>
-      <c r="AB79" s="99"/>
-      <c r="AC79" s="99"/>
-      <c r="AD79" s="99"/>
-      <c r="AE79" s="99"/>
-      <c r="AF79" s="99"/>
-      <c r="AG79" s="99"/>
-      <c r="AH79" s="98"/>
-      <c r="AI79" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ79" s="98"/>
-      <c r="AK79" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL79" s="98"/>
-      <c r="AM79" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN79" s="99"/>
-      <c r="AO79" s="99"/>
-      <c r="AP79" s="98"/>
-    </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="B80" s="103"/>
-      <c r="C80" s="100"/>
-      <c r="D80" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="E80" s="96"/>
-      <c r="F80" s="96"/>
-      <c r="G80" s="96"/>
-      <c r="H80" s="96"/>
-      <c r="I80" s="96"/>
-      <c r="J80" s="96"/>
-      <c r="K80" s="96"/>
-      <c r="L80" s="96"/>
-      <c r="M80" s="96"/>
-      <c r="N80" s="96"/>
-      <c r="O80" s="96"/>
-      <c r="P80" s="96"/>
-      <c r="Q80" s="96"/>
-      <c r="R80" s="96"/>
-      <c r="S80" s="96"/>
-      <c r="T80" s="96"/>
-      <c r="U80" s="97"/>
-      <c r="V80" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W80" s="99"/>
-      <c r="X80" s="102" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y80" s="99"/>
-      <c r="Z80" s="99"/>
-      <c r="AA80" s="99"/>
-      <c r="AB80" s="99"/>
-      <c r="AC80" s="99"/>
-      <c r="AD80" s="99"/>
-      <c r="AE80" s="99"/>
-      <c r="AF80" s="99"/>
-      <c r="AG80" s="99"/>
-      <c r="AH80" s="98"/>
-      <c r="AI80" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ80" s="98"/>
-      <c r="AK80" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL80" s="98"/>
-      <c r="AM80" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN80" s="99"/>
-      <c r="AO80" s="99"/>
-      <c r="AP80" s="98"/>
-    </row>
-    <row r="81" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B81" s="104"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="101" t="s">
-        <v>200</v>
-      </c>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="96"/>
-      <c r="J81" s="96"/>
-      <c r="K81" s="96"/>
-      <c r="L81" s="96"/>
-      <c r="M81" s="96"/>
-      <c r="N81" s="96"/>
-      <c r="O81" s="96"/>
-      <c r="P81" s="96"/>
-      <c r="Q81" s="96"/>
-      <c r="R81" s="96"/>
-      <c r="S81" s="96"/>
-      <c r="T81" s="96"/>
-      <c r="U81" s="97"/>
-      <c r="V81" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="W81" s="99"/>
-      <c r="X81" s="102" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y81" s="99"/>
-      <c r="Z81" s="99"/>
-      <c r="AA81" s="99"/>
-      <c r="AB81" s="99"/>
-      <c r="AC81" s="99"/>
-      <c r="AD81" s="99"/>
-      <c r="AE81" s="99"/>
-      <c r="AF81" s="99"/>
-      <c r="AG81" s="99"/>
-      <c r="AH81" s="98"/>
-      <c r="AI81" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ81" s="98"/>
-      <c r="AK81" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL81" s="98"/>
-      <c r="AM81" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN81" s="99"/>
-      <c r="AO81" s="99"/>
-      <c r="AP81" s="98"/>
-    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -21627,14 +21015,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -21644,7 +21024,7 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="68" max="42" man="1"/>
+    <brk id="58" max="42" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -21678,59 +21058,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118" t="str">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="189" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="180" t="str">
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="115" t="s">
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="16"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="16"/>
@@ -21744,54 +21124,54 @@
       <c r="AW1" s="16"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118" t="str">
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="184"/>
-      <c r="U2" s="184"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="184"/>
-      <c r="X2" s="184"/>
-      <c r="Y2" s="184"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="115" t="s">
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="174" t="str">
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="16"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="16"/>
@@ -21805,52 +21185,52 @@
       <c r="AW2" s="16"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118" t="str">
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="188"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="174" t="str">
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -21921,7 +21301,7 @@
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="60" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -21974,17 +21354,17 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
       <c r="C6" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.15">
       <c r="C7" s="76" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.15">
       <c r="C9" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -21994,10 +21374,10 @@
     <row r="10" spans="1:50" x14ac:dyDescent="0.15">
       <c r="C10" s="7"/>
       <c r="D10" s="77" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7"/>
       <c r="L10" s="7"/>
@@ -22013,7 +21393,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="G12" s="7"/>
       <c r="L12" s="7"/>
@@ -22022,7 +21402,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7"/>
       <c r="L13" s="7"/>
@@ -22149,10 +21529,10 @@
     <row r="31" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C31" s="7"/>
       <c r="D31" s="77" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G31" s="7"/>
       <c r="L31" s="7"/>
@@ -22168,7 +21548,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="G33" s="7"/>
       <c r="L33" s="7"/>
@@ -22177,7 +21557,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="G34" s="7"/>
       <c r="L34" s="7"/>
@@ -22283,10 +21663,10 @@
     <row r="49" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C49" s="7"/>
       <c r="D49" s="77" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G49" s="7"/>
       <c r="L49" s="7"/>
@@ -22302,7 +21682,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G51" s="7"/>
       <c r="L51" s="7"/>
@@ -22311,7 +21691,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G52" s="7"/>
       <c r="L52" s="7"/>
@@ -22320,7 +21700,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G53" s="7"/>
       <c r="L53" s="7"/>
@@ -22334,7 +21714,7 @@
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C69" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -22342,10 +21722,10 @@
     <row r="70" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C70" s="7"/>
       <c r="D70" s="77" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.15">
@@ -22357,30 +21737,30 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C88" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D89" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E91" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C108" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -22388,10 +21768,10 @@
     <row r="109" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C109" s="7"/>
       <c r="D109" s="77" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.15">
@@ -22403,18 +21783,26 @@
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="76" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="76" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -22424,14 +21812,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>

--- a/030_設計ドキュメント/Nablarch開発標準設計書一覧.xlsx
+++ b/030_設計ドキュメント/Nablarch開発標準設計書一覧.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1419681-59D0-4F12-9E3B-D2D484D6A515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="12840" tabRatio="822"/>
+    <workbookView xWindow="5145" yWindow="1695" windowWidth="24885" windowHeight="18960" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 概要'!$A$1:$AI$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2.1. 設計書体系図'!$A$1:$BA$72</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.2. 設計書一覧'!$A$1:$AQ$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.2. 設計書一覧'!$A$1:$AQ$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'3. 設計書とソースコードの対応'!$A$1:$AI$125</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
@@ -29,17 +30,28 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'3. 設計書とソースコードの対応'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
-    <definedName name="Z_4588D9FD_BE60_41A2_84C1_3F86A9D119AD_.wvu.PrintArea" localSheetId="5" hidden="1">'2.2. 設計書一覧'!$A$1:$AQ$74</definedName>
+    <definedName name="Z_4588D9FD_BE60_41A2_84C1_3F86A9D119AD_.wvu.PrintArea" localSheetId="5" hidden="1">'2.2. 設計書一覧'!$A$1:$AQ$75</definedName>
     <definedName name="Z_4588D9FD_BE60_41A2_84C1_3F86A9D119AD_.wvu.PrintTitles" localSheetId="5" hidden="1">'2.2. 設計書一覧'!$1:$4</definedName>
-    <definedName name="Z_E0BDFAF5_8503_4849_AFDC_25B40FF2DCFC_.wvu.PrintArea" localSheetId="5" hidden="1">'2.2. 設計書一覧'!$A$1:$AQ$74</definedName>
+    <definedName name="Z_E0BDFAF5_8503_4849_AFDC_25B40FF2DCFC_.wvu.PrintArea" localSheetId="5" hidden="1">'2.2. 設計書一覧'!$A$1:$AQ$75</definedName>
     <definedName name="Z_E0BDFAF5_8503_4849_AFDC_25B40FF2DCFC_.wvu.PrintTitles" localSheetId="5" hidden="1">'2.2. 設計書一覧'!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="207">
   <si>
     <t>PJ名</t>
   </si>
@@ -103,16 +115,6 @@
       <t>タントウシャ</t>
     </rPh>
     <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -1306,11 +1308,46 @@
     <t>実装方法の詳細は https://nablarch.github.io/ の『Nablarchアプリケーションフレームワーク - 解説書』を参照すること。</t>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>単体テスト仕様書_リクエスト・取引単体(Webサービス)_(取引ID)_(取引名)</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Webサービスの単体テストの仕様書</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・テスト仕様書にWebサービスを追加</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -2195,7 +2232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -2430,87 +2467,6 @@
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2628,14 +2584,86 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2645,6 +2673,42 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2673,31 +2737,18 @@
     <xf numFmtId="0" fontId="33" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2729,7 +2780,7 @@
     <cellStyle name="タイトル" xfId="25" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="26" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="27" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="パーセント 2" xfId="47"/>
+    <cellStyle name="パーセント 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="ハイパーリンク" xfId="46" builtinId="8"/>
     <cellStyle name="メモ" xfId="28" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="29" builtinId="24" customBuiltin="1"/>
@@ -2745,14 +2796,14 @@
     <cellStyle name="説明文" xfId="39" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="40" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="44"/>
-    <cellStyle name="標準 2 2" xfId="45"/>
-    <cellStyle name="標準 3" xfId="49"/>
-    <cellStyle name="標準 3 2" xfId="51"/>
-    <cellStyle name="標準 4" xfId="48"/>
-    <cellStyle name="標準 5" xfId="50"/>
-    <cellStyle name="標準_画面標準" xfId="41"/>
-    <cellStyle name="標準_画面標準定義" xfId="42"/>
+    <cellStyle name="標準 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="標準 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="標準 3" xfId="49" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="標準 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="標準 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="標準 5" xfId="50" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="標準_画面標準" xfId="41" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="42" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="良い" xfId="43" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2768,6 +2819,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2790,7 +2844,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2805,7 +2865,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2889,7 +2955,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2989,7 +3061,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3074,7 +3152,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 170"/>
+        <xdr:cNvPr id="15" name="Rectangle 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3136,7 +3220,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 149"/>
+        <xdr:cNvPr id="16" name="Rectangle 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3198,7 +3288,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 69"/>
+        <xdr:cNvPr id="17" name="Rectangle 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3282,7 +3378,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 70"/>
+        <xdr:cNvPr id="18" name="Rectangle 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3362,7 +3464,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 71"/>
+        <xdr:cNvPr id="19" name="Rectangle 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3442,7 +3550,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="AutoShape 72"/>
+        <xdr:cNvPr id="20" name="AutoShape 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3506,7 +3620,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="AutoShape 73"/>
+        <xdr:cNvPr id="21" name="AutoShape 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3595,7 +3715,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="AutoShape 74"/>
+        <xdr:cNvPr id="22" name="AutoShape 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3713,7 +3839,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="AutoShape 75"/>
+        <xdr:cNvPr id="23" name="AutoShape 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3777,7 +3909,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="AutoShape 76"/>
+        <xdr:cNvPr id="24" name="AutoShape 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3881,7 +4019,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="AutoShape 77"/>
+        <xdr:cNvPr id="25" name="AutoShape 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3988,7 +4132,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="AutoShape 78"/>
+        <xdr:cNvPr id="26" name="AutoShape 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4068,7 +4218,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="AutoShape 79"/>
+        <xdr:cNvPr id="27" name="AutoShape 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4180,7 +4336,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="AutoShape 80"/>
+        <xdr:cNvPr id="28" name="AutoShape 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4275,7 +4437,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="AutoShape 84"/>
+        <xdr:cNvPr id="29" name="AutoShape 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="62" idx="2"/>
@@ -4319,7 +4487,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="AutoShape 89"/>
+        <xdr:cNvPr id="30" name="AutoShape 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="27" idx="0"/>
@@ -4363,7 +4537,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="AutoShape 90"/>
+        <xdr:cNvPr id="31" name="AutoShape 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="26" idx="0"/>
@@ -4407,7 +4587,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Line 91"/>
+        <xdr:cNvPr id="32" name="Line 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4449,7 +4635,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="AutoShape 98"/>
+        <xdr:cNvPr id="33" name="AutoShape 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4558,7 +4750,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="AutoShape 104"/>
+        <xdr:cNvPr id="34" name="AutoShape 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4622,7 +4820,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="AutoShape 105"/>
+        <xdr:cNvPr id="35" name="AutoShape 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4726,7 +4930,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="AutoShape 106"/>
+        <xdr:cNvPr id="36" name="AutoShape 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4803,7 +5013,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Line 112"/>
+        <xdr:cNvPr id="37" name="Line 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4845,7 +5061,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectangle 113"/>
+        <xdr:cNvPr id="38" name="Rectangle 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4932,7 +5154,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="AutoShape 116"/>
+        <xdr:cNvPr id="39" name="AutoShape 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5225,7 +5453,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="AutoShape 117"/>
+        <xdr:cNvPr id="40" name="AutoShape 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="39" idx="3"/>
@@ -5268,7 +5502,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="AutoShape 119"/>
+        <xdr:cNvPr id="41" name="AutoShape 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="39" idx="3"/>
@@ -5311,7 +5551,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="AutoShape 124"/>
+        <xdr:cNvPr id="42" name="AutoShape 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5391,7 +5637,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="AutoShape 126"/>
+        <xdr:cNvPr id="43" name="AutoShape 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5471,7 +5723,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="AutoShape 127"/>
+        <xdr:cNvPr id="44" name="AutoShape 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5548,7 +5806,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="AutoShape 128"/>
+        <xdr:cNvPr id="45" name="AutoShape 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="44" idx="3"/>
@@ -5591,7 +5855,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="46" name="Group 185"/>
+        <xdr:cNvPr id="46" name="Group 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -5606,7 +5876,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="Rectangle 129"/>
+          <xdr:cNvPr id="47" name="Rectangle 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5678,7 +5954,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="AutoShape 130"/>
+          <xdr:cNvPr id="48" name="AutoShape 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5725,7 +6007,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="AutoShape 131"/>
+          <xdr:cNvPr id="49" name="AutoShape 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5772,7 +6060,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="Line 132"/>
+          <xdr:cNvPr id="50" name="Line 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5799,7 +6093,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="Line 133"/>
+          <xdr:cNvPr id="51" name="Line 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5825,7 +6125,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="Rectangle 134"/>
+          <xdr:cNvPr id="52" name="Rectangle 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5879,7 +6185,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="Rectangle 135"/>
+          <xdr:cNvPr id="53" name="Rectangle 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5933,7 +6245,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="Rectangle 136"/>
+          <xdr:cNvPr id="54" name="Rectangle 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5990,7 +6308,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="Rectangle 137"/>
+          <xdr:cNvPr id="55" name="Rectangle 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000037000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6060,7 +6384,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Line 141"/>
+        <xdr:cNvPr id="56" name="Line 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -6102,7 +6432,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Line 142"/>
+        <xdr:cNvPr id="57" name="Line 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -6144,7 +6480,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Line 143"/>
+        <xdr:cNvPr id="58" name="Line 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -6186,7 +6528,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="AutoShape 150"/>
+        <xdr:cNvPr id="59" name="AutoShape 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6263,7 +6611,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Rectangle 151"/>
+        <xdr:cNvPr id="60" name="Rectangle 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6325,7 +6679,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Line 153"/>
+        <xdr:cNvPr id="61" name="Line 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -6366,7 +6726,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="AutoShape 179"/>
+        <xdr:cNvPr id="62" name="AutoShape 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6672,7 +7038,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="AutoShape 186"/>
+        <xdr:cNvPr id="63" name="AutoShape 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6752,7 +7124,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="AutoShape 187"/>
+        <xdr:cNvPr id="64" name="AutoShape 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="27" idx="3"/>
@@ -6798,7 +7176,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="AutoShape 191"/>
+        <xdr:cNvPr id="65" name="AutoShape 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6887,7 +7271,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="AutoShape 192"/>
+        <xdr:cNvPr id="66" name="AutoShape 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6976,7 +7366,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="AutoShape 193"/>
+        <xdr:cNvPr id="67" name="AutoShape 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7053,7 +7449,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="AutoShape 194"/>
+        <xdr:cNvPr id="68" name="AutoShape 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="60" idx="2"/>
@@ -7096,7 +7498,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="AutoShape 117"/>
+        <xdr:cNvPr id="76" name="AutoShape 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="39" idx="3"/>
@@ -7144,7 +7552,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="AutoShape 91"/>
+        <xdr:cNvPr id="44" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7209,7 +7623,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="AutoShape 79"/>
+        <xdr:cNvPr id="48" name="AutoShape 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7299,7 +7719,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="カギ線コネクタ 65"/>
+        <xdr:cNvPr id="66" name="カギ線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="3"/>
           <a:endCxn id="48" idx="1"/>
@@ -7356,7 +7782,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="カギ線コネクタ 68"/>
+        <xdr:cNvPr id="69" name="カギ線コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="3"/>
           <a:endCxn id="80" idx="1"/>
@@ -7413,7 +7845,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="メモ 73"/>
+        <xdr:cNvPr id="74" name="メモ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -7440,7 +7878,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -7664,7 +8101,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="メモ 74"/>
+        <xdr:cNvPr id="75" name="メモ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -7691,7 +8134,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -7915,7 +8357,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="AutoShape 91"/>
+        <xdr:cNvPr id="80" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7987,7 +8435,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="フローチャート: 処理 82"/>
+        <xdr:cNvPr id="83" name="フローチャート: 処理 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -8011,7 +8465,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -8112,7 +8565,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="メモ 83"/>
+        <xdr:cNvPr id="84" name="メモ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -8139,7 +8598,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -8385,7 +8843,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="メモ 85"/>
+        <xdr:cNvPr id="86" name="メモ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -8412,7 +8876,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -8636,7 +9099,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="フローチャート: 処理 87"/>
+        <xdr:cNvPr id="88" name="フローチャート: 処理 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -8661,7 +9130,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -8762,7 +9230,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="AutoShape 91"/>
+        <xdr:cNvPr id="89" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8827,7 +9301,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="AutoShape 79"/>
+        <xdr:cNvPr id="90" name="AutoShape 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8917,7 +9397,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="カギ線コネクタ 65"/>
+        <xdr:cNvPr id="91" name="カギ線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="89" idx="3"/>
           <a:endCxn id="90" idx="1"/>
@@ -8974,7 +9460,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="カギ線コネクタ 68"/>
+        <xdr:cNvPr id="92" name="カギ線コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="90" idx="3"/>
           <a:endCxn id="93" idx="1"/>
@@ -9031,7 +9523,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="AutoShape 91"/>
+        <xdr:cNvPr id="93" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9103,7 +9601,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="メモ 93"/>
+        <xdr:cNvPr id="94" name="メモ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -9130,7 +9634,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -9376,7 +9879,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="フローチャート: 処理 97"/>
+        <xdr:cNvPr id="98" name="フローチャート: 処理 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -9401,7 +9910,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -9502,7 +10010,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="AutoShape 91"/>
+        <xdr:cNvPr id="99" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9567,7 +10081,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="AutoShape 79"/>
+        <xdr:cNvPr id="100" name="AutoShape 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9650,7 +10170,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="カギ線コネクタ 65"/>
+        <xdr:cNvPr id="101" name="カギ線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="99" idx="3"/>
           <a:endCxn id="100" idx="1"/>
@@ -9707,7 +10233,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="カギ線コネクタ 68"/>
+        <xdr:cNvPr id="102" name="カギ線コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="100" idx="3"/>
           <a:endCxn id="103" idx="1"/>
@@ -9764,7 +10296,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="AutoShape 91"/>
+        <xdr:cNvPr id="103" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9836,7 +10374,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="メモ 103"/>
+        <xdr:cNvPr id="104" name="メモ 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -9863,7 +10407,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -10087,7 +10630,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="フローチャート: 処理 105"/>
+        <xdr:cNvPr id="106" name="フローチャート: 処理 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -10112,7 +10661,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -10203,7 +10751,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="AutoShape 91"/>
+        <xdr:cNvPr id="107" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -10268,7 +10822,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="AutoShape 79"/>
+        <xdr:cNvPr id="108" name="AutoShape 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -10333,7 +10893,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="カギ線コネクタ 65"/>
+        <xdr:cNvPr id="109" name="カギ線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="107" idx="3"/>
           <a:endCxn id="108" idx="1"/>
@@ -10390,7 +10956,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="カギ線コネクタ 68"/>
+        <xdr:cNvPr id="110" name="カギ線コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="108" idx="3"/>
           <a:endCxn id="111" idx="1"/>
@@ -10447,7 +11019,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="AutoShape 91"/>
+        <xdr:cNvPr id="111" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -10519,7 +11097,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="フローチャート: 処理 113"/>
+        <xdr:cNvPr id="114" name="フローチャート: 処理 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -10544,7 +11128,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -10642,7 +11225,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="フローチャート: 処理 115"/>
+        <xdr:cNvPr id="116" name="フローチャート: 処理 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -10667,7 +11256,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -10768,7 +11356,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="AutoShape 91"/>
+        <xdr:cNvPr id="117" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -10833,7 +11427,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="AutoShape 79"/>
+        <xdr:cNvPr id="118" name="AutoShape 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -10908,7 +11508,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="119" name="カギ線コネクタ 65"/>
+        <xdr:cNvPr id="119" name="カギ線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="117" idx="3"/>
           <a:endCxn id="118" idx="1"/>
@@ -10965,7 +11571,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="カギ線コネクタ 68"/>
+        <xdr:cNvPr id="120" name="カギ線コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="118" idx="3"/>
           <a:endCxn id="121" idx="1"/>
@@ -11022,7 +11634,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="AutoShape 91"/>
+        <xdr:cNvPr id="121" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -11094,7 +11712,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="フローチャート: 処理 122"/>
+        <xdr:cNvPr id="123" name="フローチャート: 処理 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -11119,7 +11743,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -11217,7 +11840,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="メモ 123"/>
+        <xdr:cNvPr id="124" name="メモ 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -11244,7 +11873,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -11490,7 +12118,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="メモ 125"/>
+        <xdr:cNvPr id="126" name="メモ 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -11516,7 +12150,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -11740,7 +12373,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="AutoShape 91"/>
+        <xdr:cNvPr id="128" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -11805,7 +12444,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="AutoShape 79"/>
+        <xdr:cNvPr id="129" name="AutoShape 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -11880,7 +12525,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="カギ線コネクタ 65"/>
+        <xdr:cNvPr id="130" name="カギ線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="128" idx="3"/>
           <a:endCxn id="129" idx="1"/>
@@ -11937,7 +12588,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="カギ線コネクタ 68"/>
+        <xdr:cNvPr id="131" name="カギ線コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="129" idx="3"/>
           <a:endCxn id="134" idx="1"/>
@@ -11994,7 +12651,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="AutoShape 91"/>
+        <xdr:cNvPr id="134" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -12066,7 +12729,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="フローチャート: 処理 134"/>
+        <xdr:cNvPr id="135" name="フローチャート: 処理 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -12091,7 +12760,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -12159,7 +12827,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="メモ 135"/>
+        <xdr:cNvPr id="136" name="メモ 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -12186,7 +12860,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -12432,7 +13105,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="メモ 137"/>
+        <xdr:cNvPr id="138" name="メモ 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -12459,7 +13138,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -13042,7 +13720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13090,7 +13768,7 @@
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="J23" s="6" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13104,7 +13782,7 @@
       <c r="H25" s="29"/>
       <c r="I25" s="107">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43336</v>
+        <v>44848</v>
       </c>
       <c r="J25" s="107"/>
       <c r="K25" s="107"/>
@@ -13690,7 +14368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13706,55 +14384,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="151" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="153" t="s">
+      <c r="A1" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="135" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="162" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="142" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="171" t="str">
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="144" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="135">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="108">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="137"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="110"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -13762,51 +14440,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="142" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="148" t="str">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="121" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="135" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="108">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="137"/>
+        <v>44848</v>
+      </c>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="110"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -13814,43 +14492,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="137"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="110"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -13885,1036 +14563,1206 @@
     </row>
     <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="138" t="s">
+      <c r="C7" s="112"/>
+      <c r="D7" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="140"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="138" t="s">
+      <c r="E7" s="113"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="141" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="138" t="s">
+      <c r="H7" s="113"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="140"/>
-      <c r="S7" s="140"/>
-      <c r="T7" s="140"/>
-      <c r="U7" s="140"/>
-      <c r="V7" s="140"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="140"/>
-      <c r="Y7" s="140"/>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
-      <c r="AD7" s="140"/>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="138" t="s">
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="113"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="113"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="113"/>
+      <c r="AC7" s="113"/>
+      <c r="AD7" s="113"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="140"/>
-      <c r="AH7" s="140"/>
-      <c r="AI7" s="139"/>
+      <c r="AG7" s="113"/>
+      <c r="AH7" s="113"/>
+      <c r="AI7" s="112"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="160"/>
+      <c r="D8" s="161">
+        <v>43336</v>
+      </c>
+      <c r="E8" s="162"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="123">
-        <v>43336</v>
-      </c>
-      <c r="E8" s="124"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="126" t="s">
+      <c r="H8" s="165"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129" t="s">
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="132" t="s">
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="171"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="172"/>
+      <c r="AF8" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="133"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="133"/>
-      <c r="U8" s="133"/>
-      <c r="V8" s="133"/>
-      <c r="W8" s="133"/>
-      <c r="X8" s="133"/>
-      <c r="Y8" s="133"/>
-      <c r="Z8" s="133"/>
-      <c r="AA8" s="133"/>
-      <c r="AB8" s="133"/>
-      <c r="AC8" s="133"/>
-      <c r="AD8" s="133"/>
-      <c r="AE8" s="134"/>
-      <c r="AF8" s="129" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG8" s="130"/>
-      <c r="AH8" s="130"/>
-      <c r="AI8" s="131"/>
+      <c r="AG8" s="168"/>
+      <c r="AH8" s="168"/>
+      <c r="AI8" s="169"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="118"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="118"/>
-      <c r="Z9" s="118"/>
-      <c r="AA9" s="118"/>
-      <c r="AB9" s="118"/>
-      <c r="AC9" s="118"/>
-      <c r="AD9" s="118"/>
-      <c r="AE9" s="119"/>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="115"/>
-      <c r="AH9" s="115"/>
-      <c r="AI9" s="116"/>
+      <c r="A9" s="20">
+        <v>2</v>
+      </c>
+      <c r="B9" s="200" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149">
+        <v>44848</v>
+      </c>
+      <c r="E9" s="150"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="201" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="152"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="202" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="154"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="203" t="s">
+        <v>205</v>
+      </c>
+      <c r="R9" s="157"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="157"/>
+      <c r="X9" s="157"/>
+      <c r="Y9" s="157"/>
+      <c r="Z9" s="157"/>
+      <c r="AA9" s="157"/>
+      <c r="AB9" s="157"/>
+      <c r="AC9" s="157"/>
+      <c r="AD9" s="157"/>
+      <c r="AE9" s="158"/>
+      <c r="AF9" s="202" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="154"/>
+      <c r="AH9" s="154"/>
+      <c r="AI9" s="155"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="118"/>
-      <c r="AE10" s="119"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="115"/>
-      <c r="AH10" s="115"/>
-      <c r="AI10" s="116"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="157"/>
+      <c r="U10" s="157"/>
+      <c r="V10" s="157"/>
+      <c r="W10" s="157"/>
+      <c r="X10" s="157"/>
+      <c r="Y10" s="157"/>
+      <c r="Z10" s="157"/>
+      <c r="AA10" s="157"/>
+      <c r="AB10" s="157"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="157"/>
+      <c r="AE10" s="158"/>
+      <c r="AF10" s="153"/>
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="154"/>
+      <c r="AI10" s="155"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="118"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="118"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="118"/>
-      <c r="AD11" s="118"/>
-      <c r="AE11" s="119"/>
-      <c r="AF11" s="114"/>
-      <c r="AG11" s="115"/>
-      <c r="AH11" s="115"/>
-      <c r="AI11" s="116"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="157"/>
+      <c r="S11" s="157"/>
+      <c r="T11" s="157"/>
+      <c r="U11" s="157"/>
+      <c r="V11" s="157"/>
+      <c r="W11" s="157"/>
+      <c r="X11" s="157"/>
+      <c r="Y11" s="157"/>
+      <c r="Z11" s="157"/>
+      <c r="AA11" s="157"/>
+      <c r="AB11" s="157"/>
+      <c r="AC11" s="157"/>
+      <c r="AD11" s="157"/>
+      <c r="AE11" s="158"/>
+      <c r="AF11" s="153"/>
+      <c r="AG11" s="154"/>
+      <c r="AH11" s="154"/>
+      <c r="AI11" s="155"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="118"/>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="118"/>
-      <c r="AB12" s="118"/>
-      <c r="AC12" s="118"/>
-      <c r="AD12" s="118"/>
-      <c r="AE12" s="119"/>
-      <c r="AF12" s="114"/>
-      <c r="AG12" s="115"/>
-      <c r="AH12" s="115"/>
-      <c r="AI12" s="116"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="157"/>
+      <c r="S12" s="157"/>
+      <c r="T12" s="157"/>
+      <c r="U12" s="157"/>
+      <c r="V12" s="157"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="157"/>
+      <c r="Y12" s="157"/>
+      <c r="Z12" s="157"/>
+      <c r="AA12" s="157"/>
+      <c r="AB12" s="157"/>
+      <c r="AC12" s="157"/>
+      <c r="AD12" s="157"/>
+      <c r="AE12" s="158"/>
+      <c r="AF12" s="153"/>
+      <c r="AG12" s="154"/>
+      <c r="AH12" s="154"/>
+      <c r="AI12" s="155"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="118"/>
-      <c r="AD13" s="118"/>
-      <c r="AE13" s="119"/>
-      <c r="AF13" s="114"/>
-      <c r="AG13" s="115"/>
-      <c r="AH13" s="115"/>
-      <c r="AI13" s="116"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="154"/>
+      <c r="O13" s="154"/>
+      <c r="P13" s="155"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="157"/>
+      <c r="S13" s="157"/>
+      <c r="T13" s="157"/>
+      <c r="U13" s="157"/>
+      <c r="V13" s="157"/>
+      <c r="W13" s="157"/>
+      <c r="X13" s="157"/>
+      <c r="Y13" s="157"/>
+      <c r="Z13" s="157"/>
+      <c r="AA13" s="157"/>
+      <c r="AB13" s="157"/>
+      <c r="AC13" s="157"/>
+      <c r="AD13" s="157"/>
+      <c r="AE13" s="158"/>
+      <c r="AF13" s="153"/>
+      <c r="AG13" s="154"/>
+      <c r="AH13" s="154"/>
+      <c r="AI13" s="155"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="118"/>
-      <c r="AC14" s="118"/>
-      <c r="AD14" s="118"/>
-      <c r="AE14" s="119"/>
-      <c r="AF14" s="114"/>
-      <c r="AG14" s="115"/>
-      <c r="AH14" s="115"/>
-      <c r="AI14" s="116"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="157"/>
+      <c r="S14" s="157"/>
+      <c r="T14" s="157"/>
+      <c r="U14" s="157"/>
+      <c r="V14" s="157"/>
+      <c r="W14" s="157"/>
+      <c r="X14" s="157"/>
+      <c r="Y14" s="157"/>
+      <c r="Z14" s="157"/>
+      <c r="AA14" s="157"/>
+      <c r="AB14" s="157"/>
+      <c r="AC14" s="157"/>
+      <c r="AD14" s="157"/>
+      <c r="AE14" s="158"/>
+      <c r="AF14" s="153"/>
+      <c r="AG14" s="154"/>
+      <c r="AH14" s="154"/>
+      <c r="AI14" s="155"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="118"/>
-      <c r="AE15" s="119"/>
-      <c r="AF15" s="114"/>
-      <c r="AG15" s="115"/>
-      <c r="AH15" s="115"/>
-      <c r="AI15" s="116"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="157"/>
+      <c r="S15" s="157"/>
+      <c r="T15" s="157"/>
+      <c r="U15" s="157"/>
+      <c r="V15" s="157"/>
+      <c r="W15" s="157"/>
+      <c r="X15" s="157"/>
+      <c r="Y15" s="157"/>
+      <c r="Z15" s="157"/>
+      <c r="AA15" s="157"/>
+      <c r="AB15" s="157"/>
+      <c r="AC15" s="157"/>
+      <c r="AD15" s="157"/>
+      <c r="AE15" s="158"/>
+      <c r="AF15" s="153"/>
+      <c r="AG15" s="154"/>
+      <c r="AH15" s="154"/>
+      <c r="AI15" s="155"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="118"/>
-      <c r="AE16" s="119"/>
-      <c r="AF16" s="114"/>
-      <c r="AG16" s="115"/>
-      <c r="AH16" s="115"/>
-      <c r="AI16" s="116"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="157"/>
+      <c r="S16" s="157"/>
+      <c r="T16" s="157"/>
+      <c r="U16" s="157"/>
+      <c r="V16" s="157"/>
+      <c r="W16" s="157"/>
+      <c r="X16" s="157"/>
+      <c r="Y16" s="157"/>
+      <c r="Z16" s="157"/>
+      <c r="AA16" s="157"/>
+      <c r="AB16" s="157"/>
+      <c r="AC16" s="157"/>
+      <c r="AD16" s="157"/>
+      <c r="AE16" s="158"/>
+      <c r="AF16" s="153"/>
+      <c r="AG16" s="154"/>
+      <c r="AH16" s="154"/>
+      <c r="AI16" s="155"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="118"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="118"/>
-      <c r="AD17" s="118"/>
-      <c r="AE17" s="119"/>
-      <c r="AF17" s="114"/>
-      <c r="AG17" s="115"/>
-      <c r="AH17" s="115"/>
-      <c r="AI17" s="116"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="155"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="157"/>
+      <c r="S17" s="157"/>
+      <c r="T17" s="157"/>
+      <c r="U17" s="157"/>
+      <c r="V17" s="157"/>
+      <c r="W17" s="157"/>
+      <c r="X17" s="157"/>
+      <c r="Y17" s="157"/>
+      <c r="Z17" s="157"/>
+      <c r="AA17" s="157"/>
+      <c r="AB17" s="157"/>
+      <c r="AC17" s="157"/>
+      <c r="AD17" s="157"/>
+      <c r="AE17" s="158"/>
+      <c r="AF17" s="153"/>
+      <c r="AG17" s="154"/>
+      <c r="AH17" s="154"/>
+      <c r="AI17" s="155"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="118"/>
-      <c r="AE18" s="119"/>
-      <c r="AF18" s="114"/>
-      <c r="AG18" s="115"/>
-      <c r="AH18" s="115"/>
-      <c r="AI18" s="116"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="157"/>
+      <c r="S18" s="157"/>
+      <c r="T18" s="157"/>
+      <c r="U18" s="157"/>
+      <c r="V18" s="157"/>
+      <c r="W18" s="157"/>
+      <c r="X18" s="157"/>
+      <c r="Y18" s="157"/>
+      <c r="Z18" s="157"/>
+      <c r="AA18" s="157"/>
+      <c r="AB18" s="157"/>
+      <c r="AC18" s="157"/>
+      <c r="AD18" s="157"/>
+      <c r="AE18" s="158"/>
+      <c r="AF18" s="153"/>
+      <c r="AG18" s="154"/>
+      <c r="AH18" s="154"/>
+      <c r="AI18" s="155"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="118"/>
-      <c r="AD19" s="118"/>
-      <c r="AE19" s="119"/>
-      <c r="AF19" s="114"/>
-      <c r="AG19" s="115"/>
-      <c r="AH19" s="115"/>
-      <c r="AI19" s="116"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="157"/>
+      <c r="T19" s="157"/>
+      <c r="U19" s="157"/>
+      <c r="V19" s="157"/>
+      <c r="W19" s="157"/>
+      <c r="X19" s="157"/>
+      <c r="Y19" s="157"/>
+      <c r="Z19" s="157"/>
+      <c r="AA19" s="157"/>
+      <c r="AB19" s="157"/>
+      <c r="AC19" s="157"/>
+      <c r="AD19" s="157"/>
+      <c r="AE19" s="158"/>
+      <c r="AF19" s="153"/>
+      <c r="AG19" s="154"/>
+      <c r="AH19" s="154"/>
+      <c r="AI19" s="155"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="118"/>
-      <c r="AE20" s="119"/>
-      <c r="AF20" s="114"/>
-      <c r="AG20" s="115"/>
-      <c r="AH20" s="115"/>
-      <c r="AI20" s="116"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="155"/>
+      <c r="Q20" s="156"/>
+      <c r="R20" s="157"/>
+      <c r="S20" s="157"/>
+      <c r="T20" s="157"/>
+      <c r="U20" s="157"/>
+      <c r="V20" s="157"/>
+      <c r="W20" s="157"/>
+      <c r="X20" s="157"/>
+      <c r="Y20" s="157"/>
+      <c r="Z20" s="157"/>
+      <c r="AA20" s="157"/>
+      <c r="AB20" s="157"/>
+      <c r="AC20" s="157"/>
+      <c r="AD20" s="157"/>
+      <c r="AE20" s="158"/>
+      <c r="AF20" s="153"/>
+      <c r="AG20" s="154"/>
+      <c r="AH20" s="154"/>
+      <c r="AI20" s="155"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="118"/>
-      <c r="AE21" s="119"/>
-      <c r="AF21" s="114"/>
-      <c r="AG21" s="115"/>
-      <c r="AH21" s="115"/>
-      <c r="AI21" s="116"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="155"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="157"/>
+      <c r="S21" s="157"/>
+      <c r="T21" s="157"/>
+      <c r="U21" s="157"/>
+      <c r="V21" s="157"/>
+      <c r="W21" s="157"/>
+      <c r="X21" s="157"/>
+      <c r="Y21" s="157"/>
+      <c r="Z21" s="157"/>
+      <c r="AA21" s="157"/>
+      <c r="AB21" s="157"/>
+      <c r="AC21" s="157"/>
+      <c r="AD21" s="157"/>
+      <c r="AE21" s="158"/>
+      <c r="AF21" s="153"/>
+      <c r="AG21" s="154"/>
+      <c r="AH21" s="154"/>
+      <c r="AI21" s="155"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="118"/>
-      <c r="AD22" s="118"/>
-      <c r="AE22" s="119"/>
-      <c r="AF22" s="114"/>
-      <c r="AG22" s="115"/>
-      <c r="AH22" s="115"/>
-      <c r="AI22" s="116"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
+      <c r="V22" s="157"/>
+      <c r="W22" s="157"/>
+      <c r="X22" s="157"/>
+      <c r="Y22" s="157"/>
+      <c r="Z22" s="157"/>
+      <c r="AA22" s="157"/>
+      <c r="AB22" s="157"/>
+      <c r="AC22" s="157"/>
+      <c r="AD22" s="157"/>
+      <c r="AE22" s="158"/>
+      <c r="AF22" s="153"/>
+      <c r="AG22" s="154"/>
+      <c r="AH22" s="154"/>
+      <c r="AI22" s="155"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="115"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="118"/>
-      <c r="AD23" s="118"/>
-      <c r="AE23" s="119"/>
-      <c r="AF23" s="114"/>
-      <c r="AG23" s="115"/>
-      <c r="AH23" s="115"/>
-      <c r="AI23" s="116"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="155"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="157"/>
+      <c r="T23" s="157"/>
+      <c r="U23" s="157"/>
+      <c r="V23" s="157"/>
+      <c r="W23" s="157"/>
+      <c r="X23" s="157"/>
+      <c r="Y23" s="157"/>
+      <c r="Z23" s="157"/>
+      <c r="AA23" s="157"/>
+      <c r="AB23" s="157"/>
+      <c r="AC23" s="157"/>
+      <c r="AD23" s="157"/>
+      <c r="AE23" s="158"/>
+      <c r="AF23" s="153"/>
+      <c r="AG23" s="154"/>
+      <c r="AH23" s="154"/>
+      <c r="AI23" s="155"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="115"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" s="118"/>
-      <c r="AC24" s="118"/>
-      <c r="AD24" s="118"/>
-      <c r="AE24" s="119"/>
-      <c r="AF24" s="114"/>
-      <c r="AG24" s="115"/>
-      <c r="AH24" s="115"/>
-      <c r="AI24" s="116"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="155"/>
+      <c r="Q24" s="156"/>
+      <c r="R24" s="157"/>
+      <c r="S24" s="157"/>
+      <c r="T24" s="157"/>
+      <c r="U24" s="157"/>
+      <c r="V24" s="157"/>
+      <c r="W24" s="157"/>
+      <c r="X24" s="157"/>
+      <c r="Y24" s="157"/>
+      <c r="Z24" s="157"/>
+      <c r="AA24" s="157"/>
+      <c r="AB24" s="157"/>
+      <c r="AC24" s="157"/>
+      <c r="AD24" s="157"/>
+      <c r="AE24" s="158"/>
+      <c r="AF24" s="153"/>
+      <c r="AG24" s="154"/>
+      <c r="AH24" s="154"/>
+      <c r="AI24" s="155"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="118"/>
-      <c r="AD25" s="118"/>
-      <c r="AE25" s="119"/>
-      <c r="AF25" s="114"/>
-      <c r="AG25" s="115"/>
-      <c r="AH25" s="115"/>
-      <c r="AI25" s="116"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="154"/>
+      <c r="P25" s="155"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="157"/>
+      <c r="S25" s="157"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="157"/>
+      <c r="V25" s="157"/>
+      <c r="W25" s="157"/>
+      <c r="X25" s="157"/>
+      <c r="Y25" s="157"/>
+      <c r="Z25" s="157"/>
+      <c r="AA25" s="157"/>
+      <c r="AB25" s="157"/>
+      <c r="AC25" s="157"/>
+      <c r="AD25" s="157"/>
+      <c r="AE25" s="158"/>
+      <c r="AF25" s="153"/>
+      <c r="AG25" s="154"/>
+      <c r="AH25" s="154"/>
+      <c r="AI25" s="155"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="118"/>
-      <c r="AA26" s="118"/>
-      <c r="AB26" s="118"/>
-      <c r="AC26" s="118"/>
-      <c r="AD26" s="118"/>
-      <c r="AE26" s="119"/>
-      <c r="AF26" s="114"/>
-      <c r="AG26" s="115"/>
-      <c r="AH26" s="115"/>
-      <c r="AI26" s="116"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="157"/>
+      <c r="T26" s="157"/>
+      <c r="U26" s="157"/>
+      <c r="V26" s="157"/>
+      <c r="W26" s="157"/>
+      <c r="X26" s="157"/>
+      <c r="Y26" s="157"/>
+      <c r="Z26" s="157"/>
+      <c r="AA26" s="157"/>
+      <c r="AB26" s="157"/>
+      <c r="AC26" s="157"/>
+      <c r="AD26" s="157"/>
+      <c r="AE26" s="158"/>
+      <c r="AF26" s="153"/>
+      <c r="AG26" s="154"/>
+      <c r="AH26" s="154"/>
+      <c r="AI26" s="155"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="118"/>
-      <c r="Y27" s="118"/>
-      <c r="Z27" s="118"/>
-      <c r="AA27" s="118"/>
-      <c r="AB27" s="118"/>
-      <c r="AC27" s="118"/>
-      <c r="AD27" s="118"/>
-      <c r="AE27" s="119"/>
-      <c r="AF27" s="114"/>
-      <c r="AG27" s="115"/>
-      <c r="AH27" s="115"/>
-      <c r="AI27" s="116"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="155"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="157"/>
+      <c r="S27" s="157"/>
+      <c r="T27" s="157"/>
+      <c r="U27" s="157"/>
+      <c r="V27" s="157"/>
+      <c r="W27" s="157"/>
+      <c r="X27" s="157"/>
+      <c r="Y27" s="157"/>
+      <c r="Z27" s="157"/>
+      <c r="AA27" s="157"/>
+      <c r="AB27" s="157"/>
+      <c r="AC27" s="157"/>
+      <c r="AD27" s="157"/>
+      <c r="AE27" s="158"/>
+      <c r="AF27" s="153"/>
+      <c r="AG27" s="154"/>
+      <c r="AH27" s="154"/>
+      <c r="AI27" s="155"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="116"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="118"/>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="118"/>
-      <c r="AA28" s="118"/>
-      <c r="AB28" s="118"/>
-      <c r="AC28" s="118"/>
-      <c r="AD28" s="118"/>
-      <c r="AE28" s="119"/>
-      <c r="AF28" s="114"/>
-      <c r="AG28" s="115"/>
-      <c r="AH28" s="115"/>
-      <c r="AI28" s="116"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="154"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="157"/>
+      <c r="T28" s="157"/>
+      <c r="U28" s="157"/>
+      <c r="V28" s="157"/>
+      <c r="W28" s="157"/>
+      <c r="X28" s="157"/>
+      <c r="Y28" s="157"/>
+      <c r="Z28" s="157"/>
+      <c r="AA28" s="157"/>
+      <c r="AB28" s="157"/>
+      <c r="AC28" s="157"/>
+      <c r="AD28" s="157"/>
+      <c r="AE28" s="158"/>
+      <c r="AF28" s="153"/>
+      <c r="AG28" s="154"/>
+      <c r="AH28" s="154"/>
+      <c r="AI28" s="155"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="115"/>
-      <c r="O29" s="115"/>
-      <c r="P29" s="116"/>
-      <c r="Q29" s="117"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="118"/>
-      <c r="X29" s="118"/>
-      <c r="Y29" s="118"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="118"/>
-      <c r="AB29" s="118"/>
-      <c r="AC29" s="118"/>
-      <c r="AD29" s="118"/>
-      <c r="AE29" s="119"/>
-      <c r="AF29" s="114"/>
-      <c r="AG29" s="115"/>
-      <c r="AH29" s="115"/>
-      <c r="AI29" s="116"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="157"/>
+      <c r="S29" s="157"/>
+      <c r="T29" s="157"/>
+      <c r="U29" s="157"/>
+      <c r="V29" s="157"/>
+      <c r="W29" s="157"/>
+      <c r="X29" s="157"/>
+      <c r="Y29" s="157"/>
+      <c r="Z29" s="157"/>
+      <c r="AA29" s="157"/>
+      <c r="AB29" s="157"/>
+      <c r="AC29" s="157"/>
+      <c r="AD29" s="157"/>
+      <c r="AE29" s="158"/>
+      <c r="AF29" s="153"/>
+      <c r="AG29" s="154"/>
+      <c r="AH29" s="154"/>
+      <c r="AI29" s="155"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="20"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="118"/>
-      <c r="S30" s="118"/>
-      <c r="T30" s="118"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="118"/>
-      <c r="W30" s="118"/>
-      <c r="X30" s="118"/>
-      <c r="Y30" s="118"/>
-      <c r="Z30" s="118"/>
-      <c r="AA30" s="118"/>
-      <c r="AB30" s="118"/>
-      <c r="AC30" s="118"/>
-      <c r="AD30" s="118"/>
-      <c r="AE30" s="119"/>
-      <c r="AF30" s="114"/>
-      <c r="AG30" s="115"/>
-      <c r="AH30" s="115"/>
-      <c r="AI30" s="116"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="154"/>
+      <c r="P30" s="155"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="157"/>
+      <c r="T30" s="157"/>
+      <c r="U30" s="157"/>
+      <c r="V30" s="157"/>
+      <c r="W30" s="157"/>
+      <c r="X30" s="157"/>
+      <c r="Y30" s="157"/>
+      <c r="Z30" s="157"/>
+      <c r="AA30" s="157"/>
+      <c r="AB30" s="157"/>
+      <c r="AC30" s="157"/>
+      <c r="AD30" s="157"/>
+      <c r="AE30" s="158"/>
+      <c r="AF30" s="153"/>
+      <c r="AG30" s="154"/>
+      <c r="AH30" s="154"/>
+      <c r="AI30" s="155"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="115"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="116"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="118"/>
-      <c r="X31" s="118"/>
-      <c r="Y31" s="118"/>
-      <c r="Z31" s="118"/>
-      <c r="AA31" s="118"/>
-      <c r="AB31" s="118"/>
-      <c r="AC31" s="118"/>
-      <c r="AD31" s="118"/>
-      <c r="AE31" s="119"/>
-      <c r="AF31" s="114"/>
-      <c r="AG31" s="115"/>
-      <c r="AH31" s="115"/>
-      <c r="AI31" s="116"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
+      <c r="N31" s="154"/>
+      <c r="O31" s="154"/>
+      <c r="P31" s="155"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="157"/>
+      <c r="S31" s="157"/>
+      <c r="T31" s="157"/>
+      <c r="U31" s="157"/>
+      <c r="V31" s="157"/>
+      <c r="W31" s="157"/>
+      <c r="X31" s="157"/>
+      <c r="Y31" s="157"/>
+      <c r="Z31" s="157"/>
+      <c r="AA31" s="157"/>
+      <c r="AB31" s="157"/>
+      <c r="AC31" s="157"/>
+      <c r="AD31" s="157"/>
+      <c r="AE31" s="158"/>
+      <c r="AF31" s="153"/>
+      <c r="AG31" s="154"/>
+      <c r="AH31" s="154"/>
+      <c r="AI31" s="155"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
-      <c r="O32" s="115"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="117"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="118"/>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
-      <c r="Z32" s="118"/>
-      <c r="AA32" s="118"/>
-      <c r="AB32" s="118"/>
-      <c r="AC32" s="118"/>
-      <c r="AD32" s="118"/>
-      <c r="AE32" s="119"/>
-      <c r="AF32" s="114"/>
-      <c r="AG32" s="115"/>
-      <c r="AH32" s="115"/>
-      <c r="AI32" s="116"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="154"/>
+      <c r="P32" s="155"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="157"/>
+      <c r="S32" s="157"/>
+      <c r="T32" s="157"/>
+      <c r="U32" s="157"/>
+      <c r="V32" s="157"/>
+      <c r="W32" s="157"/>
+      <c r="X32" s="157"/>
+      <c r="Y32" s="157"/>
+      <c r="Z32" s="157"/>
+      <c r="AA32" s="157"/>
+      <c r="AB32" s="157"/>
+      <c r="AC32" s="157"/>
+      <c r="AD32" s="157"/>
+      <c r="AE32" s="158"/>
+      <c r="AF32" s="153"/>
+      <c r="AG32" s="154"/>
+      <c r="AH32" s="154"/>
+      <c r="AI32" s="155"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="20"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="117"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="118"/>
-      <c r="X33" s="118"/>
-      <c r="Y33" s="118"/>
-      <c r="Z33" s="118"/>
-      <c r="AA33" s="118"/>
-      <c r="AB33" s="118"/>
-      <c r="AC33" s="118"/>
-      <c r="AD33" s="118"/>
-      <c r="AE33" s="119"/>
-      <c r="AF33" s="114"/>
-      <c r="AG33" s="115"/>
-      <c r="AH33" s="115"/>
-      <c r="AI33" s="116"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="154"/>
+      <c r="P33" s="155"/>
+      <c r="Q33" s="156"/>
+      <c r="R33" s="157"/>
+      <c r="S33" s="157"/>
+      <c r="T33" s="157"/>
+      <c r="U33" s="157"/>
+      <c r="V33" s="157"/>
+      <c r="W33" s="157"/>
+      <c r="X33" s="157"/>
+      <c r="Y33" s="157"/>
+      <c r="Z33" s="157"/>
+      <c r="AA33" s="157"/>
+      <c r="AB33" s="157"/>
+      <c r="AC33" s="157"/>
+      <c r="AD33" s="157"/>
+      <c r="AE33" s="158"/>
+      <c r="AF33" s="153"/>
+      <c r="AG33" s="154"/>
+      <c r="AH33" s="154"/>
+      <c r="AI33" s="155"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -14938,162 +15786,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -15104,7 +15796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15250,163 +15942,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="145" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="153" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="174" t="str">
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="175" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="171" t="str">
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="177" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="176"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145" t="str">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="175" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB2" s="176"/>
-      <c r="AC2" s="171" t="str">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="177" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="177" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+        <v>44848</v>
+      </c>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="176"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145" t="str">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="171" t="str">
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="176"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -15416,7 +16108,7 @@
     </row>
     <row r="5" spans="1:38" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q5" s="59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC5" s="58"/>
     </row>
@@ -15427,7 +16119,7 @@
     <row r="7" spans="1:38" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="55"/>
       <c r="C7" s="57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
@@ -15456,7 +16148,7 @@
       <c r="B8" s="61"/>
       <c r="C8" s="57"/>
       <c r="D8" s="57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
@@ -15517,7 +16209,7 @@
     <row r="10" spans="1:38" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="61"/>
       <c r="C10" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="57"/>
@@ -15552,7 +16244,7 @@
       <c r="B11" s="61"/>
       <c r="C11" s="57"/>
       <c r="D11" s="69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="57"/>
@@ -15585,7 +16277,7 @@
       <c r="B12" s="61"/>
       <c r="C12" s="57"/>
       <c r="D12" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
@@ -15648,7 +16340,7 @@
     <row r="14" spans="1:38" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="61"/>
       <c r="C14" s="69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="69"/>
       <c r="E14" s="57"/>
@@ -16559,14 +17251,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -16576,6 +17260,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -16586,7 +17278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -16614,59 +17306,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="145" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="180" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="189" t="str">
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="142" t="s">
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="171" t="str">
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="176"/>
       <c r="AJ1" s="16"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="16"/>
@@ -16680,54 +17372,54 @@
       <c r="AW1" s="16"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145" t="str">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="142" t="s">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="171" t="str">
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="177" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+        <v>44848</v>
+      </c>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="176"/>
       <c r="AJ2" s="16"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="16"/>
@@ -16741,52 +17433,52 @@
       <c r="AW2" s="16"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145" t="str">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="196"/>
-      <c r="W3" s="196"/>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="171" t="str">
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="187"/>
+      <c r="U3" s="187"/>
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="176"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -16857,7 +17549,7 @@
     <row r="5" spans="1:50" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -16910,7 +17602,7 @@
     </row>
     <row r="6" spans="1:50" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -16924,7 +17616,7 @@
     </row>
     <row r="7" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D7" s="56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="14"/>
@@ -16995,6 +17687,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -17005,13 +17704,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -17024,7 +17716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -17052,59 +17744,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="145" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="180" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="189" t="str">
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="142" t="s">
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="171" t="str">
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="176"/>
       <c r="AJ1" s="16"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="16"/>
@@ -17118,54 +17810,54 @@
       <c r="AW1" s="16"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145" t="str">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="142" t="s">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="171" t="str">
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="177" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+        <v>44848</v>
+      </c>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="176"/>
       <c r="AJ2" s="16"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="16"/>
@@ -17179,52 +17871,52 @@
       <c r="AW2" s="16"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145" t="str">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="196"/>
-      <c r="W3" s="196"/>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="171" t="str">
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="187"/>
+      <c r="U3" s="187"/>
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="176"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -17295,7 +17987,7 @@
     <row r="5" spans="1:50" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -17348,7 +18040,7 @@
     </row>
     <row r="6" spans="1:50" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -17376,14 +18068,22 @@
     </row>
     <row r="70" spans="10:11" x14ac:dyDescent="0.15">
       <c r="J70" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K70" s="76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17393,14 +18093,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -17414,11 +18106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS71"/>
+  <dimension ref="A1:AS72"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -17447,59 +18139,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="145" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="180" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="189" t="str">
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="189" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="142" t="s">
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="171" t="str">
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="176"/>
       <c r="AJ1" s="16"/>
       <c r="AM1" s="16"/>
       <c r="AN1" s="16"/>
@@ -17507,54 +18199,54 @@
       <c r="AP1" s="16"/>
     </row>
     <row r="2" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145" t="str">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="142" t="s">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="171" t="str">
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="177" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+        <v>44848</v>
+      </c>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="176"/>
       <c r="AJ2" s="16"/>
       <c r="AM2" s="16"/>
       <c r="AN2" s="16"/>
@@ -17562,52 +18254,52 @@
       <c r="AP2" s="16"/>
     </row>
     <row r="3" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145" t="str">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="196"/>
-      <c r="W3" s="196"/>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="171" t="str">
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="187"/>
+      <c r="U3" s="187"/>
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="176"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -17663,18 +18355,18 @@
     </row>
     <row r="5" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B8" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="79"/>
@@ -17696,11 +18388,11 @@
       <c r="T8" s="79"/>
       <c r="U8" s="79"/>
       <c r="V8" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W8" s="79"/>
       <c r="X8" s="78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y8" s="79"/>
       <c r="Z8" s="79"/>
@@ -17713,15 +18405,15 @@
       <c r="AG8" s="79"/>
       <c r="AH8" s="80"/>
       <c r="AI8" s="81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ8" s="82"/>
       <c r="AK8" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL8" s="80"/>
       <c r="AM8" s="79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN8" s="79"/>
       <c r="AO8" s="79"/>
@@ -17729,7 +18421,7 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B9" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="79"/>
@@ -17775,7 +18467,7 @@
     <row r="10" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B10" s="83"/>
       <c r="C10" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
@@ -17821,7 +18513,7 @@
       <c r="B11" s="83"/>
       <c r="C11" s="83"/>
       <c r="D11" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="79"/>
       <c r="F11" s="79"/>
@@ -17864,7 +18556,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B12" s="88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="89"/>
       <c r="D12" s="89"/>
@@ -17911,7 +18603,7 @@
       <c r="B13" s="94"/>
       <c r="C13" s="95"/>
       <c r="D13" s="101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="96"/>
       <c r="F13" s="96"/>
@@ -17931,11 +18623,11 @@
       <c r="T13" s="96"/>
       <c r="U13" s="97"/>
       <c r="V13" s="102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W13" s="98"/>
       <c r="X13" s="102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y13" s="99"/>
       <c r="Z13" s="99"/>
@@ -17948,15 +18640,15 @@
       <c r="AG13" s="99"/>
       <c r="AH13" s="98"/>
       <c r="AI13" s="105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ13" s="98"/>
       <c r="AK13" s="102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL13" s="98"/>
       <c r="AM13" s="102" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN13" s="99"/>
       <c r="AO13" s="99"/>
@@ -17964,7 +18656,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B14" s="88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="89"/>
       <c r="D14" s="89"/>
@@ -18010,7 +18702,7 @@
     <row r="15" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B15" s="100"/>
       <c r="C15" s="88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="89"/>
       <c r="E15" s="89"/>
@@ -18056,7 +18748,7 @@
       <c r="B16" s="100"/>
       <c r="C16" s="100"/>
       <c r="D16" s="101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="96"/>
       <c r="F16" s="96"/>
@@ -18076,11 +18768,11 @@
       <c r="T16" s="96"/>
       <c r="U16" s="97"/>
       <c r="V16" s="102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W16" s="98"/>
       <c r="X16" s="102" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y16" s="99"/>
       <c r="Z16" s="99"/>
@@ -18093,15 +18785,15 @@
       <c r="AG16" s="99"/>
       <c r="AH16" s="98"/>
       <c r="AI16" s="105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ16" s="98"/>
       <c r="AK16" s="102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL16" s="98"/>
       <c r="AM16" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN16" s="99"/>
       <c r="AO16" s="99"/>
@@ -18111,7 +18803,7 @@
       <c r="B17" s="100"/>
       <c r="C17" s="100"/>
       <c r="D17" s="101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="96"/>
       <c r="F17" s="96"/>
@@ -18131,11 +18823,11 @@
       <c r="T17" s="96"/>
       <c r="U17" s="97"/>
       <c r="V17" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W17" s="98"/>
       <c r="X17" s="102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y17" s="99"/>
       <c r="Z17" s="99"/>
@@ -18148,15 +18840,15 @@
       <c r="AG17" s="99"/>
       <c r="AH17" s="98"/>
       <c r="AI17" s="105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ17" s="98"/>
       <c r="AK17" s="102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL17" s="98"/>
       <c r="AM17" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN17" s="99"/>
       <c r="AO17" s="99"/>
@@ -18166,7 +18858,7 @@
       <c r="B18" s="100"/>
       <c r="C18" s="100"/>
       <c r="D18" s="101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="96"/>
       <c r="F18" s="96"/>
@@ -18186,11 +18878,11 @@
       <c r="T18" s="96"/>
       <c r="U18" s="97"/>
       <c r="V18" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W18" s="98"/>
       <c r="X18" s="102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y18" s="99"/>
       <c r="Z18" s="99"/>
@@ -18203,15 +18895,15 @@
       <c r="AG18" s="99"/>
       <c r="AH18" s="98"/>
       <c r="AI18" s="105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ18" s="98"/>
       <c r="AK18" s="102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL18" s="98"/>
       <c r="AM18" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN18" s="99"/>
       <c r="AO18" s="99"/>
@@ -18221,7 +18913,7 @@
       <c r="B19" s="100"/>
       <c r="C19" s="100"/>
       <c r="D19" s="101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="96"/>
       <c r="F19" s="96"/>
@@ -18241,11 +18933,11 @@
       <c r="T19" s="96"/>
       <c r="U19" s="97"/>
       <c r="V19" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W19" s="98"/>
       <c r="X19" s="102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y19" s="99"/>
       <c r="Z19" s="99"/>
@@ -18258,15 +18950,15 @@
       <c r="AG19" s="99"/>
       <c r="AH19" s="98"/>
       <c r="AI19" s="105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ19" s="98"/>
       <c r="AK19" s="102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL19" s="98"/>
       <c r="AM19" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN19" s="99"/>
       <c r="AO19" s="99"/>
@@ -18276,7 +18968,7 @@
       <c r="B20" s="100"/>
       <c r="C20" s="94"/>
       <c r="D20" s="101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="96"/>
       <c r="F20" s="96"/>
@@ -18296,11 +18988,11 @@
       <c r="T20" s="96"/>
       <c r="U20" s="97"/>
       <c r="V20" s="102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W20" s="98"/>
       <c r="X20" s="102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y20" s="99"/>
       <c r="Z20" s="99"/>
@@ -18313,15 +19005,15 @@
       <c r="AG20" s="99"/>
       <c r="AH20" s="98"/>
       <c r="AI20" s="105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ20" s="98"/>
       <c r="AK20" s="102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL20" s="98"/>
       <c r="AM20" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN20" s="99"/>
       <c r="AO20" s="99"/>
@@ -18330,7 +19022,7 @@
     <row r="21" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B21" s="100"/>
       <c r="C21" s="88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="89"/>
       <c r="E21" s="89"/>
@@ -18376,7 +19068,7 @@
       <c r="B22" s="94"/>
       <c r="C22" s="94"/>
       <c r="D22" s="101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="96"/>
       <c r="F22" s="96"/>
@@ -18396,11 +19088,11 @@
       <c r="T22" s="96"/>
       <c r="U22" s="97"/>
       <c r="V22" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W22" s="98"/>
       <c r="X22" s="102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y22" s="99"/>
       <c r="Z22" s="99"/>
@@ -18413,15 +19105,15 @@
       <c r="AG22" s="99"/>
       <c r="AH22" s="98"/>
       <c r="AI22" s="105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ22" s="98"/>
       <c r="AK22" s="102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL22" s="98"/>
       <c r="AM22" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN22" s="99"/>
       <c r="AO22" s="99"/>
@@ -18429,7 +19121,7 @@
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B23" s="88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="89"/>
       <c r="D23" s="89"/>
@@ -18475,7 +19167,7 @@
     <row r="24" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B24" s="100"/>
       <c r="C24" s="88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="89"/>
       <c r="E24" s="89"/>
@@ -18521,7 +19213,7 @@
       <c r="B25" s="100"/>
       <c r="C25" s="100"/>
       <c r="D25" s="101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="96"/>
       <c r="F25" s="96"/>
@@ -18541,11 +19233,11 @@
       <c r="T25" s="96"/>
       <c r="U25" s="97"/>
       <c r="V25" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W25" s="98"/>
       <c r="X25" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y25" s="99"/>
       <c r="Z25" s="99"/>
@@ -18558,15 +19250,15 @@
       <c r="AG25" s="99"/>
       <c r="AH25" s="98"/>
       <c r="AI25" s="102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ25" s="98"/>
       <c r="AK25" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL25" s="98"/>
       <c r="AM25" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN25" s="99"/>
       <c r="AO25" s="99"/>
@@ -18576,7 +19268,7 @@
       <c r="B26" s="100"/>
       <c r="C26" s="94"/>
       <c r="D26" s="101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="96"/>
       <c r="F26" s="96"/>
@@ -18596,11 +19288,11 @@
       <c r="T26" s="96"/>
       <c r="U26" s="97"/>
       <c r="V26" s="102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W26" s="98"/>
       <c r="X26" s="102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y26" s="99"/>
       <c r="Z26" s="99"/>
@@ -18613,15 +19305,15 @@
       <c r="AG26" s="99"/>
       <c r="AH26" s="98"/>
       <c r="AI26" s="102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ26" s="98"/>
       <c r="AK26" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL26" s="98"/>
       <c r="AM26" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN26" s="99"/>
       <c r="AO26" s="99"/>
@@ -18630,7 +19322,7 @@
     <row r="27" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B27" s="100"/>
       <c r="C27" s="88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="89"/>
       <c r="E27" s="89"/>
@@ -18676,7 +19368,7 @@
       <c r="B28" s="100"/>
       <c r="C28" s="100"/>
       <c r="D28" s="101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="96"/>
       <c r="F28" s="96"/>
@@ -18696,11 +19388,11 @@
       <c r="T28" s="96"/>
       <c r="U28" s="97"/>
       <c r="V28" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W28" s="98"/>
       <c r="X28" s="102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y28" s="99"/>
       <c r="Z28" s="99"/>
@@ -18713,15 +19405,15 @@
       <c r="AG28" s="99"/>
       <c r="AH28" s="98"/>
       <c r="AI28" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ28" s="98"/>
       <c r="AK28" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL28" s="98"/>
       <c r="AM28" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN28" s="99"/>
       <c r="AO28" s="99"/>
@@ -18731,7 +19423,7 @@
       <c r="B29" s="100"/>
       <c r="C29" s="100"/>
       <c r="D29" s="101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" s="96"/>
       <c r="F29" s="96"/>
@@ -18751,11 +19443,11 @@
       <c r="T29" s="96"/>
       <c r="U29" s="97"/>
       <c r="V29" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W29" s="98"/>
       <c r="X29" s="102" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y29" s="99"/>
       <c r="Z29" s="99"/>
@@ -18768,15 +19460,15 @@
       <c r="AG29" s="99"/>
       <c r="AH29" s="98"/>
       <c r="AI29" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ29" s="98"/>
       <c r="AK29" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL29" s="98"/>
       <c r="AM29" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN29" s="99"/>
       <c r="AO29" s="99"/>
@@ -18786,7 +19478,7 @@
       <c r="B30" s="100"/>
       <c r="C30" s="100"/>
       <c r="D30" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E30" s="96"/>
       <c r="F30" s="96"/>
@@ -18806,11 +19498,11 @@
       <c r="T30" s="96"/>
       <c r="U30" s="97"/>
       <c r="V30" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W30" s="98"/>
       <c r="X30" s="102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y30" s="99"/>
       <c r="Z30" s="99"/>
@@ -18823,15 +19515,15 @@
       <c r="AG30" s="99"/>
       <c r="AH30" s="98"/>
       <c r="AI30" s="102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ30" s="98"/>
       <c r="AK30" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL30" s="98"/>
       <c r="AM30" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN30" s="99"/>
       <c r="AO30" s="99"/>
@@ -18841,7 +19533,7 @@
       <c r="B31" s="100"/>
       <c r="C31" s="100"/>
       <c r="D31" s="101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" s="96"/>
       <c r="F31" s="96"/>
@@ -18861,11 +19553,11 @@
       <c r="T31" s="96"/>
       <c r="U31" s="97"/>
       <c r="V31" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W31" s="98"/>
       <c r="X31" s="102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y31" s="99"/>
       <c r="Z31" s="99"/>
@@ -18878,15 +19570,15 @@
       <c r="AG31" s="99"/>
       <c r="AH31" s="98"/>
       <c r="AI31" s="102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ31" s="98"/>
       <c r="AK31" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL31" s="98"/>
       <c r="AM31" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN31" s="99"/>
       <c r="AO31" s="99"/>
@@ -18896,7 +19588,7 @@
       <c r="B32" s="100"/>
       <c r="C32" s="100"/>
       <c r="D32" s="101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="96"/>
       <c r="F32" s="96"/>
@@ -18916,11 +19608,11 @@
       <c r="T32" s="96"/>
       <c r="U32" s="97"/>
       <c r="V32" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W32" s="98"/>
       <c r="X32" s="102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y32" s="99"/>
       <c r="Z32" s="99"/>
@@ -18933,15 +19625,15 @@
       <c r="AG32" s="99"/>
       <c r="AH32" s="98"/>
       <c r="AI32" s="102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ32" s="98"/>
       <c r="AK32" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL32" s="98"/>
       <c r="AM32" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN32" s="99"/>
       <c r="AO32" s="99"/>
@@ -18951,7 +19643,7 @@
       <c r="B33" s="100"/>
       <c r="C33" s="100"/>
       <c r="D33" s="101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="96"/>
       <c r="F33" s="96"/>
@@ -18971,11 +19663,11 @@
       <c r="T33" s="96"/>
       <c r="U33" s="97"/>
       <c r="V33" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W33" s="98"/>
       <c r="X33" s="102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y33" s="99"/>
       <c r="Z33" s="99"/>
@@ -18988,15 +19680,15 @@
       <c r="AG33" s="99"/>
       <c r="AH33" s="98"/>
       <c r="AI33" s="102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ33" s="98"/>
       <c r="AK33" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL33" s="98"/>
       <c r="AM33" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN33" s="99"/>
       <c r="AO33" s="99"/>
@@ -19006,7 +19698,7 @@
       <c r="B34" s="100"/>
       <c r="C34" s="94"/>
       <c r="D34" s="101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="96"/>
       <c r="F34" s="96"/>
@@ -19026,11 +19718,11 @@
       <c r="T34" s="96"/>
       <c r="U34" s="97"/>
       <c r="V34" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W34" s="98"/>
       <c r="X34" s="102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y34" s="99"/>
       <c r="Z34" s="99"/>
@@ -19043,15 +19735,15 @@
       <c r="AG34" s="99"/>
       <c r="AH34" s="98"/>
       <c r="AI34" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ34" s="98"/>
       <c r="AK34" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL34" s="98"/>
       <c r="AM34" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN34" s="99"/>
       <c r="AO34" s="99"/>
@@ -19060,7 +19752,7 @@
     <row r="35" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B35" s="100"/>
       <c r="C35" s="88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="89"/>
       <c r="E35" s="89"/>
@@ -19106,7 +19798,7 @@
       <c r="B36" s="100"/>
       <c r="C36" s="100"/>
       <c r="D36" s="101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E36" s="96"/>
       <c r="F36" s="96"/>
@@ -19126,11 +19818,11 @@
       <c r="T36" s="96"/>
       <c r="U36" s="97"/>
       <c r="V36" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W36" s="98"/>
       <c r="X36" s="102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y36" s="99"/>
       <c r="Z36" s="99"/>
@@ -19143,15 +19835,15 @@
       <c r="AG36" s="99"/>
       <c r="AH36" s="98"/>
       <c r="AI36" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ36" s="98"/>
       <c r="AK36" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL36" s="98"/>
       <c r="AM36" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN36" s="99"/>
       <c r="AO36" s="99"/>
@@ -19161,7 +19853,7 @@
       <c r="B37" s="100"/>
       <c r="C37" s="94"/>
       <c r="D37" s="101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="96"/>
       <c r="F37" s="96"/>
@@ -19181,11 +19873,11 @@
       <c r="T37" s="96"/>
       <c r="U37" s="97"/>
       <c r="V37" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W37" s="98"/>
       <c r="X37" s="102" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y37" s="99"/>
       <c r="Z37" s="99"/>
@@ -19198,15 +19890,15 @@
       <c r="AG37" s="99"/>
       <c r="AH37" s="98"/>
       <c r="AI37" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ37" s="98"/>
       <c r="AK37" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL37" s="98"/>
       <c r="AM37" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN37" s="99"/>
       <c r="AO37" s="99"/>
@@ -19215,7 +19907,7 @@
     <row r="38" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B38" s="100"/>
       <c r="C38" s="88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" s="89"/>
       <c r="E38" s="89"/>
@@ -19261,7 +19953,7 @@
       <c r="B39" s="100"/>
       <c r="C39" s="100"/>
       <c r="D39" s="101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="96"/>
       <c r="F39" s="96"/>
@@ -19281,11 +19973,11 @@
       <c r="T39" s="96"/>
       <c r="U39" s="97"/>
       <c r="V39" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W39" s="98"/>
       <c r="X39" s="102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y39" s="99"/>
       <c r="Z39" s="99"/>
@@ -19298,15 +19990,15 @@
       <c r="AG39" s="99"/>
       <c r="AH39" s="98"/>
       <c r="AI39" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ39" s="98"/>
       <c r="AK39" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL39" s="98"/>
       <c r="AM39" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN39" s="99"/>
       <c r="AO39" s="99"/>
@@ -19316,7 +20008,7 @@
       <c r="B40" s="100"/>
       <c r="C40" s="100"/>
       <c r="D40" s="101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" s="96"/>
       <c r="F40" s="96"/>
@@ -19336,11 +20028,11 @@
       <c r="T40" s="96"/>
       <c r="U40" s="97"/>
       <c r="V40" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W40" s="98"/>
       <c r="X40" s="102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y40" s="99"/>
       <c r="Z40" s="99"/>
@@ -19353,15 +20045,15 @@
       <c r="AG40" s="99"/>
       <c r="AH40" s="98"/>
       <c r="AI40" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ40" s="98"/>
       <c r="AK40" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL40" s="98"/>
       <c r="AM40" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN40" s="99"/>
       <c r="AO40" s="99"/>
@@ -19371,7 +20063,7 @@
       <c r="B41" s="100"/>
       <c r="C41" s="100"/>
       <c r="D41" s="101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" s="96"/>
       <c r="F41" s="96"/>
@@ -19391,11 +20083,11 @@
       <c r="T41" s="96"/>
       <c r="U41" s="97"/>
       <c r="V41" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W41" s="98"/>
       <c r="X41" s="102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y41" s="99"/>
       <c r="Z41" s="99"/>
@@ -19408,15 +20100,15 @@
       <c r="AG41" s="99"/>
       <c r="AH41" s="98"/>
       <c r="AI41" s="102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ41" s="98"/>
       <c r="AK41" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL41" s="98"/>
       <c r="AM41" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN41" s="99"/>
       <c r="AO41" s="99"/>
@@ -19426,7 +20118,7 @@
       <c r="B42" s="100"/>
       <c r="C42" s="100"/>
       <c r="D42" s="101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E42" s="96"/>
       <c r="F42" s="96"/>
@@ -19446,11 +20138,11 @@
       <c r="T42" s="96"/>
       <c r="U42" s="97"/>
       <c r="V42" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W42" s="98"/>
       <c r="X42" s="102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y42" s="99"/>
       <c r="Z42" s="99"/>
@@ -19463,15 +20155,15 @@
       <c r="AG42" s="99"/>
       <c r="AH42" s="98"/>
       <c r="AI42" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ42" s="98"/>
       <c r="AK42" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL42" s="98"/>
       <c r="AM42" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN42" s="99"/>
       <c r="AO42" s="99"/>
@@ -19481,7 +20173,7 @@
       <c r="B43" s="100"/>
       <c r="C43" s="100"/>
       <c r="D43" s="101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" s="96"/>
       <c r="F43" s="96"/>
@@ -19501,11 +20193,11 @@
       <c r="T43" s="96"/>
       <c r="U43" s="97"/>
       <c r="V43" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W43" s="98"/>
       <c r="X43" s="102" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y43" s="99"/>
       <c r="Z43" s="99"/>
@@ -19518,15 +20210,15 @@
       <c r="AG43" s="99"/>
       <c r="AH43" s="98"/>
       <c r="AI43" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ43" s="98"/>
       <c r="AK43" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL43" s="98"/>
       <c r="AM43" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN43" s="99"/>
       <c r="AO43" s="99"/>
@@ -19536,7 +20228,7 @@
       <c r="B44" s="100"/>
       <c r="C44" s="100"/>
       <c r="D44" s="101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" s="96"/>
       <c r="F44" s="96"/>
@@ -19556,11 +20248,11 @@
       <c r="T44" s="96"/>
       <c r="U44" s="97"/>
       <c r="V44" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W44" s="98"/>
       <c r="X44" s="102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y44" s="99"/>
       <c r="Z44" s="99"/>
@@ -19573,15 +20265,15 @@
       <c r="AG44" s="99"/>
       <c r="AH44" s="98"/>
       <c r="AI44" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ44" s="98"/>
       <c r="AK44" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL44" s="98"/>
       <c r="AM44" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN44" s="99"/>
       <c r="AO44" s="99"/>
@@ -19591,7 +20283,7 @@
       <c r="B45" s="100"/>
       <c r="C45" s="94"/>
       <c r="D45" s="101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="96"/>
       <c r="F45" s="96"/>
@@ -19611,11 +20303,11 @@
       <c r="T45" s="96"/>
       <c r="U45" s="97"/>
       <c r="V45" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W45" s="98"/>
       <c r="X45" s="102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y45" s="99"/>
       <c r="Z45" s="99"/>
@@ -19628,15 +20320,15 @@
       <c r="AG45" s="99"/>
       <c r="AH45" s="98"/>
       <c r="AI45" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ45" s="98"/>
       <c r="AK45" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL45" s="98"/>
       <c r="AM45" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN45" s="99"/>
       <c r="AO45" s="99"/>
@@ -19645,7 +20337,7 @@
     <row r="46" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B46" s="100"/>
       <c r="C46" s="88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="89"/>
       <c r="E46" s="89"/>
@@ -19691,7 +20383,7 @@
       <c r="B47" s="100"/>
       <c r="C47" s="100"/>
       <c r="D47" s="101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" s="96"/>
       <c r="F47" s="96"/>
@@ -19711,11 +20403,11 @@
       <c r="T47" s="96"/>
       <c r="U47" s="97"/>
       <c r="V47" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W47" s="98"/>
       <c r="X47" s="102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y47" s="99"/>
       <c r="Z47" s="99"/>
@@ -19728,15 +20420,15 @@
       <c r="AG47" s="99"/>
       <c r="AH47" s="98"/>
       <c r="AI47" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ47" s="98"/>
       <c r="AK47" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL47" s="98"/>
       <c r="AM47" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN47" s="99"/>
       <c r="AO47" s="99"/>
@@ -19746,7 +20438,7 @@
       <c r="B48" s="100"/>
       <c r="C48" s="94"/>
       <c r="D48" s="101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" s="96"/>
       <c r="F48" s="96"/>
@@ -19766,11 +20458,11 @@
       <c r="T48" s="96"/>
       <c r="U48" s="97"/>
       <c r="V48" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W48" s="98"/>
       <c r="X48" s="102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y48" s="99"/>
       <c r="Z48" s="99"/>
@@ -19783,15 +20475,15 @@
       <c r="AG48" s="99"/>
       <c r="AH48" s="98"/>
       <c r="AI48" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ48" s="98"/>
       <c r="AK48" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL48" s="98"/>
       <c r="AM48" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN48" s="99"/>
       <c r="AO48" s="99"/>
@@ -19800,7 +20492,7 @@
     <row r="49" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B49" s="100"/>
       <c r="C49" s="88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
@@ -19846,7 +20538,7 @@
       <c r="B50" s="100"/>
       <c r="C50" s="100"/>
       <c r="D50" s="101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50" s="96"/>
       <c r="F50" s="96"/>
@@ -19866,11 +20558,11 @@
       <c r="T50" s="96"/>
       <c r="U50" s="97"/>
       <c r="V50" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W50" s="98"/>
       <c r="X50" s="102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y50" s="99"/>
       <c r="Z50" s="99"/>
@@ -19883,15 +20575,15 @@
       <c r="AG50" s="99"/>
       <c r="AH50" s="98"/>
       <c r="AI50" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ50" s="98"/>
       <c r="AK50" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL50" s="98"/>
       <c r="AM50" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN50" s="99"/>
       <c r="AO50" s="99"/>
@@ -19901,7 +20593,7 @@
       <c r="B51" s="100"/>
       <c r="C51" s="94"/>
       <c r="D51" s="101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51" s="96"/>
       <c r="F51" s="96"/>
@@ -19921,11 +20613,11 @@
       <c r="T51" s="96"/>
       <c r="U51" s="97"/>
       <c r="V51" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W51" s="98"/>
       <c r="X51" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y51" s="99"/>
       <c r="Z51" s="99"/>
@@ -19938,15 +20630,15 @@
       <c r="AG51" s="99"/>
       <c r="AH51" s="98"/>
       <c r="AI51" s="102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ51" s="98"/>
       <c r="AK51" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL51" s="98"/>
       <c r="AM51" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN51" s="99"/>
       <c r="AO51" s="99"/>
@@ -19955,7 +20647,7 @@
     <row r="52" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B52" s="100"/>
       <c r="C52" s="88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52" s="89"/>
       <c r="E52" s="89"/>
@@ -20001,7 +20693,7 @@
       <c r="B53" s="100"/>
       <c r="C53" s="100"/>
       <c r="D53" s="101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E53" s="96"/>
       <c r="F53" s="96"/>
@@ -20021,11 +20713,11 @@
       <c r="T53" s="96"/>
       <c r="U53" s="97"/>
       <c r="V53" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W53" s="98"/>
       <c r="X53" s="102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y53" s="99"/>
       <c r="Z53" s="99"/>
@@ -20038,15 +20730,15 @@
       <c r="AG53" s="99"/>
       <c r="AH53" s="98"/>
       <c r="AI53" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ53" s="98"/>
       <c r="AK53" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL53" s="98"/>
       <c r="AM53" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN53" s="99"/>
       <c r="AO53" s="99"/>
@@ -20056,7 +20748,7 @@
       <c r="B54" s="100"/>
       <c r="C54" s="94"/>
       <c r="D54" s="101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E54" s="96"/>
       <c r="F54" s="96"/>
@@ -20076,11 +20768,11 @@
       <c r="T54" s="96"/>
       <c r="U54" s="97"/>
       <c r="V54" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W54" s="98"/>
       <c r="X54" s="102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y54" s="99"/>
       <c r="Z54" s="99"/>
@@ -20093,15 +20785,15 @@
       <c r="AG54" s="99"/>
       <c r="AH54" s="98"/>
       <c r="AI54" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ54" s="98"/>
       <c r="AK54" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL54" s="98"/>
       <c r="AM54" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN54" s="99"/>
       <c r="AO54" s="99"/>
@@ -20111,7 +20803,7 @@
       <c r="A55" s="7"/>
       <c r="B55" s="100"/>
       <c r="C55" s="88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D55" s="89"/>
       <c r="E55" s="89"/>
@@ -20160,7 +20852,7 @@
       <c r="B56" s="100"/>
       <c r="C56" s="94"/>
       <c r="D56" s="101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E56" s="96"/>
       <c r="F56" s="96"/>
@@ -20180,11 +20872,11 @@
       <c r="T56" s="96"/>
       <c r="U56" s="97"/>
       <c r="V56" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W56" s="98"/>
       <c r="X56" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y56" s="99"/>
       <c r="Z56" s="99"/>
@@ -20197,15 +20889,15 @@
       <c r="AG56" s="99"/>
       <c r="AH56" s="98"/>
       <c r="AI56" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ56" s="98"/>
       <c r="AK56" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL56" s="98"/>
       <c r="AM56" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN56" s="99"/>
       <c r="AO56" s="99"/>
@@ -20214,7 +20906,7 @@
     <row r="57" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B57" s="100"/>
       <c r="C57" s="88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="89"/>
       <c r="E57" s="89"/>
@@ -20260,7 +20952,7 @@
       <c r="B58" s="100"/>
       <c r="C58" s="94"/>
       <c r="D58" s="101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E58" s="96"/>
       <c r="F58" s="96"/>
@@ -20280,11 +20972,11 @@
       <c r="T58" s="96"/>
       <c r="U58" s="97"/>
       <c r="V58" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W58" s="98"/>
       <c r="X58" s="102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y58" s="99"/>
       <c r="Z58" s="99"/>
@@ -20297,15 +20989,15 @@
       <c r="AG58" s="99"/>
       <c r="AH58" s="98"/>
       <c r="AI58" s="102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ58" s="98"/>
       <c r="AK58" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL58" s="98"/>
       <c r="AM58" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN58" s="99"/>
       <c r="AO58" s="99"/>
@@ -20314,7 +21006,7 @@
     <row r="59" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B59" s="103"/>
       <c r="C59" s="88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" s="89"/>
       <c r="E59" s="89"/>
@@ -20360,7 +21052,7 @@
       <c r="B60" s="103"/>
       <c r="C60" s="100"/>
       <c r="D60" s="101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E60" s="96"/>
       <c r="F60" s="96"/>
@@ -20380,11 +21072,11 @@
       <c r="T60" s="96"/>
       <c r="U60" s="97"/>
       <c r="V60" s="102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W60" s="99"/>
       <c r="X60" s="102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y60" s="99"/>
       <c r="Z60" s="99"/>
@@ -20397,15 +21089,15 @@
       <c r="AG60" s="99"/>
       <c r="AH60" s="98"/>
       <c r="AI60" s="102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ60" s="98"/>
       <c r="AK60" s="102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL60" s="98"/>
       <c r="AM60" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN60" s="99"/>
       <c r="AO60" s="99"/>
@@ -20415,7 +21107,7 @@
       <c r="B61" s="103"/>
       <c r="C61" s="100"/>
       <c r="D61" s="101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E61" s="96"/>
       <c r="F61" s="96"/>
@@ -20435,11 +21127,11 @@
       <c r="T61" s="96"/>
       <c r="U61" s="97"/>
       <c r="V61" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W61" s="99"/>
       <c r="X61" s="102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y61" s="99"/>
       <c r="Z61" s="99"/>
@@ -20452,15 +21144,15 @@
       <c r="AG61" s="99"/>
       <c r="AH61" s="98"/>
       <c r="AI61" s="102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ61" s="98"/>
       <c r="AK61" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL61" s="98"/>
       <c r="AM61" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN61" s="99"/>
       <c r="AO61" s="99"/>
@@ -20470,7 +21162,7 @@
       <c r="B62" s="103"/>
       <c r="C62" s="100"/>
       <c r="D62" s="101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E62" s="96"/>
       <c r="F62" s="96"/>
@@ -20490,11 +21182,11 @@
       <c r="T62" s="96"/>
       <c r="U62" s="97"/>
       <c r="V62" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W62" s="99"/>
       <c r="X62" s="102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y62" s="99"/>
       <c r="Z62" s="99"/>
@@ -20507,15 +21199,15 @@
       <c r="AG62" s="99"/>
       <c r="AH62" s="98"/>
       <c r="AI62" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ62" s="98"/>
       <c r="AK62" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL62" s="98"/>
       <c r="AM62" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN62" s="99"/>
       <c r="AO62" s="99"/>
@@ -20525,7 +21217,7 @@
       <c r="B63" s="103"/>
       <c r="C63" s="100"/>
       <c r="D63" s="101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E63" s="96"/>
       <c r="F63" s="96"/>
@@ -20545,11 +21237,11 @@
       <c r="T63" s="96"/>
       <c r="U63" s="97"/>
       <c r="V63" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W63" s="99"/>
       <c r="X63" s="102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y63" s="99"/>
       <c r="Z63" s="99"/>
@@ -20562,15 +21254,15 @@
       <c r="AG63" s="99"/>
       <c r="AH63" s="98"/>
       <c r="AI63" s="102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ63" s="98"/>
       <c r="AK63" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL63" s="98"/>
       <c r="AM63" s="102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN63" s="99"/>
       <c r="AO63" s="99"/>
@@ -20580,7 +21272,7 @@
       <c r="B64" s="103"/>
       <c r="C64" s="94"/>
       <c r="D64" s="101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E64" s="96"/>
       <c r="F64" s="96"/>
@@ -20600,11 +21292,11 @@
       <c r="T64" s="96"/>
       <c r="U64" s="97"/>
       <c r="V64" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W64" s="99"/>
       <c r="X64" s="102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y64" s="99"/>
       <c r="Z64" s="99"/>
@@ -20617,15 +21309,15 @@
       <c r="AG64" s="99"/>
       <c r="AH64" s="98"/>
       <c r="AI64" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ64" s="98"/>
       <c r="AK64" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL64" s="98"/>
       <c r="AM64" s="102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN64" s="99"/>
       <c r="AO64" s="99"/>
@@ -20634,7 +21326,7 @@
     <row r="65" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B65" s="103"/>
       <c r="C65" s="88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D65" s="89"/>
       <c r="E65" s="89"/>
@@ -20680,7 +21372,7 @@
       <c r="B66" s="103"/>
       <c r="C66" s="94"/>
       <c r="D66" s="101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E66" s="96"/>
       <c r="F66" s="96"/>
@@ -20700,11 +21392,11 @@
       <c r="T66" s="96"/>
       <c r="U66" s="97"/>
       <c r="V66" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W66" s="99"/>
       <c r="X66" s="102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y66" s="99"/>
       <c r="Z66" s="99"/>
@@ -20717,15 +21409,15 @@
       <c r="AG66" s="99"/>
       <c r="AH66" s="98"/>
       <c r="AI66" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ66" s="98"/>
       <c r="AK66" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL66" s="98"/>
       <c r="AM66" s="102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN66" s="99"/>
       <c r="AO66" s="99"/>
@@ -20734,7 +21426,7 @@
     <row r="67" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B67" s="103"/>
       <c r="C67" s="88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D67" s="89"/>
       <c r="E67" s="89"/>
@@ -20779,8 +21471,8 @@
     <row r="68" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B68" s="103"/>
       <c r="C68" s="100"/>
-      <c r="D68" s="101" t="s">
-        <v>173</v>
+      <c r="D68" s="198" t="s">
+        <v>202</v>
       </c>
       <c r="E68" s="96"/>
       <c r="F68" s="96"/>
@@ -20800,11 +21492,11 @@
       <c r="T68" s="96"/>
       <c r="U68" s="97"/>
       <c r="V68" s="102" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="W68" s="99"/>
-      <c r="X68" s="102" t="s">
-        <v>174</v>
+      <c r="X68" s="199" t="s">
+        <v>203</v>
       </c>
       <c r="Y68" s="99"/>
       <c r="Z68" s="99"/>
@@ -20817,15 +21509,15 @@
       <c r="AG68" s="99"/>
       <c r="AH68" s="98"/>
       <c r="AI68" s="102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ68" s="98"/>
       <c r="AK68" s="102" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="AL68" s="98"/>
       <c r="AM68" s="102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN68" s="99"/>
       <c r="AO68" s="99"/>
@@ -20835,7 +21527,7 @@
       <c r="B69" s="103"/>
       <c r="C69" s="100"/>
       <c r="D69" s="101" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E69" s="96"/>
       <c r="F69" s="96"/>
@@ -20855,11 +21547,11 @@
       <c r="T69" s="96"/>
       <c r="U69" s="97"/>
       <c r="V69" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W69" s="99"/>
       <c r="X69" s="102" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Y69" s="99"/>
       <c r="Z69" s="99"/>
@@ -20872,15 +21564,15 @@
       <c r="AG69" s="99"/>
       <c r="AH69" s="98"/>
       <c r="AI69" s="102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ69" s="98"/>
       <c r="AK69" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL69" s="98"/>
       <c r="AM69" s="102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN69" s="99"/>
       <c r="AO69" s="99"/>
@@ -20890,7 +21582,7 @@
       <c r="B70" s="103"/>
       <c r="C70" s="100"/>
       <c r="D70" s="101" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E70" s="96"/>
       <c r="F70" s="96"/>
@@ -20910,11 +21602,11 @@
       <c r="T70" s="96"/>
       <c r="U70" s="97"/>
       <c r="V70" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W70" s="99"/>
       <c r="X70" s="102" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Y70" s="99"/>
       <c r="Z70" s="99"/>
@@ -20927,25 +21619,25 @@
       <c r="AG70" s="99"/>
       <c r="AH70" s="98"/>
       <c r="AI70" s="102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ70" s="98"/>
       <c r="AK70" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL70" s="98"/>
       <c r="AM70" s="102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN70" s="99"/>
       <c r="AO70" s="99"/>
       <c r="AP70" s="98"/>
     </row>
     <row r="71" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B71" s="104"/>
-      <c r="C71" s="94"/>
+      <c r="B71" s="103"/>
+      <c r="C71" s="100"/>
       <c r="D71" s="101" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E71" s="96"/>
       <c r="F71" s="96"/>
@@ -20965,11 +21657,11 @@
       <c r="T71" s="96"/>
       <c r="U71" s="97"/>
       <c r="V71" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W71" s="99"/>
       <c r="X71" s="102" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y71" s="99"/>
       <c r="Z71" s="99"/>
@@ -20982,30 +21674,77 @@
       <c r="AG71" s="99"/>
       <c r="AH71" s="98"/>
       <c r="AI71" s="102" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="AJ71" s="98"/>
       <c r="AK71" s="102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL71" s="98"/>
       <c r="AM71" s="102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN71" s="99"/>
       <c r="AO71" s="99"/>
       <c r="AP71" s="98"/>
     </row>
+    <row r="72" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B72" s="104"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="96"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="96"/>
+      <c r="H72" s="96"/>
+      <c r="I72" s="96"/>
+      <c r="J72" s="96"/>
+      <c r="K72" s="96"/>
+      <c r="L72" s="96"/>
+      <c r="M72" s="96"/>
+      <c r="N72" s="96"/>
+      <c r="O72" s="96"/>
+      <c r="P72" s="96"/>
+      <c r="Q72" s="96"/>
+      <c r="R72" s="96"/>
+      <c r="S72" s="96"/>
+      <c r="T72" s="96"/>
+      <c r="U72" s="97"/>
+      <c r="V72" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="W72" s="99"/>
+      <c r="X72" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y72" s="99"/>
+      <c r="Z72" s="99"/>
+      <c r="AA72" s="99"/>
+      <c r="AB72" s="99"/>
+      <c r="AC72" s="99"/>
+      <c r="AD72" s="99"/>
+      <c r="AE72" s="99"/>
+      <c r="AF72" s="99"/>
+      <c r="AG72" s="99"/>
+      <c r="AH72" s="98"/>
+      <c r="AI72" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ72" s="98"/>
+      <c r="AK72" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL72" s="98"/>
+      <c r="AM72" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN72" s="99"/>
+      <c r="AO72" s="99"/>
+      <c r="AP72" s="98"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -21015,6 +21754,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -21030,7 +21777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -21058,59 +21805,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="145" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="180" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="189" t="str">
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="142" t="s">
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="171" t="str">
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="176"/>
       <c r="AJ1" s="16"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="16"/>
@@ -21124,54 +21871,54 @@
       <c r="AW1" s="16"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145" t="str">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="142" t="s">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="171" t="str">
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="177" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="174">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+        <v>44848</v>
+      </c>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="176"/>
       <c r="AJ2" s="16"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="16"/>
@@ -21185,52 +21932,52 @@
       <c r="AW2" s="16"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145" t="str">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="196"/>
-      <c r="W3" s="196"/>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="171" t="str">
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="187"/>
+      <c r="U3" s="187"/>
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="176"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -21301,7 +22048,7 @@
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -21354,17 +22101,17 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.15">
       <c r="C7" s="76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.15">
       <c r="C9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -21374,10 +22121,10 @@
     <row r="10" spans="1:50" x14ac:dyDescent="0.15">
       <c r="C10" s="7"/>
       <c r="D10" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="G10" s="7"/>
       <c r="L10" s="7"/>
@@ -21393,7 +22140,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G12" s="7"/>
       <c r="L12" s="7"/>
@@ -21402,7 +22149,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7"/>
       <c r="L13" s="7"/>
@@ -21529,10 +22276,10 @@
     <row r="31" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C31" s="7"/>
       <c r="D31" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="G31" s="7"/>
       <c r="L31" s="7"/>
@@ -21548,7 +22295,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G33" s="7"/>
       <c r="L33" s="7"/>
@@ -21557,7 +22304,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G34" s="7"/>
       <c r="L34" s="7"/>
@@ -21663,10 +22410,10 @@
     <row r="49" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C49" s="7"/>
       <c r="D49" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G49" s="7"/>
       <c r="L49" s="7"/>
@@ -21682,7 +22429,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7"/>
       <c r="L51" s="7"/>
@@ -21691,7 +22438,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G52" s="7"/>
       <c r="L52" s="7"/>
@@ -21700,7 +22447,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G53" s="7"/>
       <c r="L53" s="7"/>
@@ -21714,7 +22461,7 @@
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C69" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -21722,10 +22469,10 @@
     <row r="70" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C70" s="7"/>
       <c r="D70" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.15">
@@ -21737,30 +22484,30 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C88" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D89" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E91" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C108" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -21768,10 +22515,10 @@
     <row r="109" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C109" s="7"/>
       <c r="D109" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.15">
@@ -21783,26 +22530,18 @@
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -21812,6 +22551,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>

--- a/030_設計ドキュメント/Nablarch開発標準設計書一覧.xlsx
+++ b/030_設計ドキュメント/Nablarch開発標準設計書一覧.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0B02FE-575B-487A-8EF1-C62BBDB84245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22ED196-2359-4B51-8C16-4BE44E4A5F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="1770" windowWidth="33090" windowHeight="18225" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" r:id="rId1"/>
@@ -1030,14 +1030,8 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>単体テスト仕様書_リクエスト・取引単体(バッチ)_(取引ID)_(取引名)</t>
-  </si>
-  <si>
     <t>バッチの単体テストの仕様書</t>
     <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>単体テスト仕様書_リクエスト・取引単体(メッセージ)_(取引ID)_(取引名)</t>
   </si>
   <si>
     <t>メッセージリクエストの単体テストの定義書</t>
@@ -1045,9 +1039,6 @@
       <t>テイギショ</t>
     </rPh>
     <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>単体テスト仕様書_リクエスト・取引単体(画面)_(取引ID)_(取引名)</t>
   </si>
   <si>
     <t>画面へのリクエストの単体テストの定義書</t>
@@ -1058,9 +1049,6 @@
       <t>テイギショ</t>
     </rPh>
     <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>単体テスト仕様書_共通コンポーネント_(共通コンポーネントID)_(共通コンポーネント名)</t>
   </si>
   <si>
     <t>共通コンポーネントの単体テストの定義書</t>
@@ -1305,10 +1293,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>単体テスト仕様書_リクエスト・取引単体(Webサービス)_(取引ID)_(取引名)</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>Webサービスの単体テストの仕様書</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -1316,16 +1300,6 @@
     <t>1.1版</t>
     <rPh sb="3" eb="4">
       <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>・テスト仕様書にWebサービスを追加</t>
-    <rPh sb="4" eb="7">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -1338,6 +1312,46 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書(Webサービス)_(取引ID)_(取引名)</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書(バッチ)_(取引ID)_(取引名)</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書(メッセージ)_(取引ID)_(取引名)</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書(画面)_(取引ID)_(取引名)</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書(共通コンポーネント)_(共通コンポーネントID)_(共通コンポーネント名)</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・テスト仕様書にWebサービスを追加
+・テスト仕様書のファイル名を変更</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -2228,7 +2242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1">
@@ -2392,99 +2406,6 @@
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2602,14 +2523,98 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="12" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2620,31 +2625,13 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="12" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
@@ -2674,6 +2661,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="20% - アクセント 1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -5461,92 +5476,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>150211</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>140389</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>61469</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>109211</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="AutoShape 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3703450" y="8638346"/>
-          <a:ext cx="1551215" cy="532039"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>【単体テスト仕様書</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="900"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>(リクエスト・取引単体)】</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>91937</xdr:colOff>
       <xdr:row>63</xdr:row>
@@ -5573,8 +5502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6105111" y="8654675"/>
-          <a:ext cx="1551214" cy="525235"/>
+          <a:off x="6168887" y="9074189"/>
+          <a:ext cx="1568608" cy="531447"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -5606,25 +5535,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>【単体テスト仕様書</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="900"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>(共通コンポーネント)】</a:t>
+            <a:t>【単体テスト仕様書】</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13691,7 +13602,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="J23" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14307,55 +14218,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="126" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="135" t="s">
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="115" t="s">
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="113" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="108">
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="77">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="110"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="79"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -14363,51 +14274,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="115" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="121" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="90" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="108">
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="77">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44848</v>
       </c>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="110"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="79"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -14415,43 +14326,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="110"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="79"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -14488,1048 +14399,1204 @@
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="111" t="s">
+      <c r="C7" s="81"/>
+      <c r="D7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="111" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="114" t="s">
+      <c r="H7" s="82"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="111" t="s">
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="113"/>
-      <c r="AB7" s="113"/>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="113"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="111" t="s">
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="113"/>
-      <c r="AH7" s="113"/>
-      <c r="AI7" s="112"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="81"/>
     </row>
     <row r="8" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96">
+      <c r="C8" s="130"/>
+      <c r="D8" s="131">
         <v>43336</v>
       </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99" t="s">
+      <c r="E8" s="132"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102" t="s">
+      <c r="H8" s="135"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="105" t="s">
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="102" t="s">
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="141"/>
+      <c r="W8" s="141"/>
+      <c r="X8" s="141"/>
+      <c r="Y8" s="141"/>
+      <c r="Z8" s="141"/>
+      <c r="AA8" s="141"/>
+      <c r="AB8" s="141"/>
+      <c r="AC8" s="141"/>
+      <c r="AD8" s="141"/>
+      <c r="AE8" s="142"/>
+      <c r="AF8" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="104"/>
-    </row>
-    <row r="9" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG8" s="138"/>
+      <c r="AH8" s="138"/>
+      <c r="AI8" s="139"/>
+    </row>
+    <row r="9" spans="1:40" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="90" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79">
+      <c r="B9" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118">
         <v>44848</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="91" t="s">
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="92" t="s">
+      <c r="H9" s="122"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="92" t="s">
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="126" t="s">
+        <v>206</v>
+      </c>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="85"/>
+      <c r="AG9" s="124"/>
+      <c r="AH9" s="124"/>
+      <c r="AI9" s="125"/>
     </row>
     <row r="10" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="85"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="144"/>
+      <c r="AG10" s="124"/>
+      <c r="AH10" s="124"/>
+      <c r="AI10" s="125"/>
     </row>
     <row r="11" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="85"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="128"/>
+      <c r="AF11" s="144"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="125"/>
     </row>
     <row r="12" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="85"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="127"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="127"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="144"/>
+      <c r="AG12" s="124"/>
+      <c r="AH12" s="124"/>
+      <c r="AI12" s="125"/>
     </row>
     <row r="13" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="88"/>
-      <c r="AF13" s="83"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="85"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="127"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="127"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="127"/>
+      <c r="AC13" s="127"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="144"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="124"/>
+      <c r="AI13" s="125"/>
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="88"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="85"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="127"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="127"/>
+      <c r="AC14" s="127"/>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="128"/>
+      <c r="AF14" s="144"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="125"/>
     </row>
     <row r="15" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="88"/>
-      <c r="AF15" s="83"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="85"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="127"/>
+      <c r="AB15" s="127"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="144"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="125"/>
     </row>
     <row r="16" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="85"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="128"/>
+      <c r="AF16" s="144"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="124"/>
+      <c r="AI16" s="125"/>
     </row>
     <row r="17" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="87"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="88"/>
-      <c r="AF17" s="83"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="85"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="144"/>
+      <c r="AG17" s="124"/>
+      <c r="AH17" s="124"/>
+      <c r="AI17" s="125"/>
     </row>
     <row r="18" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="85"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="144"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="125"/>
     </row>
     <row r="19" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="88"/>
-      <c r="AF19" s="83"/>
-      <c r="AG19" s="84"/>
-      <c r="AH19" s="84"/>
-      <c r="AI19" s="85"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="127"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="144"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="125"/>
     </row>
     <row r="20" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="87"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="83"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="85"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="145"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="144"/>
+      <c r="AG20" s="124"/>
+      <c r="AH20" s="124"/>
+      <c r="AI20" s="125"/>
     </row>
     <row r="21" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="83"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="85"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="127"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="127"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="127"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="144"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="125"/>
     </row>
     <row r="22" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="87"/>
-      <c r="AC22" s="87"/>
-      <c r="AD22" s="87"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="83"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="85"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="127"/>
+      <c r="U22" s="127"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="144"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="124"/>
+      <c r="AI22" s="125"/>
     </row>
     <row r="23" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="87"/>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="83"/>
-      <c r="AG23" s="84"/>
-      <c r="AH23" s="84"/>
-      <c r="AI23" s="85"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="127"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="144"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="125"/>
     </row>
     <row r="24" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="88"/>
-      <c r="AF24" s="83"/>
-      <c r="AG24" s="84"/>
-      <c r="AH24" s="84"/>
-      <c r="AI24" s="85"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="127"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="127"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="128"/>
+      <c r="AF24" s="144"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="124"/>
+      <c r="AI24" s="125"/>
     </row>
     <row r="25" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="87"/>
-      <c r="AC25" s="87"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="88"/>
-      <c r="AF25" s="83"/>
-      <c r="AG25" s="84"/>
-      <c r="AH25" s="84"/>
-      <c r="AI25" s="85"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="127"/>
+      <c r="AC25" s="127"/>
+      <c r="AD25" s="127"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="144"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="125"/>
     </row>
     <row r="26" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="83"/>
-      <c r="AG26" s="84"/>
-      <c r="AH26" s="84"/>
-      <c r="AI26" s="85"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="124"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="127"/>
+      <c r="AC26" s="127"/>
+      <c r="AD26" s="127"/>
+      <c r="AE26" s="128"/>
+      <c r="AF26" s="144"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="125"/>
     </row>
     <row r="27" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="87"/>
-      <c r="AC27" s="87"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="88"/>
-      <c r="AF27" s="83"/>
-      <c r="AG27" s="84"/>
-      <c r="AH27" s="84"/>
-      <c r="AI27" s="85"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="124"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="145"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="127"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="127"/>
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="127"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="144"/>
+      <c r="AG27" s="124"/>
+      <c r="AH27" s="124"/>
+      <c r="AI27" s="125"/>
     </row>
     <row r="28" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="88"/>
-      <c r="AF28" s="83"/>
-      <c r="AG28" s="84"/>
-      <c r="AH28" s="84"/>
-      <c r="AI28" s="85"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="127"/>
+      <c r="U28" s="127"/>
+      <c r="V28" s="127"/>
+      <c r="W28" s="127"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="127"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="127"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="127"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="144"/>
+      <c r="AG28" s="124"/>
+      <c r="AH28" s="124"/>
+      <c r="AI28" s="125"/>
     </row>
     <row r="29" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="87"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="87"/>
-      <c r="AB29" s="87"/>
-      <c r="AC29" s="87"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="83"/>
-      <c r="AG29" s="84"/>
-      <c r="AH29" s="84"/>
-      <c r="AI29" s="85"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="127"/>
+      <c r="AC29" s="127"/>
+      <c r="AD29" s="127"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="144"/>
+      <c r="AG29" s="124"/>
+      <c r="AH29" s="124"/>
+      <c r="AI29" s="125"/>
     </row>
     <row r="30" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="87"/>
-      <c r="AE30" s="88"/>
-      <c r="AF30" s="83"/>
-      <c r="AG30" s="84"/>
-      <c r="AH30" s="84"/>
-      <c r="AI30" s="85"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="145"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="127"/>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="127"/>
+      <c r="AC30" s="127"/>
+      <c r="AD30" s="127"/>
+      <c r="AE30" s="128"/>
+      <c r="AF30" s="144"/>
+      <c r="AG30" s="124"/>
+      <c r="AH30" s="124"/>
+      <c r="AI30" s="125"/>
     </row>
     <row r="31" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="87"/>
-      <c r="AB31" s="87"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="83"/>
-      <c r="AG31" s="84"/>
-      <c r="AH31" s="84"/>
-      <c r="AI31" s="85"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="124"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="124"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="127"/>
+      <c r="U31" s="127"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="127"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="127"/>
+      <c r="AC31" s="127"/>
+      <c r="AD31" s="127"/>
+      <c r="AE31" s="128"/>
+      <c r="AF31" s="144"/>
+      <c r="AG31" s="124"/>
+      <c r="AH31" s="124"/>
+      <c r="AI31" s="125"/>
     </row>
     <row r="32" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="88"/>
-      <c r="AF32" s="83"/>
-      <c r="AG32" s="84"/>
-      <c r="AH32" s="84"/>
-      <c r="AI32" s="85"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="124"/>
+      <c r="N32" s="124"/>
+      <c r="O32" s="124"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="145"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="127"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="128"/>
+      <c r="AF32" s="144"/>
+      <c r="AG32" s="124"/>
+      <c r="AH32" s="124"/>
+      <c r="AI32" s="125"/>
     </row>
     <row r="33" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="87"/>
-      <c r="AB33" s="87"/>
-      <c r="AC33" s="87"/>
-      <c r="AD33" s="87"/>
-      <c r="AE33" s="88"/>
-      <c r="AF33" s="83"/>
-      <c r="AG33" s="84"/>
-      <c r="AH33" s="84"/>
-      <c r="AI33" s="85"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="124"/>
+      <c r="N33" s="124"/>
+      <c r="O33" s="124"/>
+      <c r="P33" s="125"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="127"/>
+      <c r="U33" s="127"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="127"/>
+      <c r="X33" s="127"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="127"/>
+      <c r="AA33" s="127"/>
+      <c r="AB33" s="127"/>
+      <c r="AC33" s="127"/>
+      <c r="AD33" s="127"/>
+      <c r="AE33" s="128"/>
+      <c r="AF33" s="144"/>
+      <c r="AG33" s="124"/>
+      <c r="AH33" s="124"/>
+      <c r="AI33" s="125"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15553,162 +15620,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -15865,163 +15776,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="126" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="147" t="str">
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="148" t="s">
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="148" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="151"/>
+      <c r="AC2" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44848</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="151"/>
+      <c r="AC3" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -16282,14 +16193,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -16299,6 +16202,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -16326,59 +16237,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="153" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="162" t="str">
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="115" t="s">
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="6"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="6"/>
@@ -16392,54 +16303,54 @@
       <c r="AW1" s="6"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="115" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44848</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="6"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="6"/>
@@ -16453,52 +16364,52 @@
       <c r="AW2" s="6"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -16589,6 +16500,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -16599,13 +16517,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -16635,59 +16546,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="153" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="162" t="str">
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="115" t="s">
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="6"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="6"/>
@@ -16701,54 +16612,54 @@
       <c r="AW1" s="6"/>
     </row>
     <row r="2" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="115" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44848</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="6"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="6"/>
@@ -16762,52 +16673,52 @@
       <c r="AW2" s="6"/>
     </row>
     <row r="3" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -16844,11 +16755,19 @@
         <v>71</v>
       </c>
       <c r="K70" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -16858,19 +16777,11 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -16900,59 +16811,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="153" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="162" t="str">
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="115" t="s">
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="6"/>
       <c r="AM1" s="6"/>
       <c r="AN1" s="6"/>
@@ -16960,54 +16871,54 @@
       <c r="AP1" s="6"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="115" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44848</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="6"/>
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
@@ -17015,52 +16926,52 @@
       <c r="AP2" s="6"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -17077,7 +16988,7 @@
     </row>
     <row r="6" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.15">
@@ -17339,7 +17250,7 @@
       <c r="T13" s="67"/>
       <c r="U13" s="68"/>
       <c r="V13" s="70" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="W13" s="68"/>
       <c r="X13" s="70" t="s">
@@ -17364,7 +17275,7 @@
       </c>
       <c r="AL13" s="68"/>
       <c r="AM13" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AN13" s="67"/>
       <c r="AO13" s="67"/>
@@ -17488,7 +17399,7 @@
       </c>
       <c r="W16" s="68"/>
       <c r="X16" s="70" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Y16" s="67"/>
       <c r="Z16" s="67"/>
@@ -17509,7 +17420,7 @@
       </c>
       <c r="AL16" s="68"/>
       <c r="AM16" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN16" s="67"/>
       <c r="AO16" s="67"/>
@@ -17539,7 +17450,7 @@
       <c r="T17" s="67"/>
       <c r="U17" s="68"/>
       <c r="V17" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W17" s="68"/>
       <c r="X17" s="70" t="s">
@@ -17564,7 +17475,7 @@
       </c>
       <c r="AL17" s="68"/>
       <c r="AM17" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN17" s="67"/>
       <c r="AO17" s="67"/>
@@ -17594,7 +17505,7 @@
       <c r="T18" s="67"/>
       <c r="U18" s="68"/>
       <c r="V18" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W18" s="68"/>
       <c r="X18" s="70" t="s">
@@ -17619,7 +17530,7 @@
       </c>
       <c r="AL18" s="68"/>
       <c r="AM18" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN18" s="67"/>
       <c r="AO18" s="67"/>
@@ -17649,7 +17560,7 @@
       <c r="T19" s="67"/>
       <c r="U19" s="68"/>
       <c r="V19" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W19" s="68"/>
       <c r="X19" s="70" t="s">
@@ -17674,7 +17585,7 @@
       </c>
       <c r="AL19" s="68"/>
       <c r="AM19" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN19" s="67"/>
       <c r="AO19" s="67"/>
@@ -17729,7 +17640,7 @@
       </c>
       <c r="AL20" s="68"/>
       <c r="AM20" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN20" s="67"/>
       <c r="AO20" s="67"/>
@@ -17804,7 +17715,7 @@
       <c r="T22" s="67"/>
       <c r="U22" s="68"/>
       <c r="V22" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W22" s="68"/>
       <c r="X22" s="70" t="s">
@@ -17829,7 +17740,7 @@
       </c>
       <c r="AL22" s="68"/>
       <c r="AM22" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN22" s="67"/>
       <c r="AO22" s="67"/>
@@ -17949,7 +17860,7 @@
       <c r="T25" s="67"/>
       <c r="U25" s="68"/>
       <c r="V25" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W25" s="68"/>
       <c r="X25" s="70" t="s">
@@ -17974,7 +17885,7 @@
       </c>
       <c r="AL25" s="68"/>
       <c r="AM25" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN25" s="67"/>
       <c r="AO25" s="67"/>
@@ -18004,7 +17915,7 @@
       <c r="T26" s="67"/>
       <c r="U26" s="68"/>
       <c r="V26" s="70" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W26" s="68"/>
       <c r="X26" s="70" t="s">
@@ -18029,7 +17940,7 @@
       </c>
       <c r="AL26" s="68"/>
       <c r="AM26" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN26" s="67"/>
       <c r="AO26" s="67"/>
@@ -18104,7 +18015,7 @@
       <c r="T28" s="67"/>
       <c r="U28" s="68"/>
       <c r="V28" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W28" s="68"/>
       <c r="X28" s="70" t="s">
@@ -18129,7 +18040,7 @@
       </c>
       <c r="AL28" s="68"/>
       <c r="AM28" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN28" s="67"/>
       <c r="AO28" s="67"/>
@@ -18159,7 +18070,7 @@
       <c r="T29" s="67"/>
       <c r="U29" s="68"/>
       <c r="V29" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W29" s="68"/>
       <c r="X29" s="70" t="s">
@@ -18184,7 +18095,7 @@
       </c>
       <c r="AL29" s="68"/>
       <c r="AM29" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN29" s="67"/>
       <c r="AO29" s="67"/>
@@ -18214,7 +18125,7 @@
       <c r="T30" s="67"/>
       <c r="U30" s="68"/>
       <c r="V30" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W30" s="68"/>
       <c r="X30" s="70" t="s">
@@ -18239,7 +18150,7 @@
       </c>
       <c r="AL30" s="68"/>
       <c r="AM30" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN30" s="67"/>
       <c r="AO30" s="67"/>
@@ -18269,7 +18180,7 @@
       <c r="T31" s="67"/>
       <c r="U31" s="68"/>
       <c r="V31" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W31" s="68"/>
       <c r="X31" s="70" t="s">
@@ -18294,7 +18205,7 @@
       </c>
       <c r="AL31" s="68"/>
       <c r="AM31" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN31" s="67"/>
       <c r="AO31" s="67"/>
@@ -18324,7 +18235,7 @@
       <c r="T32" s="67"/>
       <c r="U32" s="68"/>
       <c r="V32" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W32" s="68"/>
       <c r="X32" s="70" t="s">
@@ -18349,7 +18260,7 @@
       </c>
       <c r="AL32" s="68"/>
       <c r="AM32" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN32" s="67"/>
       <c r="AO32" s="67"/>
@@ -18379,7 +18290,7 @@
       <c r="T33" s="67"/>
       <c r="U33" s="68"/>
       <c r="V33" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W33" s="68"/>
       <c r="X33" s="70" t="s">
@@ -18404,7 +18315,7 @@
       </c>
       <c r="AL33" s="68"/>
       <c r="AM33" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN33" s="67"/>
       <c r="AO33" s="67"/>
@@ -18434,7 +18345,7 @@
       <c r="T34" s="67"/>
       <c r="U34" s="68"/>
       <c r="V34" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W34" s="68"/>
       <c r="X34" s="70" t="s">
@@ -18459,7 +18370,7 @@
       </c>
       <c r="AL34" s="68"/>
       <c r="AM34" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN34" s="67"/>
       <c r="AO34" s="67"/>
@@ -18534,7 +18445,7 @@
       <c r="T36" s="67"/>
       <c r="U36" s="68"/>
       <c r="V36" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W36" s="68"/>
       <c r="X36" s="70" t="s">
@@ -18559,7 +18470,7 @@
       </c>
       <c r="AL36" s="68"/>
       <c r="AM36" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN36" s="67"/>
       <c r="AO36" s="67"/>
@@ -18589,7 +18500,7 @@
       <c r="T37" s="67"/>
       <c r="U37" s="68"/>
       <c r="V37" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W37" s="68"/>
       <c r="X37" s="70" t="s">
@@ -18614,7 +18525,7 @@
       </c>
       <c r="AL37" s="68"/>
       <c r="AM37" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN37" s="67"/>
       <c r="AO37" s="67"/>
@@ -18689,7 +18600,7 @@
       <c r="T39" s="67"/>
       <c r="U39" s="68"/>
       <c r="V39" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W39" s="68"/>
       <c r="X39" s="70" t="s">
@@ -18714,7 +18625,7 @@
       </c>
       <c r="AL39" s="68"/>
       <c r="AM39" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN39" s="67"/>
       <c r="AO39" s="67"/>
@@ -18744,11 +18655,11 @@
       <c r="T40" s="67"/>
       <c r="U40" s="68"/>
       <c r="V40" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W40" s="68"/>
       <c r="X40" s="70" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Y40" s="67"/>
       <c r="Z40" s="67"/>
@@ -18769,7 +18680,7 @@
       </c>
       <c r="AL40" s="68"/>
       <c r="AM40" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN40" s="67"/>
       <c r="AO40" s="67"/>
@@ -18799,11 +18710,11 @@
       <c r="T41" s="67"/>
       <c r="U41" s="68"/>
       <c r="V41" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W41" s="68"/>
       <c r="X41" s="70" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Y41" s="67"/>
       <c r="Z41" s="67"/>
@@ -18824,7 +18735,7 @@
       </c>
       <c r="AL41" s="68"/>
       <c r="AM41" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN41" s="67"/>
       <c r="AO41" s="67"/>
@@ -18854,11 +18765,11 @@
       <c r="T42" s="67"/>
       <c r="U42" s="68"/>
       <c r="V42" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W42" s="68"/>
       <c r="X42" s="70" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Y42" s="67"/>
       <c r="Z42" s="67"/>
@@ -18879,7 +18790,7 @@
       </c>
       <c r="AL42" s="68"/>
       <c r="AM42" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN42" s="67"/>
       <c r="AO42" s="67"/>
@@ -18909,11 +18820,11 @@
       <c r="T43" s="67"/>
       <c r="U43" s="68"/>
       <c r="V43" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W43" s="68"/>
       <c r="X43" s="70" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Y43" s="67"/>
       <c r="Z43" s="67"/>
@@ -18934,7 +18845,7 @@
       </c>
       <c r="AL43" s="68"/>
       <c r="AM43" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN43" s="67"/>
       <c r="AO43" s="67"/>
@@ -18964,11 +18875,11 @@
       <c r="T44" s="67"/>
       <c r="U44" s="68"/>
       <c r="V44" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W44" s="68"/>
       <c r="X44" s="70" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y44" s="67"/>
       <c r="Z44" s="67"/>
@@ -18989,7 +18900,7 @@
       </c>
       <c r="AL44" s="68"/>
       <c r="AM44" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN44" s="67"/>
       <c r="AO44" s="67"/>
@@ -19019,11 +18930,11 @@
       <c r="T45" s="67"/>
       <c r="U45" s="68"/>
       <c r="V45" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W45" s="68"/>
       <c r="X45" s="70" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Y45" s="67"/>
       <c r="Z45" s="67"/>
@@ -19044,7 +18955,7 @@
       </c>
       <c r="AL45" s="68"/>
       <c r="AM45" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN45" s="67"/>
       <c r="AO45" s="67"/>
@@ -19119,7 +19030,7 @@
       <c r="T47" s="67"/>
       <c r="U47" s="68"/>
       <c r="V47" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W47" s="68"/>
       <c r="X47" s="70" t="s">
@@ -19144,7 +19055,7 @@
       </c>
       <c r="AL47" s="68"/>
       <c r="AM47" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN47" s="67"/>
       <c r="AO47" s="67"/>
@@ -19174,7 +19085,7 @@
       <c r="T48" s="67"/>
       <c r="U48" s="68"/>
       <c r="V48" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W48" s="68"/>
       <c r="X48" s="70" t="s">
@@ -19199,7 +19110,7 @@
       </c>
       <c r="AL48" s="68"/>
       <c r="AM48" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN48" s="67"/>
       <c r="AO48" s="67"/>
@@ -19274,7 +19185,7 @@
       <c r="T50" s="67"/>
       <c r="U50" s="68"/>
       <c r="V50" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W50" s="68"/>
       <c r="X50" s="70" t="s">
@@ -19299,7 +19210,7 @@
       </c>
       <c r="AL50" s="68"/>
       <c r="AM50" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN50" s="67"/>
       <c r="AO50" s="67"/>
@@ -19329,7 +19240,7 @@
       <c r="T51" s="67"/>
       <c r="U51" s="68"/>
       <c r="V51" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W51" s="68"/>
       <c r="X51" s="70" t="s">
@@ -19354,7 +19265,7 @@
       </c>
       <c r="AL51" s="68"/>
       <c r="AM51" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN51" s="67"/>
       <c r="AO51" s="67"/>
@@ -19429,7 +19340,7 @@
       <c r="T53" s="67"/>
       <c r="U53" s="68"/>
       <c r="V53" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W53" s="68"/>
       <c r="X53" s="70" t="s">
@@ -19454,7 +19365,7 @@
       </c>
       <c r="AL53" s="68"/>
       <c r="AM53" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN53" s="67"/>
       <c r="AO53" s="67"/>
@@ -19484,7 +19395,7 @@
       <c r="T54" s="67"/>
       <c r="U54" s="68"/>
       <c r="V54" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W54" s="68"/>
       <c r="X54" s="70" t="s">
@@ -19509,7 +19420,7 @@
       </c>
       <c r="AL54" s="68"/>
       <c r="AM54" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN54" s="67"/>
       <c r="AO54" s="67"/>
@@ -19584,7 +19495,7 @@
       <c r="T56" s="67"/>
       <c r="U56" s="68"/>
       <c r="V56" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W56" s="68"/>
       <c r="X56" s="70" t="s">
@@ -19609,7 +19520,7 @@
       </c>
       <c r="AL56" s="68"/>
       <c r="AM56" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN56" s="67"/>
       <c r="AO56" s="67"/>
@@ -19684,7 +19595,7 @@
       <c r="T58" s="67"/>
       <c r="U58" s="68"/>
       <c r="V58" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W58" s="68"/>
       <c r="X58" s="70" t="s">
@@ -19709,7 +19620,7 @@
       </c>
       <c r="AL58" s="68"/>
       <c r="AM58" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN58" s="67"/>
       <c r="AO58" s="67"/>
@@ -19809,7 +19720,7 @@
       </c>
       <c r="AL60" s="68"/>
       <c r="AM60" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN60" s="67"/>
       <c r="AO60" s="67"/>
@@ -19839,7 +19750,7 @@
       <c r="T61" s="67"/>
       <c r="U61" s="68"/>
       <c r="V61" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W61" s="67"/>
       <c r="X61" s="70" t="s">
@@ -19864,7 +19775,7 @@
       </c>
       <c r="AL61" s="68"/>
       <c r="AM61" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN61" s="67"/>
       <c r="AO61" s="67"/>
@@ -19894,7 +19805,7 @@
       <c r="T62" s="67"/>
       <c r="U62" s="68"/>
       <c r="V62" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W62" s="67"/>
       <c r="X62" s="70" t="s">
@@ -19919,7 +19830,7 @@
       </c>
       <c r="AL62" s="68"/>
       <c r="AM62" s="70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN62" s="67"/>
       <c r="AO62" s="67"/>
@@ -19949,7 +19860,7 @@
       <c r="T63" s="67"/>
       <c r="U63" s="68"/>
       <c r="V63" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W63" s="67"/>
       <c r="X63" s="70" t="s">
@@ -20004,7 +19915,7 @@
       <c r="T64" s="67"/>
       <c r="U64" s="68"/>
       <c r="V64" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W64" s="67"/>
       <c r="X64" s="70" t="s">
@@ -20104,7 +20015,7 @@
       <c r="T66" s="67"/>
       <c r="U66" s="68"/>
       <c r="V66" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W66" s="67"/>
       <c r="X66" s="70" t="s">
@@ -20184,7 +20095,7 @@
       <c r="B68" s="71"/>
       <c r="C68" s="69"/>
       <c r="D68" s="75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E68" s="67"/>
       <c r="F68" s="67"/>
@@ -20204,11 +20115,11 @@
       <c r="T68" s="67"/>
       <c r="U68" s="68"/>
       <c r="V68" s="70" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="W68" s="67"/>
       <c r="X68" s="75" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Y68" s="67"/>
       <c r="Z68" s="67"/>
@@ -20238,8 +20149,8 @@
     <row r="69" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B69" s="71"/>
       <c r="C69" s="69"/>
-      <c r="D69" s="70" t="s">
-        <v>172</v>
+      <c r="D69" s="171" t="s">
+        <v>202</v>
       </c>
       <c r="E69" s="67"/>
       <c r="F69" s="67"/>
@@ -20259,11 +20170,11 @@
       <c r="T69" s="67"/>
       <c r="U69" s="68"/>
       <c r="V69" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W69" s="67"/>
       <c r="X69" s="70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y69" s="67"/>
       <c r="Z69" s="67"/>
@@ -20293,8 +20204,8 @@
     <row r="70" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B70" s="71"/>
       <c r="C70" s="69"/>
-      <c r="D70" s="70" t="s">
-        <v>174</v>
+      <c r="D70" s="171" t="s">
+        <v>203</v>
       </c>
       <c r="E70" s="67"/>
       <c r="F70" s="67"/>
@@ -20314,11 +20225,11 @@
       <c r="T70" s="67"/>
       <c r="U70" s="68"/>
       <c r="V70" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W70" s="67"/>
       <c r="X70" s="70" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Y70" s="67"/>
       <c r="Z70" s="67"/>
@@ -20348,8 +20259,8 @@
     <row r="71" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B71" s="71"/>
       <c r="C71" s="69"/>
-      <c r="D71" s="70" t="s">
-        <v>176</v>
+      <c r="D71" s="171" t="s">
+        <v>204</v>
       </c>
       <c r="E71" s="67"/>
       <c r="F71" s="67"/>
@@ -20369,11 +20280,11 @@
       <c r="T71" s="67"/>
       <c r="U71" s="68"/>
       <c r="V71" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W71" s="67"/>
       <c r="X71" s="70" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Y71" s="67"/>
       <c r="Z71" s="67"/>
@@ -20403,8 +20314,8 @@
     <row r="72" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B72" s="72"/>
       <c r="C72" s="65"/>
-      <c r="D72" s="70" t="s">
-        <v>178</v>
+      <c r="D72" s="171" t="s">
+        <v>205</v>
       </c>
       <c r="E72" s="67"/>
       <c r="F72" s="67"/>
@@ -20424,11 +20335,11 @@
       <c r="T72" s="67"/>
       <c r="U72" s="68"/>
       <c r="V72" s="70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W72" s="67"/>
       <c r="X72" s="70" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Y72" s="67"/>
       <c r="Z72" s="67"/>
@@ -20457,14 +20368,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -20474,11 +20377,19 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -20506,59 +20417,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="153" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="162" t="str">
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarch開発標準設計書一覧</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="115" t="s">
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="6"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="6"/>
@@ -20572,54 +20483,54 @@
       <c r="AW1" s="6"/>
     </row>
     <row r="2" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="115" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44848</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="6"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="6"/>
@@ -20633,52 +20544,52 @@
       <c r="AW2" s="6"/>
     </row>
     <row r="3" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="113" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -20707,7 +20618,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.15">
@@ -20728,12 +20639,12 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.15">
       <c r="E12" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.15">
       <c r="E13" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.15">
@@ -20749,12 +20660,12 @@
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E33" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E34" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.15">
@@ -20806,7 +20717,7 @@
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C88" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.15">
@@ -20840,24 +20751,16 @@
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E111" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E112" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -20867,6 +20770,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
